--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5014" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -496,340 +496,334 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>['France', 'Soviet Union']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Bulgaria']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Argentina']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['England', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Morocco', 'England']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'West Germany']</t>
-  </si>
-  <si>
-    <t>['Cameroon', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Cameroon']</t>
-  </si>
-  <si>
-    <t>['West Germany', 'Colombia']</t>
-  </si>
-  <si>
-    <t>['Yugoslavia', 'West Germany']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Czechoslovakia']</t>
-  </si>
-  <si>
-    <t>['Scotland', 'Brazil']</t>
+    <t>['France', 'Hungary', 'Soviet Union']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Argentina', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Paraguay', 'Mexico', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Mexico', 'Paraguay']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Morocco', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'England', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Morocco', 'Portugal', 'England']</t>
+  </si>
+  <si>
+    <t>['Morocco', 'England', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Algeria', 'Brazil', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'West Germany', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Cameroon', 'Romania']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+  </si>
+  <si>
+    <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+  </si>
+  <si>
+    <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+  </si>
+  <si>
+    <t>['Scotland', 'Brazil', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Belgium', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Egypt', 'England', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'United States', 'Romania']</t>
+  </si>
+  <si>
+    <t>['Germany', 'South Korea', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Republic of Ireland', 'Norway']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Brazil', 'Cameroon']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Brazil', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Chile']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Norway']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Morocco']</t>
+  </si>
+  <si>
+    <t>['France', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Paraguay']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Mexico', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Germany', 'FR Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Romania', 'England']</t>
+  </si>
+  <si>
+    <t>['Senegal', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Cameroon']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Republic of Ireland']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'England']</t>
+  </si>
+  <si>
+    <t>['South Africa', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Paraguay', 'Spain']</t>
   </si>
   <si>
     <t>['Costa Rica', 'Brazil']</t>
   </si>
   <si>
-    <t>['Belgium', 'Spain']</t>
-  </si>
-  <si>
-    <t>['England', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['United States', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Romania', 'Switzerland']</t>
+    <t>['Brazil', 'Turkey']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Mexico', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Japan', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Japan']</t>
+  </si>
+  <si>
+    <t>['United States', 'South Korea']</t>
+  </si>
+  <si>
+    <t>['South Korea', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Ecuador']</t>
+  </si>
+  <si>
+    <t>['Mexico', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Ghana']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Australia']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'South Korea']</t>
+  </si>
+  <si>
+    <t>['France', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'South Korea']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Greece']</t>
+  </si>
+  <si>
+    <t>['United States', 'Slovenia']</t>
+  </si>
+  <si>
+    <t>['Slovenia', 'England']</t>
+  </si>
+  <si>
+    <t>['United States', 'England']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Ghana']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Paraguay']</t>
+  </si>
+  <si>
+    <t>['Paraguay', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Japan', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Brazil', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Chile', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Chile', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Mexico', 'Brazil']</t>
+  </si>
+  <si>
+    <t>['Colombia', 'Ivory Coast']</t>
+  </si>
+  <si>
+    <t>['Colombia', 'Greece']</t>
+  </si>
+  <si>
+    <t>['Costa Rica', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Costa Rica', 'Uruguay']</t>
+  </si>
+  <si>
+    <t>['France', 'Ecuador']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Argentina']</t>
+  </si>
+  <si>
+    <t>['United States', 'Germany']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Algeria']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Nigeria', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Mexico']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'Brazil']</t>
+  </si>
+  <si>
+    <t>['Senegal', 'Japan']</t>
+  </si>
+  <si>
+    <t>['Senegal', 'Colombia']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'England']</t>
+  </si>
+  <si>
+    <t>['Ecuador', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Senegal', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Iran', 'England']</t>
+  </si>
+  <si>
+    <t>['France', 'Australia']</t>
+  </si>
+  <si>
+    <t>['France', 'Tunisia']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Morocco', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Japan', 'Spain']</t>
   </si>
   <si>
     <t>['Germany', 'Spain']</t>
   </si>
   <si>
-    <t>['Republic of Ireland', 'Mexico']</t>
-  </si>
-  <si>
-    <t>['Republic of Ireland', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Saudi Arabia', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Saudi Arabia', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Argentina']</t>
-  </si>
-  <si>
-    <t>['Chile', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Norway', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['Morocco', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['France', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Germany', 'FR Yugoslavia']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['England', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Senegal']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Cameroon']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['England', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['South Africa', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Paraguay', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Turkey', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Mexico']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Japan']</t>
-  </si>
-  <si>
-    <t>['Japan', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'United States']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Ecuador']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Ghana']</t>
-  </si>
-  <si>
-    <t>['Australia', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['Brazil', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Spain']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['France', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Uruguay']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Argentina']</t>
-  </si>
-  <si>
-    <t>['Greece', 'Argentina']</t>
-  </si>
-  <si>
-    <t>['United States', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['England', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['England', 'United States']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Ghana']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Paraguay']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Japan']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['Chile', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Chile', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Mexico', 'Brazil']</t>
-  </si>
-  <si>
-    <t>['Ivory Coast', 'Colombia']</t>
-  </si>
-  <si>
-    <t>['Greece', 'Colombia']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Costa Rica']</t>
-  </si>
-  <si>
-    <t>['Uruguay', 'Costa Rica']</t>
-  </si>
-  <si>
-    <t>['France', 'Ecuador']</t>
-  </si>
-  <si>
-    <t>['Germany', 'United States']</t>
-  </si>
-  <si>
-    <t>['Algeria', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Egypt', 'Uruguay']</t>
-  </si>
-  <si>
-    <t>['Saudi Arabia', 'Russia', 'Uruguay']</t>
-  </si>
-  <si>
-    <t>['Iran', 'Portugal', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Morocco', 'Portugal', 'Spain']</t>
-  </si>
-  <si>
-    <t>['France', 'Australia', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['France', 'Denmark', 'Peru']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Iceland', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Nigeria', 'Argentina', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Mexico', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Mexico', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Serbia', 'Brazil', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Colombia', 'Senegal', 'Japan']</t>
-  </si>
-  <si>
-    <t>['Senegal', 'Colombia', 'Japan']</t>
-  </si>
-  <si>
-    <t>['England', 'Belgium', 'Tunisia']</t>
-  </si>
-  <si>
-    <t>['Panama', 'England', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Ecuador', 'Senegal', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Iran', 'England', 'United States']</t>
-  </si>
-  <si>
-    <t>['France', 'Australia', 'Tunisia']</t>
-  </si>
-  <si>
-    <t>['Saudi Arabia', 'Argentina', 'Poland']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Poland', 'Mexico']</t>
-  </si>
-  <si>
-    <t>['Morocco', 'Belgium', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Japan', 'Costa Rica', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Japan', 'Spain']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Portugal', 'Ghana']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Ghana', 'Uruguay']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Uruguay', 'Ghana']</t>
-  </si>
-  <si>
-    <t>['South Korea', 'Portugal', 'Uruguay']</t>
-  </si>
-  <si>
-    <t>['Cameroon', 'Brazil', 'Switzerland']</t>
+    <t>['Spain', 'Japan']</t>
+  </si>
+  <si>
+    <t>['Costa Rica', 'Japan']</t>
+  </si>
+  <si>
+    <t>['Ghana', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Uruguay', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Serbia', 'Brazil']</t>
   </si>
   <si>
     <t>tie</t>
@@ -1331,10 +1325,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1378,10 +1375,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1736,7 +1736,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1751,7 +1751,7 @@
         <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
         <v>84</v>
@@ -1763,10 +1763,10 @@
         <v>146</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>67</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>17</v>
@@ -1801,7 +1801,7 @@
         <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
         <v>84</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>62</v>
@@ -1851,7 +1851,7 @@
         <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
         <v>84</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>67</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>73</v>
@@ -1901,7 +1901,7 @@
         <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
         <v>84</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -1936,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>77</v>
@@ -1951,7 +1951,7 @@
         <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
         <v>84</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1986</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>67</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>82</v>
@@ -2001,7 +2001,7 @@
         <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
         <v>84</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>67</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>89</v>
@@ -2051,7 +2051,7 @@
         <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
         <v>84</v>
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1986</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
         <v>125</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1986</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>125</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
         <v>125</v>
@@ -2154,16 +2154,13 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>67</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -2192,7 +2189,7 @@
         <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
         <v>101</v>
@@ -2204,16 +2201,16 @@
         <v>87</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1986</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>67</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -2242,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
         <v>125</v>
@@ -2254,19 +2251,16 @@
         <v>101</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1986</v>
       </c>
@@ -2280,7 +2274,7 @@
         <v>67</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>54</v>
@@ -2295,7 +2289,7 @@
         <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
         <v>125</v>
@@ -2310,16 +2304,13 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1986</v>
       </c>
@@ -2333,7 +2324,7 @@
         <v>67</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>59</v>
@@ -2348,7 +2339,7 @@
         <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s">
         <v>125</v>
@@ -2360,16 +2351,16 @@
         <v>87</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>1986</v>
       </c>
@@ -2383,7 +2374,7 @@
         <v>67</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>76</v>
@@ -2398,7 +2389,7 @@
         <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
         <v>125</v>
@@ -2410,19 +2401,16 @@
         <v>101</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -2442,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s">
         <v>127</v>
@@ -2463,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1986</v>
       </c>
@@ -2489,7 +2477,7 @@
         <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
         <v>127</v>
@@ -2504,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>1986</v>
       </c>
@@ -2524,7 +2512,7 @@
         <v>68</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2551,7 +2539,7 @@
         <v>88</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2560,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>1986</v>
       </c>
@@ -2574,7 +2562,7 @@
         <v>68</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -2607,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>1986</v>
       </c>
@@ -2624,7 +2612,7 @@
         <v>68</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -2654,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>1986</v>
       </c>
@@ -2674,7 +2662,7 @@
         <v>68</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>27</v>
@@ -2704,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>1986</v>
       </c>
@@ -2724,7 +2712,7 @@
         <v>68</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>36</v>
@@ -2754,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>1986</v>
       </c>
@@ -2774,7 +2762,7 @@
         <v>68</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>62</v>
@@ -2804,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>1986</v>
       </c>
@@ -2824,7 +2812,7 @@
         <v>68</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -2854,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>1986</v>
       </c>
@@ -2901,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>1986</v>
       </c>
@@ -2942,16 +2930,13 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>1986</v>
       </c>
@@ -2992,16 +2977,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>1986</v>
       </c>
@@ -3015,7 +2997,7 @@
         <v>67</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>15</v>
@@ -3030,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s">
         <v>100</v>
@@ -3042,7 +3024,7 @@
         <v>91</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3050,11 +3032,8 @@
       <c r="P38">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1986</v>
       </c>
@@ -3068,7 +3047,7 @@
         <v>67</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>15</v>
@@ -3095,16 +3074,16 @@
         <v>90</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -3118,7 +3097,7 @@
         <v>67</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>42</v>
@@ -3133,7 +3112,7 @@
         <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s">
         <v>100</v>
@@ -3145,16 +3124,16 @@
         <v>91</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>1986</v>
       </c>
@@ -3168,7 +3147,7 @@
         <v>67</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>68</v>
@@ -3195,16 +3174,16 @@
         <v>90</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -3218,7 +3197,7 @@
         <v>67</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>70</v>
@@ -3248,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>1986</v>
       </c>
@@ -3268,7 +3247,7 @@
         <v>67</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>87</v>
@@ -3298,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>1986</v>
       </c>
@@ -3324,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
         <v>92</v>
@@ -3345,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>1986</v>
       </c>
@@ -3371,7 +3350,7 @@
         <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
         <v>92</v>
@@ -3386,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1986</v>
       </c>
@@ -3418,7 +3397,7 @@
         <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
         <v>92</v>
@@ -3433,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>1986</v>
       </c>
@@ -3468,7 +3447,7 @@
         <v>92</v>
       </c>
       <c r="J47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
         <v>92</v>
@@ -3486,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="P47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>1986</v>
       </c>
@@ -3518,7 +3497,7 @@
         <v>92</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
         <v>92</v>
@@ -3536,10 +3515,10 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>1990</v>
       </c>
@@ -3559,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K49" t="s">
         <v>94</v>
@@ -3580,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>1990</v>
       </c>
@@ -3609,7 +3588,7 @@
         <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
         <v>94</v>
@@ -3624,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>1990</v>
       </c>
@@ -3659,7 +3638,7 @@
         <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K51" t="s">
         <v>94</v>
@@ -3674,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>1990</v>
       </c>
@@ -3709,7 +3688,7 @@
         <v>83</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K52" t="s">
         <v>94</v>
@@ -3724,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>1990</v>
       </c>
@@ -3744,7 +3723,7 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>62</v>
@@ -3771,16 +3750,16 @@
         <v>118</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>1990</v>
       </c>
@@ -3809,7 +3788,7 @@
         <v>83</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K54" t="s">
         <v>84</v>
@@ -3821,16 +3800,16 @@
         <v>83</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>1990</v>
       </c>
@@ -3859,7 +3838,7 @@
         <v>118</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K55" t="s">
         <v>94</v>
@@ -3874,13 +3853,13 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>1990</v>
       </c>
@@ -3900,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s">
         <v>98</v>
@@ -3921,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>1990</v>
       </c>
@@ -3935,7 +3914,7 @@
         <v>70</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3962,19 +3941,16 @@
         <v>117</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>-2</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>1990</v>
       </c>
@@ -3988,7 +3964,7 @@
         <v>70</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -4018,16 +3994,13 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>-1</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>1990</v>
       </c>
@@ -4041,7 +4014,7 @@
         <v>70</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>22</v>
@@ -4071,16 +4044,13 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>-2</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>1990</v>
       </c>
@@ -4094,7 +4064,7 @@
         <v>70</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>46</v>
@@ -4124,16 +4094,13 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>-1</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1990</v>
       </c>
@@ -4147,10 +4114,10 @@
         <v>70</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
         <v>95</v>
@@ -4177,16 +4144,13 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1990</v>
       </c>
@@ -4227,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>1990</v>
       </c>
@@ -4271,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>3</v>
       </c>
-      <c r="P63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>1990</v>
       </c>
@@ -4327,7 +4291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>1990</v>
       </c>
@@ -4374,10 +4338,10 @@
         <v>2</v>
       </c>
       <c r="P65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1990</v>
       </c>
@@ -4424,10 +4388,10 @@
         <v>2</v>
       </c>
       <c r="P66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>1990</v>
       </c>
@@ -4474,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="P67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>1990</v>
       </c>
@@ -4491,7 +4455,7 @@
         <v>69</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>88</v>
@@ -4524,10 +4488,10 @@
         <v>2</v>
       </c>
       <c r="P68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>1990</v>
       </c>
@@ -4541,10 +4505,10 @@
         <v>69</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -4571,16 +4535,13 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>-1</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1990</v>
       </c>
@@ -4621,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>1990</v>
       </c>
@@ -4635,7 +4596,7 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>32</v>
@@ -4650,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="J71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K71" t="s">
         <v>100</v>
@@ -4662,16 +4623,16 @@
         <v>99</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1990</v>
       </c>
@@ -4685,7 +4646,7 @@
         <v>69</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>75</v>
@@ -4700,7 +4661,7 @@
         <v>123</v>
       </c>
       <c r="J72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K72" t="s">
         <v>100</v>
@@ -4715,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>1990</v>
       </c>
@@ -4735,7 +4696,7 @@
         <v>69</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>81</v>
@@ -4750,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="J73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K73" t="s">
         <v>100</v>
@@ -4771,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1990</v>
       </c>
@@ -4785,7 +4746,7 @@
         <v>69</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>87</v>
@@ -4800,7 +4761,7 @@
         <v>123</v>
       </c>
       <c r="J74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K74" t="s">
         <v>100</v>
@@ -4821,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>1990</v>
       </c>
@@ -4838,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
         <v>85</v>
@@ -4850,7 +4811,7 @@
         <v>140</v>
       </c>
       <c r="J75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K75" t="s">
         <v>114</v>
@@ -4865,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1990</v>
       </c>
@@ -4891,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K76" t="s">
         <v>101</v>
@@ -4912,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1990</v>
       </c>
@@ -4941,7 +4902,7 @@
         <v>114</v>
       </c>
       <c r="J77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K77" t="s">
         <v>114</v>
@@ -4956,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
         <v>2</v>
       </c>
-      <c r="P77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>1990</v>
       </c>
@@ -4991,7 +4952,7 @@
         <v>101</v>
       </c>
       <c r="J78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K78" t="s">
         <v>101</v>
@@ -5006,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>2</v>
       </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>1990</v>
       </c>
@@ -5041,7 +5002,7 @@
         <v>114</v>
       </c>
       <c r="J79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K79" t="s">
         <v>114</v>
@@ -5056,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
         <v>2</v>
       </c>
-      <c r="P79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>1990</v>
       </c>
@@ -5082,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K80" t="s">
         <v>88</v>
@@ -5117,7 +5078,7 @@
         <v>69</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>11</v>
@@ -5132,7 +5093,7 @@
         <v>115</v>
       </c>
       <c r="J81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s">
         <v>115</v>
@@ -5144,13 +5105,13 @@
         <v>149</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5167,7 +5128,7 @@
         <v>69</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>58</v>
@@ -5182,7 +5143,7 @@
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K82" t="s">
         <v>115</v>
@@ -5197,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5217,7 +5178,7 @@
         <v>69</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>71</v>
@@ -5232,7 +5193,7 @@
         <v>102</v>
       </c>
       <c r="J83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K83" t="s">
         <v>88</v>
@@ -5244,13 +5205,13 @@
         <v>102</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5273,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K84" t="s">
         <v>103</v>
@@ -5320,7 +5281,7 @@
         <v>117</v>
       </c>
       <c r="J85" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s">
         <v>103</v>
@@ -5335,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -5367,7 +5328,7 @@
         <v>118</v>
       </c>
       <c r="J86" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K86" t="s">
         <v>103</v>
@@ -5382,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86">
         <v>2</v>
@@ -5402,7 +5363,7 @@
         <v>71</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>18</v>
@@ -5417,7 +5378,7 @@
         <v>118</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K87" t="s">
         <v>118</v>
@@ -5429,10 +5390,10 @@
         <v>104</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P87">
         <v>3</v>
@@ -5452,7 +5413,7 @@
         <v>71</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>44</v>
@@ -5467,7 +5428,7 @@
         <v>117</v>
       </c>
       <c r="J88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K88" t="s">
         <v>118</v>
@@ -5482,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>2</v>
@@ -5502,7 +5463,7 @@
         <v>71</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>90</v>
@@ -5517,7 +5478,7 @@
         <v>117</v>
       </c>
       <c r="J89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K89" t="s">
         <v>118</v>
@@ -5532,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -5558,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K90" t="s">
         <v>105</v>
@@ -5608,7 +5569,7 @@
         <v>105</v>
       </c>
       <c r="J91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K91" t="s">
         <v>105</v>
@@ -5623,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5658,7 +5619,7 @@
         <v>114</v>
       </c>
       <c r="J92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K92" t="s">
         <v>105</v>
@@ -5673,10 +5634,10 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5708,7 +5669,7 @@
         <v>105</v>
       </c>
       <c r="J93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K93" t="s">
         <v>105</v>
@@ -5723,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5758,7 +5719,7 @@
         <v>105</v>
       </c>
       <c r="J94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K94" t="s">
         <v>105</v>
@@ -5773,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5808,7 +5769,7 @@
         <v>85</v>
       </c>
       <c r="J95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K95" t="s">
         <v>105</v>
@@ -5823,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5858,7 +5819,7 @@
         <v>85</v>
       </c>
       <c r="J96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K96" t="s">
         <v>105</v>
@@ -5873,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5908,7 +5869,7 @@
         <v>114</v>
       </c>
       <c r="J97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K97" t="s">
         <v>105</v>
@@ -5923,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5958,7 +5919,7 @@
         <v>106</v>
       </c>
       <c r="J98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K98" t="s">
         <v>105</v>
@@ -5973,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6008,7 +5969,7 @@
         <v>114</v>
       </c>
       <c r="J99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K99" t="s">
         <v>105</v>
@@ -6023,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6049,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K100" t="s">
         <v>125</v>
@@ -6096,7 +6057,7 @@
         <v>150</v>
       </c>
       <c r="J101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K101" t="s">
         <v>125</v>
@@ -6146,7 +6107,7 @@
         <v>96</v>
       </c>
       <c r="J102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K102" t="s">
         <v>96</v>
@@ -6161,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6196,7 +6157,7 @@
         <v>125</v>
       </c>
       <c r="J103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K103" t="s">
         <v>125</v>
@@ -6237,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K104" t="s">
         <v>100</v>
@@ -6272,7 +6233,7 @@
         <v>71</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>15</v>
@@ -6287,7 +6248,7 @@
         <v>107</v>
       </c>
       <c r="J105" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K105" t="s">
         <v>100</v>
@@ -6299,13 +6260,13 @@
         <v>107</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>2</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6322,7 +6283,7 @@
         <v>71</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
         <v>41</v>
@@ -6337,7 +6298,7 @@
         <v>107</v>
       </c>
       <c r="J106" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K106" t="s">
         <v>99</v>
@@ -6352,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="O106">
+        <v>2</v>
+      </c>
+      <c r="P106">
         <v>3</v>
-      </c>
-      <c r="P106">
-        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6372,7 +6333,7 @@
         <v>71</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>44</v>
@@ -6387,7 +6348,7 @@
         <v>107</v>
       </c>
       <c r="J107" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K107" t="s">
         <v>99</v>
@@ -6402,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P107">
         <v>5</v>
@@ -6422,7 +6383,7 @@
         <v>71</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>46</v>
@@ -6437,7 +6398,7 @@
         <v>94</v>
       </c>
       <c r="J108" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K108" t="s">
         <v>99</v>
@@ -6452,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
         <v>3</v>
-      </c>
-      <c r="P108">
-        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6472,7 +6433,7 @@
         <v>71</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>72</v>
@@ -6487,7 +6448,7 @@
         <v>107</v>
       </c>
       <c r="J109" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K109" t="s">
         <v>100</v>
@@ -6505,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="P109">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6522,7 +6483,7 @@
         <v>71</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>75</v>
@@ -6537,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="J110" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K110" t="s">
         <v>100</v>
@@ -6555,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6572,7 +6533,7 @@
         <v>71</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>81</v>
@@ -6587,7 +6548,7 @@
         <v>107</v>
       </c>
       <c r="J111" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K111" t="s">
         <v>100</v>
@@ -6605,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6622,7 +6583,7 @@
         <v>74</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
         <v>23</v>
@@ -6637,7 +6598,7 @@
         <v>99</v>
       </c>
       <c r="J112" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K112" t="s">
         <v>99</v>
@@ -6652,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P112">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -6672,7 +6633,7 @@
         <v>74</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>47</v>
@@ -6687,7 +6648,7 @@
         <v>100</v>
       </c>
       <c r="J113" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K113" t="s">
         <v>100</v>
@@ -6705,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6728,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K114" t="s">
         <v>101</v>
@@ -6775,7 +6736,7 @@
         <v>120</v>
       </c>
       <c r="J115" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K115" t="s">
         <v>101</v>
@@ -6790,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -6825,7 +6786,7 @@
         <v>120</v>
       </c>
       <c r="J116" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K116" t="s">
         <v>120</v>
@@ -6840,13 +6801,10 @@
         <v>0</v>
       </c>
       <c r="O116">
+        <v>3</v>
+      </c>
+      <c r="P116">
         <v>2</v>
-      </c>
-      <c r="P116">
-        <v>1</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -6863,7 +6821,7 @@
         <v>73</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>43</v>
@@ -6878,7 +6836,7 @@
         <v>115</v>
       </c>
       <c r="J117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K117" t="s">
         <v>120</v>
@@ -6890,13 +6848,13 @@
         <v>101</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -6913,7 +6871,7 @@
         <v>73</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>47</v>
@@ -6928,7 +6886,7 @@
         <v>108</v>
       </c>
       <c r="J118" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K118" t="s">
         <v>120</v>
@@ -6940,16 +6898,13 @@
         <v>115</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
         <v>2</v>
-      </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -6966,7 +6921,7 @@
         <v>73</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>77</v>
@@ -6981,7 +6936,7 @@
         <v>115</v>
       </c>
       <c r="J119" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K119" t="s">
         <v>120</v>
@@ -6993,13 +6948,13 @@
         <v>101</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7022,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K120" t="s">
         <v>84</v>
@@ -7069,7 +7024,7 @@
         <v>146</v>
       </c>
       <c r="J121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K121" t="s">
         <v>84</v>
@@ -7084,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7119,7 +7074,7 @@
         <v>146</v>
       </c>
       <c r="J122" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K122" t="s">
         <v>84</v>
@@ -7134,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P122">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7154,7 +7109,7 @@
         <v>75</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>93</v>
@@ -7169,7 +7124,7 @@
         <v>146</v>
       </c>
       <c r="J123" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s">
         <v>84</v>
@@ -7181,13 +7136,13 @@
         <v>113</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7216,7 +7171,7 @@
         <v>113</v>
       </c>
       <c r="J124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K124" t="s">
         <v>84</v>
@@ -7231,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7266,7 +7221,7 @@
         <v>113</v>
       </c>
       <c r="J125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K125" t="s">
         <v>84</v>
@@ -7281,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7301,7 +7256,7 @@
         <v>76</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>95</v>
@@ -7316,7 +7271,7 @@
         <v>113</v>
       </c>
       <c r="J126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K126" t="s">
         <v>113</v>
@@ -7328,13 +7283,13 @@
         <v>146</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7357,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K127" t="s">
         <v>96</v>
@@ -7407,7 +7362,7 @@
         <v>110</v>
       </c>
       <c r="J128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K128" t="s">
         <v>96</v>
@@ -7460,7 +7415,7 @@
         <v>96</v>
       </c>
       <c r="J129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K129" t="s">
         <v>96</v>
@@ -7510,7 +7465,7 @@
         <v>94</v>
       </c>
       <c r="J130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K130" t="s">
         <v>96</v>
@@ -7560,7 +7515,7 @@
         <v>96</v>
       </c>
       <c r="J131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K131" t="s">
         <v>96</v>
@@ -7610,7 +7565,7 @@
         <v>97</v>
       </c>
       <c r="J132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K132" t="s">
         <v>96</v>
@@ -7651,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K133" t="s">
         <v>100</v>
@@ -7698,7 +7653,7 @@
         <v>108</v>
       </c>
       <c r="J134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K134" t="s">
         <v>100</v>
@@ -7748,7 +7703,7 @@
         <v>108</v>
       </c>
       <c r="J135" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K135" t="s">
         <v>100</v>
@@ -7798,7 +7753,7 @@
         <v>108</v>
       </c>
       <c r="J136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K136" t="s">
         <v>100</v>
@@ -7848,7 +7803,7 @@
         <v>100</v>
       </c>
       <c r="J137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K137" t="s">
         <v>100</v>
@@ -7898,7 +7853,7 @@
         <v>150</v>
       </c>
       <c r="J138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K138" t="s">
         <v>100</v>
@@ -7948,7 +7903,7 @@
         <v>108</v>
       </c>
       <c r="J139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K139" t="s">
         <v>100</v>
@@ -7998,7 +7953,7 @@
         <v>150</v>
       </c>
       <c r="J140" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K140" t="s">
         <v>100</v>
@@ -8039,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K141" t="s">
         <v>111</v>
@@ -8089,7 +8044,7 @@
         <v>111</v>
       </c>
       <c r="J142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K142" t="s">
         <v>111</v>
@@ -8139,7 +8094,7 @@
         <v>112</v>
       </c>
       <c r="J143" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K143" t="s">
         <v>111</v>
@@ -8189,7 +8144,7 @@
         <v>92</v>
       </c>
       <c r="J144" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K144" t="s">
         <v>111</v>
@@ -8239,7 +8194,7 @@
         <v>120</v>
       </c>
       <c r="J145" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K145" t="s">
         <v>111</v>
@@ -8289,7 +8244,7 @@
         <v>111</v>
       </c>
       <c r="J146" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K146" t="s">
         <v>111</v>
@@ -8339,7 +8294,7 @@
         <v>120</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K147" t="s">
         <v>111</v>
@@ -8389,7 +8344,7 @@
         <v>112</v>
       </c>
       <c r="J148" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K148" t="s">
         <v>111</v>
@@ -8430,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K149" t="s">
         <v>113</v>
@@ -8480,7 +8435,7 @@
         <v>87</v>
       </c>
       <c r="J150" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K150" t="s">
         <v>113</v>
@@ -8530,7 +8485,7 @@
         <v>114</v>
       </c>
       <c r="J151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K151" t="s">
         <v>113</v>
@@ -8580,7 +8535,7 @@
         <v>113</v>
       </c>
       <c r="J152" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K152" t="s">
         <v>113</v>
@@ -8630,7 +8585,7 @@
         <v>114</v>
       </c>
       <c r="J153" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K153" t="s">
         <v>113</v>
@@ -8680,7 +8635,7 @@
         <v>114</v>
       </c>
       <c r="J154" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K154" t="s">
         <v>113</v>
@@ -8730,7 +8685,7 @@
         <v>87</v>
       </c>
       <c r="J155" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K155" t="s">
         <v>113</v>
@@ -8780,7 +8735,7 @@
         <v>146</v>
       </c>
       <c r="J156" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K156" t="s">
         <v>113</v>
@@ -8830,7 +8785,7 @@
         <v>114</v>
       </c>
       <c r="J157" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K157" t="s">
         <v>113</v>
@@ -8880,7 +8835,7 @@
         <v>87</v>
       </c>
       <c r="J158" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K158" t="s">
         <v>113</v>
@@ -8930,7 +8885,7 @@
         <v>114</v>
       </c>
       <c r="J159" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K159" t="s">
         <v>113</v>
@@ -8980,7 +8935,7 @@
         <v>114</v>
       </c>
       <c r="J160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K160" t="s">
         <v>113</v>
@@ -9021,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K161" t="s">
         <v>115</v>
@@ -9071,7 +9026,7 @@
         <v>115</v>
       </c>
       <c r="J162" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K162" t="s">
         <v>115</v>
@@ -9121,7 +9076,7 @@
         <v>101</v>
       </c>
       <c r="J163" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K163" t="s">
         <v>115</v>
@@ -9171,7 +9126,7 @@
         <v>115</v>
       </c>
       <c r="J164" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K164" t="s">
         <v>115</v>
@@ -9221,7 +9176,7 @@
         <v>85</v>
       </c>
       <c r="J165" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K165" t="s">
         <v>115</v>
@@ -9271,7 +9226,7 @@
         <v>125</v>
       </c>
       <c r="J166" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K166" t="s">
         <v>115</v>
@@ -9321,7 +9276,7 @@
         <v>125</v>
       </c>
       <c r="J167" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K167" t="s">
         <v>115</v>
@@ -9362,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K168" t="s">
         <v>105</v>
@@ -9409,7 +9364,7 @@
         <v>128</v>
       </c>
       <c r="J169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K169" t="s">
         <v>105</v>
@@ -9456,7 +9411,7 @@
         <v>151</v>
       </c>
       <c r="J170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K170" t="s">
         <v>105</v>
@@ -9506,7 +9461,7 @@
         <v>151</v>
       </c>
       <c r="J171" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K171" t="s">
         <v>151</v>
@@ -9556,7 +9511,7 @@
         <v>105</v>
       </c>
       <c r="J172" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K172" t="s">
         <v>105</v>
@@ -9606,7 +9561,7 @@
         <v>105</v>
       </c>
       <c r="J173" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K173" t="s">
         <v>105</v>
@@ -9647,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K174" t="s">
         <v>84</v>
@@ -9694,7 +9649,7 @@
         <v>132</v>
       </c>
       <c r="J175" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K175" t="s">
         <v>84</v>
@@ -9744,7 +9699,7 @@
         <v>84</v>
       </c>
       <c r="J176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K176" t="s">
         <v>84</v>
@@ -9794,7 +9749,7 @@
         <v>152</v>
       </c>
       <c r="J177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K177" t="s">
         <v>84</v>
@@ -9844,7 +9799,7 @@
         <v>152</v>
       </c>
       <c r="J178" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K178" t="s">
         <v>84</v>
@@ -9894,7 +9849,7 @@
         <v>116</v>
       </c>
       <c r="J179" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K179" t="s">
         <v>84</v>
@@ -9935,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K180" t="s">
         <v>118</v>
@@ -9982,7 +9937,7 @@
         <v>88</v>
       </c>
       <c r="J181" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K181" t="s">
         <v>118</v>
@@ -10032,7 +9987,7 @@
         <v>126</v>
       </c>
       <c r="J182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K182" t="s">
         <v>118</v>
@@ -10082,7 +10037,7 @@
         <v>88</v>
       </c>
       <c r="J183" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K183" t="s">
         <v>88</v>
@@ -10132,7 +10087,7 @@
         <v>88</v>
       </c>
       <c r="J184" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K184" t="s">
         <v>88</v>
@@ -10182,7 +10137,7 @@
         <v>118</v>
       </c>
       <c r="J185" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K185" t="s">
         <v>118</v>
@@ -10223,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K186" t="s">
         <v>92</v>
@@ -10270,7 +10225,7 @@
         <v>111</v>
       </c>
       <c r="J187" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K187" t="s">
         <v>92</v>
@@ -10320,7 +10275,7 @@
         <v>119</v>
       </c>
       <c r="J188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K188" t="s">
         <v>119</v>
@@ -10370,7 +10325,7 @@
         <v>92</v>
       </c>
       <c r="J189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K189" t="s">
         <v>92</v>
@@ -10420,7 +10375,7 @@
         <v>119</v>
       </c>
       <c r="J190" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K190" t="s">
         <v>119</v>
@@ -10470,7 +10425,7 @@
         <v>119</v>
       </c>
       <c r="J191" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K191" t="s">
         <v>119</v>
@@ -10520,7 +10475,7 @@
         <v>140</v>
       </c>
       <c r="J192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K192" t="s">
         <v>119</v>
@@ -10570,7 +10525,7 @@
         <v>92</v>
       </c>
       <c r="J193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K193" t="s">
         <v>119</v>
@@ -10620,7 +10575,7 @@
         <v>140</v>
       </c>
       <c r="J194" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K194" t="s">
         <v>92</v>
@@ -10670,7 +10625,7 @@
         <v>140</v>
       </c>
       <c r="J195" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K195" t="s">
         <v>92</v>
@@ -10711,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K196" t="s">
         <v>105</v>
@@ -10758,7 +10713,7 @@
         <v>105</v>
       </c>
       <c r="J197" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K197" t="s">
         <v>105</v>
@@ -10808,7 +10763,7 @@
         <v>102</v>
       </c>
       <c r="J198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K198" t="s">
         <v>105</v>
@@ -10861,7 +10816,7 @@
         <v>102</v>
       </c>
       <c r="J199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K199" t="s">
         <v>105</v>
@@ -10911,7 +10866,7 @@
         <v>105</v>
       </c>
       <c r="J200" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K200" t="s">
         <v>105</v>
@@ -10961,7 +10916,7 @@
         <v>102</v>
       </c>
       <c r="J201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K201" t="s">
         <v>105</v>
@@ -11011,7 +10966,7 @@
         <v>105</v>
       </c>
       <c r="J202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K202" t="s">
         <v>105</v>
@@ -11061,7 +11016,7 @@
         <v>102</v>
       </c>
       <c r="J203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K203" t="s">
         <v>105</v>
@@ -11102,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K204" t="s">
         <v>99</v>
@@ -11149,7 +11104,7 @@
         <v>88</v>
       </c>
       <c r="J205" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K205" t="s">
         <v>99</v>
@@ -11199,7 +11154,7 @@
         <v>99</v>
       </c>
       <c r="J206" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K206" t="s">
         <v>99</v>
@@ -11249,7 +11204,7 @@
         <v>84</v>
       </c>
       <c r="J207" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K207" t="s">
         <v>99</v>
@@ -11290,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K208" t="s">
         <v>114</v>
@@ -11340,7 +11295,7 @@
         <v>114</v>
       </c>
       <c r="J209" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K209" t="s">
         <v>114</v>
@@ -11390,7 +11345,7 @@
         <v>112</v>
       </c>
       <c r="J210" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K210" t="s">
         <v>114</v>
@@ -11440,7 +11395,7 @@
         <v>114</v>
       </c>
       <c r="J211" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K211" t="s">
         <v>114</v>
@@ -11490,7 +11445,7 @@
         <v>121</v>
       </c>
       <c r="J212" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K212" t="s">
         <v>114</v>
@@ -11540,7 +11495,7 @@
         <v>112</v>
       </c>
       <c r="J213" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K213" t="s">
         <v>114</v>
@@ -11590,7 +11545,7 @@
         <v>114</v>
       </c>
       <c r="J214" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K214" t="s">
         <v>114</v>
@@ -11640,7 +11595,7 @@
         <v>87</v>
       </c>
       <c r="J215" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K215" t="s">
         <v>114</v>
@@ -11690,7 +11645,7 @@
         <v>87</v>
       </c>
       <c r="J216" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K216" t="s">
         <v>114</v>
@@ -11740,7 +11695,7 @@
         <v>87</v>
       </c>
       <c r="J217" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K217" t="s">
         <v>114</v>
@@ -11781,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="K218" t="s">
         <v>100</v>
@@ -11828,7 +11783,7 @@
         <v>153</v>
       </c>
       <c r="J219" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="K219" t="s">
         <v>100</v>
@@ -11878,7 +11833,7 @@
         <v>122</v>
       </c>
       <c r="J220" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="K220" t="s">
         <v>100</v>
@@ -11928,7 +11883,7 @@
         <v>122</v>
       </c>
       <c r="J221" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="K221" t="s">
         <v>100</v>
@@ -11978,7 +11933,7 @@
         <v>100</v>
       </c>
       <c r="J222" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K222" t="s">
         <v>100</v>
@@ -12028,7 +11983,7 @@
         <v>100</v>
       </c>
       <c r="J223" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K223" t="s">
         <v>100</v>
@@ -12078,7 +12033,7 @@
         <v>100</v>
       </c>
       <c r="J224" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K224" t="s">
         <v>100</v>
@@ -12128,7 +12083,7 @@
         <v>123</v>
       </c>
       <c r="J225" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K225" t="s">
         <v>100</v>
@@ -12178,7 +12133,7 @@
         <v>123</v>
       </c>
       <c r="J226" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="K226" t="s">
         <v>100</v>
@@ -12228,7 +12183,7 @@
         <v>100</v>
       </c>
       <c r="J227" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K227" t="s">
         <v>100</v>
@@ -12278,7 +12233,7 @@
         <v>100</v>
       </c>
       <c r="J228" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K228" t="s">
         <v>100</v>
@@ -12328,7 +12283,7 @@
         <v>122</v>
       </c>
       <c r="J229" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K229" t="s">
         <v>100</v>
@@ -12369,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K230" t="s">
         <v>125</v>
@@ -12416,7 +12371,7 @@
         <v>132</v>
       </c>
       <c r="J231" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K231" t="s">
         <v>125</v>
@@ -12466,7 +12421,7 @@
         <v>125</v>
       </c>
       <c r="J232" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K232" t="s">
         <v>125</v>
@@ -12516,7 +12471,7 @@
         <v>124</v>
       </c>
       <c r="J233" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K233" t="s">
         <v>125</v>
@@ -12566,7 +12521,7 @@
         <v>96</v>
       </c>
       <c r="J234" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K234" t="s">
         <v>125</v>
@@ -12607,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K235" t="s">
         <v>116</v>
@@ -12654,7 +12609,7 @@
         <v>116</v>
       </c>
       <c r="J236" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K236" t="s">
         <v>116</v>
@@ -12704,7 +12659,7 @@
         <v>101</v>
       </c>
       <c r="J237" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K237" t="s">
         <v>101</v>
@@ -12754,7 +12709,7 @@
         <v>116</v>
       </c>
       <c r="J238" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K238" t="s">
         <v>116</v>
@@ -12804,7 +12759,7 @@
         <v>107</v>
       </c>
       <c r="J239" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K239" t="s">
         <v>116</v>
@@ -12854,7 +12809,7 @@
         <v>116</v>
       </c>
       <c r="J240" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K240" t="s">
         <v>116</v>
@@ -12904,7 +12859,7 @@
         <v>101</v>
       </c>
       <c r="J241" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K241" t="s">
         <v>116</v>
@@ -12954,7 +12909,7 @@
         <v>101</v>
       </c>
       <c r="J242" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K242" t="s">
         <v>116</v>
@@ -13004,7 +12959,7 @@
         <v>107</v>
       </c>
       <c r="J243" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K243" t="s">
         <v>116</v>
@@ -13045,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K244" t="s">
         <v>85</v>
@@ -13092,7 +13047,7 @@
         <v>85</v>
       </c>
       <c r="J245" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K245" t="s">
         <v>85</v>
@@ -13142,7 +13097,7 @@
         <v>127</v>
       </c>
       <c r="J246" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K246" t="s">
         <v>85</v>
@@ -13192,7 +13147,7 @@
         <v>127</v>
       </c>
       <c r="J247" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K247" t="s">
         <v>85</v>
@@ -13242,7 +13197,7 @@
         <v>127</v>
       </c>
       <c r="J248" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K248" t="s">
         <v>85</v>
@@ -13292,7 +13247,7 @@
         <v>85</v>
       </c>
       <c r="J249" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K249" t="s">
         <v>85</v>
@@ -13342,7 +13297,7 @@
         <v>104</v>
       </c>
       <c r="J250" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K250" t="s">
         <v>85</v>
@@ -13383,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K251" t="s">
         <v>124</v>
@@ -13430,7 +13385,7 @@
         <v>105</v>
       </c>
       <c r="J252" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K252" t="s">
         <v>124</v>
@@ -13480,7 +13435,7 @@
         <v>105</v>
       </c>
       <c r="J253" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K253" t="s">
         <v>105</v>
@@ -13530,7 +13485,7 @@
         <v>123</v>
       </c>
       <c r="J254" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K254" t="s">
         <v>105</v>
@@ -13580,7 +13535,7 @@
         <v>127</v>
       </c>
       <c r="J255" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K255" t="s">
         <v>105</v>
@@ -13630,7 +13585,7 @@
         <v>105</v>
       </c>
       <c r="J256" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K256" t="s">
         <v>105</v>
@@ -13680,7 +13635,7 @@
         <v>105</v>
       </c>
       <c r="J257" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K257" t="s">
         <v>105</v>
@@ -13730,7 +13685,7 @@
         <v>127</v>
       </c>
       <c r="J258" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K258" t="s">
         <v>105</v>
@@ -13771,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K259" t="s">
         <v>88</v>
@@ -13818,7 +13773,7 @@
         <v>154</v>
       </c>
       <c r="J260" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K260" t="s">
         <v>88</v>
@@ -13868,7 +13823,7 @@
         <v>87</v>
       </c>
       <c r="J261" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K261" t="s">
         <v>88</v>
@@ -13918,7 +13873,7 @@
         <v>88</v>
       </c>
       <c r="J262" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K262" t="s">
         <v>88</v>
@@ -13968,7 +13923,7 @@
         <v>99</v>
       </c>
       <c r="J263" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K263" t="s">
         <v>88</v>
@@ -14018,7 +13973,7 @@
         <v>88</v>
       </c>
       <c r="J264" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K264" t="s">
         <v>88</v>
@@ -14068,7 +14023,7 @@
         <v>87</v>
       </c>
       <c r="J265" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K265" t="s">
         <v>88</v>
@@ -14118,7 +14073,7 @@
         <v>99</v>
       </c>
       <c r="J266" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K266" t="s">
         <v>88</v>
@@ -14159,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K267" t="s">
         <v>89</v>
@@ -14209,7 +14164,7 @@
         <v>89</v>
       </c>
       <c r="J268" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K268" t="s">
         <v>89</v>
@@ -14259,7 +14214,7 @@
         <v>89</v>
       </c>
       <c r="J269" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K269" t="s">
         <v>89</v>
@@ -14312,7 +14267,7 @@
         <v>125</v>
       </c>
       <c r="J270" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K270" t="s">
         <v>89</v>
@@ -14362,7 +14317,7 @@
         <v>155</v>
       </c>
       <c r="J271" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K271" t="s">
         <v>89</v>
@@ -14412,7 +14367,7 @@
         <v>128</v>
       </c>
       <c r="J272" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K272" t="s">
         <v>89</v>
@@ -14453,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K273" t="s">
         <v>84</v>
@@ -14500,7 +14455,7 @@
         <v>84</v>
       </c>
       <c r="J274" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K274" t="s">
         <v>84</v>
@@ -14550,7 +14505,7 @@
         <v>156</v>
       </c>
       <c r="J275" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K275" t="s">
         <v>84</v>
@@ -14600,7 +14555,7 @@
         <v>156</v>
       </c>
       <c r="J276" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K276" t="s">
         <v>84</v>
@@ -14650,7 +14605,7 @@
         <v>129</v>
       </c>
       <c r="J277" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K277" t="s">
         <v>84</v>
@@ -14700,7 +14655,7 @@
         <v>129</v>
       </c>
       <c r="J278" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K278" t="s">
         <v>84</v>
@@ -14750,7 +14705,7 @@
         <v>129</v>
       </c>
       <c r="J279" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K279" t="s">
         <v>84</v>
@@ -14791,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K280" t="s">
         <v>96</v>
@@ -14838,7 +14793,7 @@
         <v>96</v>
       </c>
       <c r="J281" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K281" t="s">
         <v>96</v>
@@ -14888,7 +14843,7 @@
         <v>131</v>
       </c>
       <c r="J282" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K282" t="s">
         <v>131</v>
@@ -14938,7 +14893,7 @@
         <v>96</v>
       </c>
       <c r="J283" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K283" t="s">
         <v>96</v>
@@ -14988,7 +14943,7 @@
         <v>104</v>
       </c>
       <c r="J284" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K284" t="s">
         <v>96</v>
@@ -15038,7 +14993,7 @@
         <v>131</v>
       </c>
       <c r="J285" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K285" t="s">
         <v>96</v>
@@ -15088,7 +15043,7 @@
         <v>96</v>
       </c>
       <c r="J286" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K286" t="s">
         <v>96</v>
@@ -15129,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K287" t="s">
         <v>100</v>
@@ -15179,7 +15134,7 @@
         <v>132</v>
       </c>
       <c r="J288" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K288" t="s">
         <v>100</v>
@@ -15229,7 +15184,7 @@
         <v>116</v>
       </c>
       <c r="J289" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K289" t="s">
         <v>100</v>
@@ -15279,7 +15234,7 @@
         <v>135</v>
       </c>
       <c r="J290" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K290" t="s">
         <v>100</v>
@@ -15329,7 +15284,7 @@
         <v>100</v>
       </c>
       <c r="J291" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K291" t="s">
         <v>100</v>
@@ -15382,7 +15337,7 @@
         <v>100</v>
       </c>
       <c r="J292" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K292" t="s">
         <v>100</v>
@@ -15435,7 +15390,7 @@
         <v>132</v>
       </c>
       <c r="J293" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K293" t="s">
         <v>100</v>
@@ -15485,7 +15440,7 @@
         <v>100</v>
       </c>
       <c r="J294" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K294" t="s">
         <v>100</v>
@@ -15535,7 +15490,7 @@
         <v>135</v>
       </c>
       <c r="J295" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K295" t="s">
         <v>100</v>
@@ -15588,7 +15543,7 @@
         <v>100</v>
       </c>
       <c r="J296" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K296" t="s">
         <v>100</v>
@@ -15632,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K297" t="s">
         <v>114</v>
@@ -15679,7 +15634,7 @@
         <v>114</v>
       </c>
       <c r="J298" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K298" t="s">
         <v>114</v>
@@ -15726,7 +15681,7 @@
         <v>126</v>
       </c>
       <c r="J299" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K299" t="s">
         <v>114</v>
@@ -15776,7 +15731,7 @@
         <v>114</v>
       </c>
       <c r="J300" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K300" t="s">
         <v>114</v>
@@ -15826,7 +15781,7 @@
         <v>133</v>
       </c>
       <c r="J301" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K301" t="s">
         <v>114</v>
@@ -15867,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K302" t="s">
         <v>103</v>
@@ -15914,7 +15869,7 @@
         <v>111</v>
       </c>
       <c r="J303" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K303" t="s">
         <v>103</v>
@@ -15964,7 +15919,7 @@
         <v>85</v>
       </c>
       <c r="J304" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K304" t="s">
         <v>103</v>
@@ -16017,7 +15972,7 @@
         <v>103</v>
       </c>
       <c r="J305" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K305" t="s">
         <v>103</v>
@@ -16067,7 +16022,7 @@
         <v>111</v>
       </c>
       <c r="J306" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K306" t="s">
         <v>103</v>
@@ -16117,7 +16072,7 @@
         <v>111</v>
       </c>
       <c r="J307" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K307" t="s">
         <v>103</v>
@@ -16167,7 +16122,7 @@
         <v>103</v>
       </c>
       <c r="J308" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K308" t="s">
         <v>103</v>
@@ -16208,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K309" t="s">
         <v>140</v>
@@ -16255,7 +16210,7 @@
         <v>140</v>
       </c>
       <c r="J310" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K310" t="s">
         <v>140</v>
@@ -16305,7 +16260,7 @@
         <v>112</v>
       </c>
       <c r="J311" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K311" t="s">
         <v>140</v>
@@ -16355,7 +16310,7 @@
         <v>112</v>
       </c>
       <c r="J312" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K312" t="s">
         <v>140</v>
@@ -16405,7 +16360,7 @@
         <v>140</v>
       </c>
       <c r="J313" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K313" t="s">
         <v>140</v>
@@ -16455,7 +16410,7 @@
         <v>111</v>
       </c>
       <c r="J314" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K314" t="s">
         <v>140</v>
@@ -16496,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K315" t="s">
         <v>84</v>
@@ -16543,7 +16498,7 @@
         <v>84</v>
       </c>
       <c r="J316" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K316" t="s">
         <v>84</v>
@@ -16593,7 +16548,7 @@
         <v>113</v>
       </c>
       <c r="J317" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K317" t="s">
         <v>84</v>
@@ -16643,7 +16598,7 @@
         <v>85</v>
       </c>
       <c r="J318" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K318" t="s">
         <v>84</v>
@@ -16693,7 +16648,7 @@
         <v>85</v>
       </c>
       <c r="J319" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K319" t="s">
         <v>84</v>
@@ -16746,7 +16701,7 @@
         <v>113</v>
       </c>
       <c r="J320" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K320" t="s">
         <v>84</v>
@@ -16796,7 +16751,7 @@
         <v>84</v>
       </c>
       <c r="J321" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K321" t="s">
         <v>84</v>
@@ -16846,7 +16801,7 @@
         <v>84</v>
       </c>
       <c r="J322" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K322" t="s">
         <v>84</v>
@@ -16887,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K323" t="s">
         <v>121</v>
@@ -16934,7 +16889,7 @@
         <v>88</v>
       </c>
       <c r="J324" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K324" t="s">
         <v>121</v>
@@ -16981,7 +16936,7 @@
         <v>91</v>
       </c>
       <c r="J325" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K325" t="s">
         <v>121</v>
@@ -17031,7 +16986,7 @@
         <v>88</v>
       </c>
       <c r="J326" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K326" t="s">
         <v>88</v>
@@ -17081,7 +17036,7 @@
         <v>104</v>
       </c>
       <c r="J327" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K327" t="s">
         <v>104</v>
@@ -17122,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K328" t="s">
         <v>131</v>
@@ -17169,7 +17124,7 @@
         <v>105</v>
       </c>
       <c r="J329" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K329" t="s">
         <v>131</v>
@@ -17219,7 +17174,7 @@
         <v>105</v>
       </c>
       <c r="J330" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K330" t="s">
         <v>105</v>
@@ -17269,7 +17224,7 @@
         <v>135</v>
       </c>
       <c r="J331" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K331" t="s">
         <v>105</v>
@@ -17319,7 +17274,7 @@
         <v>135</v>
       </c>
       <c r="J332" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K332" t="s">
         <v>105</v>
@@ -17369,7 +17324,7 @@
         <v>142</v>
       </c>
       <c r="J333" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K333" t="s">
         <v>105</v>
@@ -17410,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K334" t="s">
         <v>87</v>
@@ -17457,7 +17412,7 @@
         <v>157</v>
       </c>
       <c r="J335" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K335" t="s">
         <v>87</v>
@@ -17507,7 +17462,7 @@
         <v>136</v>
       </c>
       <c r="J336" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K336" t="s">
         <v>87</v>
@@ -17557,7 +17512,7 @@
         <v>136</v>
       </c>
       <c r="J337" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K337" t="s">
         <v>87</v>
@@ -17607,7 +17562,7 @@
         <v>96</v>
       </c>
       <c r="J338" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K338" t="s">
         <v>87</v>
@@ -17657,7 +17612,7 @@
         <v>136</v>
       </c>
       <c r="J339" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K339" t="s">
         <v>87</v>
@@ -17707,7 +17662,7 @@
         <v>96</v>
       </c>
       <c r="J340" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K340" t="s">
         <v>87</v>
@@ -17748,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K341" t="s">
         <v>115</v>
@@ -17798,7 +17753,7 @@
         <v>116</v>
       </c>
       <c r="J342" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K342" t="s">
         <v>115</v>
@@ -17848,7 +17803,7 @@
         <v>116</v>
       </c>
       <c r="J343" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K343" t="s">
         <v>115</v>
@@ -17898,7 +17853,7 @@
         <v>115</v>
       </c>
       <c r="J344" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K344" t="s">
         <v>115</v>
@@ -17948,7 +17903,7 @@
         <v>94</v>
       </c>
       <c r="J345" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K345" t="s">
         <v>115</v>
@@ -17998,7 +17953,7 @@
         <v>92</v>
       </c>
       <c r="J346" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K346" t="s">
         <v>115</v>
@@ -18048,7 +18003,7 @@
         <v>115</v>
       </c>
       <c r="J347" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K347" t="s">
         <v>115</v>
@@ -18098,7 +18053,7 @@
         <v>116</v>
       </c>
       <c r="J348" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K348" t="s">
         <v>115</v>
@@ -18139,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K349" t="s">
         <v>100</v>
@@ -18186,7 +18141,7 @@
         <v>100</v>
       </c>
       <c r="J350" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K350" t="s">
         <v>100</v>
@@ -18233,7 +18188,7 @@
         <v>129</v>
       </c>
       <c r="J351" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K351" t="s">
         <v>100</v>
@@ -18283,7 +18238,7 @@
         <v>129</v>
       </c>
       <c r="J352" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K352" t="s">
         <v>100</v>
@@ -18333,7 +18288,7 @@
         <v>129</v>
       </c>
       <c r="J353" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K353" t="s">
         <v>100</v>
@@ -18383,7 +18338,7 @@
         <v>129</v>
       </c>
       <c r="J354" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K354" t="s">
         <v>100</v>
@@ -18424,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K355" t="s">
         <v>110</v>
@@ -18471,7 +18426,7 @@
         <v>138</v>
       </c>
       <c r="J356" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K356" t="s">
         <v>110</v>
@@ -18521,7 +18476,7 @@
         <v>114</v>
       </c>
       <c r="J357" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K357" t="s">
         <v>114</v>
@@ -18574,7 +18529,7 @@
         <v>114</v>
       </c>
       <c r="J358" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K358" t="s">
         <v>114</v>
@@ -18627,7 +18582,7 @@
         <v>110</v>
       </c>
       <c r="J359" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K359" t="s">
         <v>114</v>
@@ -18671,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K360" t="s">
         <v>115</v>
@@ -18718,7 +18673,7 @@
         <v>114</v>
       </c>
       <c r="J361" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K361" t="s">
         <v>115</v>
@@ -18765,7 +18720,7 @@
         <v>110</v>
       </c>
       <c r="J362" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K362" t="s">
         <v>115</v>
@@ -18815,7 +18770,7 @@
         <v>114</v>
       </c>
       <c r="J363" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K363" t="s">
         <v>115</v>
@@ -18865,7 +18820,7 @@
         <v>114</v>
       </c>
       <c r="J364" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K364" t="s">
         <v>115</v>
@@ -18915,7 +18870,7 @@
         <v>115</v>
       </c>
       <c r="J365" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K365" t="s">
         <v>115</v>
@@ -18965,7 +18920,7 @@
         <v>114</v>
       </c>
       <c r="J366" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K366" t="s">
         <v>115</v>
@@ -19015,7 +18970,7 @@
         <v>115</v>
       </c>
       <c r="J367" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K367" t="s">
         <v>115</v>
@@ -19056,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K368" t="s">
         <v>100</v>
@@ -19106,7 +19061,7 @@
         <v>100</v>
       </c>
       <c r="J369" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K369" t="s">
         <v>100</v>
@@ -19156,7 +19111,7 @@
         <v>94</v>
       </c>
       <c r="J370" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K370" t="s">
         <v>100</v>
@@ -19206,7 +19161,7 @@
         <v>100</v>
       </c>
       <c r="J371" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K371" t="s">
         <v>100</v>
@@ -19256,7 +19211,7 @@
         <v>100</v>
       </c>
       <c r="J372" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K372" t="s">
         <v>100</v>
@@ -19306,7 +19261,7 @@
         <v>125</v>
       </c>
       <c r="J373" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K373" t="s">
         <v>100</v>
@@ -19356,7 +19311,7 @@
         <v>125</v>
       </c>
       <c r="J374" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K374" t="s">
         <v>100</v>
@@ -19406,7 +19361,7 @@
         <v>125</v>
       </c>
       <c r="J375" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K375" t="s">
         <v>100</v>
@@ -19456,7 +19411,7 @@
         <v>100</v>
       </c>
       <c r="J376" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K376" t="s">
         <v>100</v>
@@ -19506,7 +19461,7 @@
         <v>132</v>
       </c>
       <c r="J377" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K377" t="s">
         <v>100</v>
@@ -19547,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K378" t="s">
         <v>117</v>
@@ -19597,7 +19552,7 @@
         <v>117</v>
       </c>
       <c r="J379" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K379" t="s">
         <v>117</v>
@@ -19647,7 +19602,7 @@
         <v>116</v>
       </c>
       <c r="J380" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K380" t="s">
         <v>117</v>
@@ -19697,7 +19652,7 @@
         <v>117</v>
       </c>
       <c r="J381" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K381" t="s">
         <v>117</v>
@@ -19747,7 +19702,7 @@
         <v>117</v>
       </c>
       <c r="J382" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K382" t="s">
         <v>117</v>
@@ -19797,7 +19752,7 @@
         <v>117</v>
       </c>
       <c r="J383" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K383" t="s">
         <v>117</v>
@@ -19838,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K384" t="s">
         <v>123</v>
@@ -19885,7 +19840,7 @@
         <v>140</v>
       </c>
       <c r="J385" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K385" t="s">
         <v>123</v>
@@ -19932,7 +19887,7 @@
         <v>88</v>
       </c>
       <c r="J386" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K386" t="s">
         <v>123</v>
@@ -19982,7 +19937,7 @@
         <v>140</v>
       </c>
       <c r="J387" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K387" t="s">
         <v>123</v>
@@ -20032,7 +19987,7 @@
         <v>109</v>
       </c>
       <c r="J388" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K388" t="s">
         <v>117</v>
@@ -20082,7 +20037,7 @@
         <v>129</v>
       </c>
       <c r="J389" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K389" t="s">
         <v>117</v>
@@ -20132,7 +20087,7 @@
         <v>109</v>
       </c>
       <c r="J390" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K390" t="s">
         <v>117</v>
@@ -20173,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K391" t="s">
         <v>111</v>
@@ -20220,7 +20175,7 @@
         <v>103</v>
       </c>
       <c r="J392" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K392" t="s">
         <v>111</v>
@@ -20270,7 +20225,7 @@
         <v>103</v>
       </c>
       <c r="J393" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K393" t="s">
         <v>111</v>
@@ -20323,7 +20278,7 @@
         <v>103</v>
       </c>
       <c r="J394" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K394" t="s">
         <v>111</v>
@@ -20376,7 +20331,7 @@
         <v>103</v>
       </c>
       <c r="J395" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K395" t="s">
         <v>111</v>
@@ -20420,7 +20375,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K396" t="s">
         <v>84</v>
@@ -20470,7 +20425,7 @@
         <v>84</v>
       </c>
       <c r="J397" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K397" t="s">
         <v>84</v>
@@ -20491,7 +20446,7 @@
         <v>1</v>
       </c>
       <c r="Q397" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="398" spans="1:17">
@@ -20523,7 +20478,7 @@
         <v>113</v>
       </c>
       <c r="J398" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K398" t="s">
         <v>84</v>
@@ -20573,7 +20528,7 @@
         <v>139</v>
       </c>
       <c r="J399" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K399" t="s">
         <v>84</v>
@@ -20623,7 +20578,7 @@
         <v>84</v>
       </c>
       <c r="J400" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K400" t="s">
         <v>84</v>
@@ -20673,7 +20628,7 @@
         <v>113</v>
       </c>
       <c r="J401" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K401" t="s">
         <v>84</v>
@@ -20723,7 +20678,7 @@
         <v>84</v>
       </c>
       <c r="J402" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K402" t="s">
         <v>84</v>
@@ -20773,7 +20728,7 @@
         <v>139</v>
       </c>
       <c r="J403" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K403" t="s">
         <v>84</v>
@@ -20823,7 +20778,7 @@
         <v>128</v>
       </c>
       <c r="J404" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K404" t="s">
         <v>84</v>
@@ -20873,7 +20828,7 @@
         <v>139</v>
       </c>
       <c r="J405" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K405" t="s">
         <v>84</v>
@@ -20920,7 +20875,7 @@
         <v>111</v>
       </c>
       <c r="J406" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K406" t="s">
         <v>111</v>
@@ -20961,7 +20916,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K407" t="s">
         <v>105</v>
@@ -21008,7 +20963,7 @@
         <v>105</v>
       </c>
       <c r="J408" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K408" t="s">
         <v>105</v>
@@ -21058,7 +21013,7 @@
         <v>89</v>
       </c>
       <c r="J409" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K409" t="s">
         <v>105</v>
@@ -21108,7 +21063,7 @@
         <v>105</v>
       </c>
       <c r="J410" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K410" t="s">
         <v>105</v>
@@ -21158,7 +21113,7 @@
         <v>131</v>
       </c>
       <c r="J411" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K411" t="s">
         <v>105</v>
@@ -21211,7 +21166,7 @@
         <v>89</v>
       </c>
       <c r="J412" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K412" t="s">
         <v>105</v>
@@ -21252,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K413" t="s">
         <v>101</v>
@@ -21299,7 +21254,7 @@
         <v>101</v>
       </c>
       <c r="J414" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K414" t="s">
         <v>101</v>
@@ -21349,7 +21304,7 @@
         <v>107</v>
       </c>
       <c r="J415" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K415" t="s">
         <v>101</v>
@@ -21399,7 +21354,7 @@
         <v>91</v>
       </c>
       <c r="J416" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K416" t="s">
         <v>101</v>
@@ -21420,7 +21375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:16">
       <c r="A417">
         <v>2014</v>
       </c>
@@ -21449,7 +21404,7 @@
         <v>101</v>
       </c>
       <c r="J417" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K417" t="s">
         <v>101</v>
@@ -21470,7 +21425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:16">
       <c r="A418">
         <v>2018</v>
       </c>
@@ -21490,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K418" t="s">
         <v>107</v>
@@ -21511,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:16">
       <c r="A419">
         <v>2018</v>
       </c>
@@ -21537,7 +21492,7 @@
         <v>107</v>
       </c>
       <c r="J419" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K419" t="s">
         <v>107</v>
@@ -21552,13 +21507,13 @@
         <v>0</v>
       </c>
       <c r="O419">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P419">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16">
       <c r="A420">
         <v>2018</v>
       </c>
@@ -21587,7 +21542,7 @@
         <v>140</v>
       </c>
       <c r="J420" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K420" t="s">
         <v>140</v>
@@ -21602,13 +21557,13 @@
         <v>0</v>
       </c>
       <c r="O420">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P420">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16">
       <c r="A421">
         <v>2018</v>
       </c>
@@ -21637,7 +21592,7 @@
         <v>149</v>
       </c>
       <c r="J421" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K421" t="s">
         <v>140</v>
@@ -21655,10 +21610,10 @@
         <v>3</v>
       </c>
       <c r="P421">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16">
       <c r="A422">
         <v>2018</v>
       </c>
@@ -21687,7 +21642,7 @@
         <v>140</v>
       </c>
       <c r="J422" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K422" t="s">
         <v>140</v>
@@ -21705,10 +21660,10 @@
         <v>3</v>
       </c>
       <c r="P422">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16">
       <c r="A423">
         <v>2018</v>
       </c>
@@ -21737,7 +21692,7 @@
         <v>120</v>
       </c>
       <c r="J423" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K423" t="s">
         <v>140</v>
@@ -21752,13 +21707,13 @@
         <v>0</v>
       </c>
       <c r="O423">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P423">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16">
       <c r="A424">
         <v>2018</v>
       </c>
@@ -21787,7 +21742,7 @@
         <v>140</v>
       </c>
       <c r="J424" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K424" t="s">
         <v>140</v>
@@ -21802,13 +21757,13 @@
         <v>0</v>
       </c>
       <c r="O424">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P424">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16">
       <c r="A425">
         <v>2018</v>
       </c>
@@ -21822,7 +21777,7 @@
         <v>81</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
         <v>95</v>
@@ -21837,7 +21792,7 @@
         <v>120</v>
       </c>
       <c r="J425" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K425" t="s">
         <v>140</v>
@@ -21849,16 +21804,16 @@
         <v>120</v>
       </c>
       <c r="N425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O425">
         <v>3</v>
       </c>
       <c r="P425">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16">
       <c r="A426">
         <v>2018</v>
       </c>
@@ -21878,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K426" t="s">
         <v>89</v>
@@ -21899,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:16">
       <c r="A427">
         <v>2018</v>
       </c>
@@ -21928,7 +21883,7 @@
         <v>108</v>
       </c>
       <c r="J427" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K427" t="s">
         <v>89</v>
@@ -21943,13 +21898,13 @@
         <v>0</v>
       </c>
       <c r="O427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16">
       <c r="A428">
         <v>2018</v>
       </c>
@@ -21978,7 +21933,7 @@
         <v>114</v>
       </c>
       <c r="J428" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K428" t="s">
         <v>114</v>
@@ -21993,13 +21948,13 @@
         <v>0</v>
       </c>
       <c r="O428">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16">
       <c r="A429">
         <v>2018</v>
       </c>
@@ -22028,7 +21983,7 @@
         <v>89</v>
       </c>
       <c r="J429" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K429" t="s">
         <v>89</v>
@@ -22046,13 +22001,10 @@
         <v>2</v>
       </c>
       <c r="P429">
-        <v>1</v>
-      </c>
-      <c r="Q429" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="430" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16">
       <c r="A430">
         <v>2018</v>
       </c>
@@ -22066,7 +22018,7 @@
         <v>67</v>
       </c>
       <c r="E430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F430">
         <v>81</v>
@@ -22081,7 +22033,7 @@
         <v>108</v>
       </c>
       <c r="J430" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K430" t="s">
         <v>89</v>
@@ -22093,16 +22045,16 @@
         <v>108</v>
       </c>
       <c r="N430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16">
       <c r="A431">
         <v>2018</v>
       </c>
@@ -22116,7 +22068,7 @@
         <v>67</v>
       </c>
       <c r="E431">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F431">
         <v>91</v>
@@ -22131,7 +22083,7 @@
         <v>114</v>
       </c>
       <c r="J431" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K431" t="s">
         <v>89</v>
@@ -22143,19 +22095,16 @@
         <v>128</v>
       </c>
       <c r="N431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O431">
         <v>2</v>
       </c>
       <c r="P431">
-        <v>1</v>
-      </c>
-      <c r="Q431" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="432" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16">
       <c r="A432">
         <v>2018</v>
       </c>
@@ -22169,7 +22118,7 @@
         <v>67</v>
       </c>
       <c r="E432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F432">
         <v>93</v>
@@ -22184,7 +22133,7 @@
         <v>128</v>
       </c>
       <c r="J432" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K432" t="s">
         <v>114</v>
@@ -22199,13 +22148,13 @@
         <v>0</v>
       </c>
       <c r="O432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17">
       <c r="A433">
         <v>2018</v>
       </c>
@@ -22225,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="K433" t="s">
         <v>111</v>
@@ -22246,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:16">
+    <row r="434" spans="1:17">
       <c r="A434">
         <v>2018</v>
       </c>
@@ -22272,7 +22221,7 @@
         <v>111</v>
       </c>
       <c r="J434" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="K434" t="s">
         <v>111</v>
@@ -22287,13 +22236,13 @@
         <v>0</v>
       </c>
       <c r="O434">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17">
       <c r="A435">
         <v>2018</v>
       </c>
@@ -22319,7 +22268,7 @@
         <v>158</v>
       </c>
       <c r="J435" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="K435" t="s">
         <v>111</v>
@@ -22334,13 +22283,13 @@
         <v>0</v>
       </c>
       <c r="O435">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17">
       <c r="A436">
         <v>2018</v>
       </c>
@@ -22354,7 +22303,7 @@
         <v>81</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436">
         <v>18</v>
@@ -22369,7 +22318,7 @@
         <v>158</v>
       </c>
       <c r="J436" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="K436" t="s">
         <v>111</v>
@@ -22381,16 +22330,16 @@
         <v>158</v>
       </c>
       <c r="N436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O436">
         <v>2</v>
       </c>
       <c r="P436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17">
       <c r="A437">
         <v>2018</v>
       </c>
@@ -22404,7 +22353,7 @@
         <v>81</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F437">
         <v>50</v>
@@ -22419,7 +22368,7 @@
         <v>158</v>
       </c>
       <c r="J437" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="K437" t="s">
         <v>111</v>
@@ -22437,10 +22386,10 @@
         <v>2</v>
       </c>
       <c r="P437">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17">
       <c r="A438">
         <v>2018</v>
       </c>
@@ -22460,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K438" t="s">
         <v>132</v>
@@ -22481,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:17">
       <c r="A439">
         <v>2018</v>
       </c>
@@ -22510,7 +22459,7 @@
         <v>84</v>
       </c>
       <c r="J439" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="K439" t="s">
         <v>132</v>
@@ -22528,10 +22477,10 @@
         <v>1</v>
       </c>
       <c r="P439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17">
       <c r="A440">
         <v>2018</v>
       </c>
@@ -22560,7 +22509,7 @@
         <v>113</v>
       </c>
       <c r="J440" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K440" t="s">
         <v>132</v>
@@ -22575,13 +22524,13 @@
         <v>1</v>
       </c>
       <c r="O440">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17">
       <c r="A441">
         <v>2018</v>
       </c>
@@ -22595,7 +22544,7 @@
         <v>67</v>
       </c>
       <c r="E441">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F441">
         <v>53</v>
@@ -22610,7 +22559,7 @@
         <v>132</v>
       </c>
       <c r="J441" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K441" t="s">
         <v>132</v>
@@ -22622,16 +22571,16 @@
         <v>84</v>
       </c>
       <c r="N441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17">
       <c r="A442">
         <v>2018</v>
       </c>
@@ -22645,7 +22594,7 @@
         <v>67</v>
       </c>
       <c r="E442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F442">
         <v>76</v>
@@ -22660,7 +22609,7 @@
         <v>141</v>
       </c>
       <c r="J442" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K442" t="s">
         <v>132</v>
@@ -22672,16 +22621,16 @@
         <v>141</v>
       </c>
       <c r="N442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O442">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17">
       <c r="A443">
         <v>2018</v>
       </c>
@@ -22695,7 +22644,7 @@
         <v>67</v>
       </c>
       <c r="E443">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F443">
         <v>86</v>
@@ -22710,7 +22659,7 @@
         <v>84</v>
       </c>
       <c r="J443" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="K443" t="s">
         <v>132</v>
@@ -22728,10 +22677,10 @@
         <v>1</v>
       </c>
       <c r="P443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17">
       <c r="A444">
         <v>2018</v>
       </c>
@@ -22745,7 +22694,7 @@
         <v>67</v>
       </c>
       <c r="E444">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F444">
         <v>90</v>
@@ -22760,7 +22709,7 @@
         <v>132</v>
       </c>
       <c r="J444" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="K444" t="s">
         <v>132</v>
@@ -22775,13 +22724,13 @@
         <v>0</v>
       </c>
       <c r="O444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17">
       <c r="A445">
         <v>2018</v>
       </c>
@@ -22801,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K445" t="s">
         <v>125</v>
@@ -22822,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:16">
+    <row r="446" spans="1:17">
       <c r="A446">
         <v>2018</v>
       </c>
@@ -22848,7 +22797,7 @@
         <v>105</v>
       </c>
       <c r="J446" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K446" t="s">
         <v>125</v>
@@ -22863,13 +22812,13 @@
         <v>0</v>
       </c>
       <c r="O446">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17">
       <c r="A447">
         <v>2018</v>
       </c>
@@ -22895,7 +22844,7 @@
         <v>99</v>
       </c>
       <c r="J447" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K447" t="s">
         <v>125</v>
@@ -22910,13 +22859,13 @@
         <v>0</v>
       </c>
       <c r="O447">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17">
       <c r="A448">
         <v>2018</v>
       </c>
@@ -22930,7 +22879,7 @@
         <v>81</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F448">
         <v>50</v>
@@ -22945,7 +22894,7 @@
         <v>99</v>
       </c>
       <c r="J448" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K448" t="s">
         <v>125</v>
@@ -22957,13 +22906,16 @@
         <v>105</v>
       </c>
       <c r="N448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P448">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="449" spans="1:17">
@@ -22980,7 +22932,7 @@
         <v>81</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449">
         <v>62</v>
@@ -22995,7 +22947,7 @@
         <v>99</v>
       </c>
       <c r="J449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K449" t="s">
         <v>99</v>
@@ -23010,10 +22962,13 @@
         <v>0</v>
       </c>
       <c r="O449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P449">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="450" spans="1:17">
@@ -23030,7 +22985,7 @@
         <v>81</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450">
         <v>74</v>
@@ -23045,7 +23000,7 @@
         <v>99</v>
       </c>
       <c r="J450" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K450" t="s">
         <v>99</v>
@@ -23060,10 +23015,13 @@
         <v>0</v>
       </c>
       <c r="O450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P450">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="451" spans="1:17">
@@ -23080,7 +23038,7 @@
         <v>81</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451">
         <v>92</v>
@@ -23095,7 +23053,7 @@
         <v>85</v>
       </c>
       <c r="J451" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K451" t="s">
         <v>99</v>
@@ -23110,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="O451">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P451">
         <v>0</v>
@@ -23145,7 +23103,7 @@
         <v>85</v>
       </c>
       <c r="J452" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K452" t="s">
         <v>99</v>
@@ -23157,13 +23115,13 @@
         <v>85</v>
       </c>
       <c r="N452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O452">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P452">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:17">
@@ -23186,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K453" t="s">
         <v>100</v>
@@ -23233,7 +23191,7 @@
         <v>100</v>
       </c>
       <c r="J454" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K454" t="s">
         <v>100</v>
@@ -23248,10 +23206,10 @@
         <v>0</v>
       </c>
       <c r="O454">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P454">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:17">
@@ -23283,7 +23241,7 @@
         <v>103</v>
       </c>
       <c r="J455" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K455" t="s">
         <v>103</v>
@@ -23298,10 +23256,10 @@
         <v>0</v>
       </c>
       <c r="O455">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P455">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:17">
@@ -23333,7 +23291,7 @@
         <v>100</v>
       </c>
       <c r="J456" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K456" t="s">
         <v>100</v>
@@ -23348,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="O456">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P456">
         <v>3</v>
@@ -23383,7 +23341,7 @@
         <v>123</v>
       </c>
       <c r="J457" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K457" t="s">
         <v>100</v>
@@ -23433,7 +23391,7 @@
         <v>100</v>
       </c>
       <c r="J458" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K458" t="s">
         <v>100</v>
@@ -23451,10 +23409,7 @@
         <v>2</v>
       </c>
       <c r="P458">
-        <v>1</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:17">
@@ -23486,7 +23441,7 @@
         <v>103</v>
       </c>
       <c r="J459" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K459" t="s">
         <v>100</v>
@@ -23501,10 +23456,10 @@
         <v>0</v>
       </c>
       <c r="O459">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P459">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:17">
@@ -23536,7 +23491,7 @@
         <v>123</v>
       </c>
       <c r="J460" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K460" t="s">
         <v>100</v>
@@ -23554,10 +23509,7 @@
         <v>2</v>
       </c>
       <c r="P460">
-        <v>1</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:17">
@@ -23580,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K461" t="s">
         <v>116</v>
@@ -23627,7 +23579,7 @@
         <v>127</v>
       </c>
       <c r="J462" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K462" t="s">
         <v>116</v>
@@ -23642,10 +23594,10 @@
         <v>0</v>
       </c>
       <c r="O462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P462">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:17">
@@ -23674,7 +23626,7 @@
         <v>117</v>
       </c>
       <c r="J463" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K463" t="s">
         <v>116</v>
@@ -23689,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="O463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P463">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:17">
@@ -23709,7 +23661,7 @@
         <v>81</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464">
         <v>59</v>
@@ -23724,7 +23676,7 @@
         <v>127</v>
       </c>
       <c r="J464" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K464" t="s">
         <v>119</v>
@@ -23736,13 +23688,13 @@
         <v>116</v>
       </c>
       <c r="N464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P464">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -23759,7 +23711,7 @@
         <v>81</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465">
         <v>74</v>
@@ -23774,7 +23726,7 @@
         <v>117</v>
       </c>
       <c r="J465" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K465" t="s">
         <v>117</v>
@@ -23789,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="O465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P465">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -23815,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K466" t="s">
         <v>101</v>
@@ -23862,7 +23814,7 @@
         <v>101</v>
       </c>
       <c r="J467" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K467" t="s">
         <v>101</v>
@@ -23877,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="O467">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P467">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -23897,7 +23849,7 @@
         <v>67</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F468">
         <v>33</v>
@@ -23912,7 +23864,7 @@
         <v>143</v>
       </c>
       <c r="J468" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K468" t="s">
         <v>101</v>
@@ -23924,13 +23876,13 @@
         <v>143</v>
       </c>
       <c r="N468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O468">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P468">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -23947,7 +23899,7 @@
         <v>67</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F469">
         <v>51</v>
@@ -23962,7 +23914,7 @@
         <v>101</v>
       </c>
       <c r="J469" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K469" t="s">
         <v>101</v>
@@ -23980,7 +23932,7 @@
         <v>3</v>
       </c>
       <c r="P469">
-        <v>-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -23997,7 +23949,7 @@
         <v>67</v>
       </c>
       <c r="E470">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F470">
         <v>51</v>
@@ -24012,7 +23964,7 @@
         <v>126</v>
       </c>
       <c r="J470" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K470" t="s">
         <v>101</v>
@@ -24024,13 +23976,13 @@
         <v>126</v>
       </c>
       <c r="N470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O470">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P470">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -24047,7 +23999,7 @@
         <v>67</v>
       </c>
       <c r="E471">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F471">
         <v>66</v>
@@ -24062,7 +24014,7 @@
         <v>126</v>
       </c>
       <c r="J471" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K471" t="s">
         <v>101</v>
@@ -24080,7 +24032,7 @@
         <v>3</v>
       </c>
       <c r="P471">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -24103,7 +24055,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K472" t="s">
         <v>115</v>
@@ -24150,7 +24102,7 @@
         <v>159</v>
       </c>
       <c r="J473" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K473" t="s">
         <v>115</v>
@@ -24165,10 +24117,10 @@
         <v>0</v>
       </c>
       <c r="O473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P473">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -24200,7 +24152,7 @@
         <v>115</v>
       </c>
       <c r="J474" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K474" t="s">
         <v>115</v>
@@ -24215,10 +24167,10 @@
         <v>0</v>
       </c>
       <c r="O474">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P474">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -24235,7 +24187,7 @@
         <v>67</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F475">
         <v>44</v>
@@ -24250,7 +24202,7 @@
         <v>119</v>
       </c>
       <c r="J475" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K475" t="s">
         <v>115</v>
@@ -24262,13 +24214,13 @@
         <v>124</v>
       </c>
       <c r="N475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O475">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P475">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -24285,7 +24237,7 @@
         <v>67</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476">
         <v>49</v>
@@ -24300,7 +24252,7 @@
         <v>115</v>
       </c>
       <c r="J476" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K476" t="s">
         <v>115</v>
@@ -24315,10 +24267,10 @@
         <v>0</v>
       </c>
       <c r="O476">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P476">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -24335,7 +24287,7 @@
         <v>67</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F477">
         <v>67</v>
@@ -24350,7 +24302,7 @@
         <v>124</v>
       </c>
       <c r="J477" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K477" t="s">
         <v>115</v>
@@ -24362,13 +24314,13 @@
         <v>119</v>
       </c>
       <c r="N477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O477">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P477">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -24385,7 +24337,7 @@
         <v>67</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F478">
         <v>70</v>
@@ -24400,7 +24352,7 @@
         <v>119</v>
       </c>
       <c r="J478" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K478" t="s">
         <v>115</v>
@@ -24412,13 +24364,13 @@
         <v>124</v>
       </c>
       <c r="N478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O478">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P478">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -24441,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K479" t="s">
         <v>88</v>
@@ -24488,7 +24440,7 @@
         <v>88</v>
       </c>
       <c r="J480" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K480" t="s">
         <v>88</v>
@@ -24506,7 +24458,7 @@
         <v>1</v>
       </c>
       <c r="P480">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="481" spans="1:17">
@@ -24535,7 +24487,7 @@
         <v>104</v>
       </c>
       <c r="J481" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K481" t="s">
         <v>88</v>
@@ -24553,7 +24505,7 @@
         <v>1</v>
       </c>
       <c r="P481">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="482" spans="1:17">
@@ -24570,7 +24522,7 @@
         <v>68</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F482">
         <v>38</v>
@@ -24585,7 +24537,7 @@
         <v>104</v>
       </c>
       <c r="J482" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="K482" t="s">
         <v>88</v>
@@ -24597,13 +24549,13 @@
         <v>128</v>
       </c>
       <c r="N482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P482">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:17">
@@ -24620,7 +24572,7 @@
         <v>68</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F483">
         <v>50</v>
@@ -24635,7 +24587,7 @@
         <v>88</v>
       </c>
       <c r="J483" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="K483" t="s">
         <v>88</v>
@@ -24653,7 +24605,7 @@
         <v>2</v>
       </c>
       <c r="P483">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:17">
@@ -24670,7 +24622,7 @@
         <v>68</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F484">
         <v>51</v>
@@ -24685,7 +24637,7 @@
         <v>88</v>
       </c>
       <c r="J484" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="K484" t="s">
         <v>88</v>
@@ -24703,7 +24655,7 @@
         <v>2</v>
       </c>
       <c r="P484">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:17">
@@ -24720,7 +24672,7 @@
         <v>68</v>
       </c>
       <c r="E485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F485">
         <v>68</v>
@@ -24735,7 +24687,7 @@
         <v>88</v>
       </c>
       <c r="J485" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="K485" t="s">
         <v>88</v>
@@ -24753,7 +24705,7 @@
         <v>2</v>
       </c>
       <c r="P485">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:17">
@@ -24776,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K486" t="s">
         <v>111</v>
@@ -24823,7 +24775,7 @@
         <v>92</v>
       </c>
       <c r="J487" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K487" t="s">
         <v>111</v>
@@ -24838,10 +24790,13 @@
         <v>0</v>
       </c>
       <c r="O487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P487">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="488" spans="1:17">
@@ -24870,7 +24825,7 @@
         <v>111</v>
       </c>
       <c r="J488" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K488" t="s">
         <v>111</v>
@@ -24885,10 +24840,13 @@
         <v>0</v>
       </c>
       <c r="O488">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P488">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="489" spans="1:17">
@@ -24920,7 +24878,7 @@
         <v>126</v>
       </c>
       <c r="J489" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K489" t="s">
         <v>111</v>
@@ -24935,13 +24893,10 @@
         <v>1</v>
       </c>
       <c r="O489">
+        <v>0</v>
+      </c>
+      <c r="P489">
         <v>2</v>
-      </c>
-      <c r="P489">
-        <v>-1</v>
-      </c>
-      <c r="Q489" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="490" spans="1:17">
@@ -24958,7 +24913,7 @@
         <v>67</v>
       </c>
       <c r="E490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F490">
         <v>60</v>
@@ -24973,7 +24928,7 @@
         <v>135</v>
       </c>
       <c r="J490" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K490" t="s">
         <v>111</v>
@@ -24985,13 +24940,13 @@
         <v>126</v>
       </c>
       <c r="N490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P490">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:17">
@@ -25014,7 +24969,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K491" t="s">
         <v>127</v>
@@ -25061,7 +25016,7 @@
         <v>84</v>
       </c>
       <c r="J492" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K492" t="s">
         <v>127</v>
@@ -25076,13 +25031,10 @@
         <v>0</v>
       </c>
       <c r="O492">
+        <v>0</v>
+      </c>
+      <c r="P492">
         <v>2</v>
-      </c>
-      <c r="P492">
-        <v>1</v>
-      </c>
-      <c r="Q492" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="493" spans="1:17">
@@ -25114,7 +25066,7 @@
         <v>84</v>
       </c>
       <c r="J493" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K493" t="s">
         <v>84</v>
@@ -25129,13 +25081,10 @@
         <v>0</v>
       </c>
       <c r="O493">
+        <v>0</v>
+      </c>
+      <c r="P493">
         <v>2</v>
-      </c>
-      <c r="P493">
-        <v>1</v>
-      </c>
-      <c r="Q493" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="494" spans="1:17">
@@ -25152,7 +25101,7 @@
         <v>68</v>
       </c>
       <c r="E494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F494">
         <v>47</v>
@@ -25167,7 +25116,7 @@
         <v>125</v>
       </c>
       <c r="J494" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K494" t="s">
         <v>84</v>
@@ -25179,13 +25128,13 @@
         <v>125</v>
       </c>
       <c r="N494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:17">
@@ -25202,7 +25151,7 @@
         <v>68</v>
       </c>
       <c r="E495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F495">
         <v>52</v>
@@ -25217,7 +25166,7 @@
         <v>125</v>
       </c>
       <c r="J495" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K495" t="s">
         <v>84</v>
@@ -25232,10 +25181,10 @@
         <v>0</v>
       </c>
       <c r="O495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P495">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:17">
@@ -25252,7 +25201,7 @@
         <v>68</v>
       </c>
       <c r="E496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F496">
         <v>67</v>
@@ -25267,7 +25216,7 @@
         <v>84</v>
       </c>
       <c r="J496" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K496" t="s">
         <v>84</v>
@@ -25282,13 +25231,13 @@
         <v>0</v>
       </c>
       <c r="O496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P496">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16">
       <c r="A497">
         <v>2022</v>
       </c>
@@ -25302,7 +25251,7 @@
         <v>68</v>
       </c>
       <c r="E497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F497">
         <v>95</v>
@@ -25317,7 +25266,7 @@
         <v>120</v>
       </c>
       <c r="J497" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K497" t="s">
         <v>84</v>
@@ -25332,13 +25281,13 @@
         <v>0</v>
       </c>
       <c r="O497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P497">
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:16">
       <c r="A498">
         <v>2022</v>
       </c>
@@ -25358,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K498" t="s">
         <v>132</v>
@@ -25379,7 +25328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:16">
       <c r="A499">
         <v>2022</v>
       </c>
@@ -25405,7 +25354,7 @@
         <v>101</v>
       </c>
       <c r="J499" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K499" t="s">
         <v>132</v>
@@ -25420,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="O499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P499">
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:16">
       <c r="A500">
         <v>2022</v>
       </c>
@@ -25455,7 +25404,7 @@
         <v>108</v>
       </c>
       <c r="J500" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K500" t="s">
         <v>108</v>
@@ -25470,13 +25419,13 @@
         <v>0</v>
       </c>
       <c r="O500">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P500">
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:16">
       <c r="A501">
         <v>2022</v>
       </c>
@@ -25505,7 +25454,7 @@
         <v>108</v>
       </c>
       <c r="J501" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K501" t="s">
         <v>108</v>
@@ -25520,13 +25469,13 @@
         <v>0</v>
       </c>
       <c r="O501">
+        <v>1</v>
+      </c>
+      <c r="P501">
         <v>4</v>
       </c>
-      <c r="P501">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="502" spans="1:17">
+    </row>
+    <row r="502" spans="1:16">
       <c r="A502">
         <v>2022</v>
       </c>
@@ -25555,7 +25504,7 @@
         <v>145</v>
       </c>
       <c r="J502" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K502" t="s">
         <v>108</v>
@@ -25570,13 +25519,13 @@
         <v>0</v>
       </c>
       <c r="O502">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P502">
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:16">
       <c r="A503">
         <v>2022</v>
       </c>
@@ -25596,7 +25545,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K503" t="s">
         <v>114</v>
@@ -25617,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:16">
       <c r="A504">
         <v>2022</v>
       </c>
@@ -25646,7 +25595,7 @@
         <v>105</v>
       </c>
       <c r="J504" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K504" t="s">
         <v>114</v>
@@ -25661,13 +25610,13 @@
         <v>1</v>
       </c>
       <c r="O504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P504">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="505" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16">
       <c r="A505">
         <v>2022</v>
       </c>
@@ -25696,7 +25645,7 @@
         <v>114</v>
       </c>
       <c r="J505" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K505" t="s">
         <v>114</v>
@@ -25711,13 +25660,13 @@
         <v>0</v>
       </c>
       <c r="O505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P505">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="506" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16">
       <c r="A506">
         <v>2022</v>
       </c>
@@ -25731,7 +25680,7 @@
         <v>68</v>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F506">
         <v>48</v>
@@ -25746,7 +25695,7 @@
         <v>116</v>
       </c>
       <c r="J506" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K506" t="s">
         <v>114</v>
@@ -25758,16 +25707,16 @@
         <v>105</v>
       </c>
       <c r="N506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P506">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="507" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16">
       <c r="A507">
         <v>2022</v>
       </c>
@@ -25781,7 +25730,7 @@
         <v>68</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F507">
         <v>51</v>
@@ -25796,7 +25745,7 @@
         <v>116</v>
       </c>
       <c r="J507" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K507" t="s">
         <v>116</v>
@@ -25811,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="O507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P507">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="508" spans="1:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16">
       <c r="A508">
         <v>2022</v>
       </c>
@@ -25858,19 +25807,16 @@
         <v>123</v>
       </c>
       <c r="N508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O508">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P508">
-        <v>-5</v>
-      </c>
-      <c r="Q508" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="509" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16">
       <c r="A509">
         <v>2022</v>
       </c>
@@ -25884,7 +25830,7 @@
         <v>68</v>
       </c>
       <c r="E509">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F509">
         <v>70</v>
@@ -25899,7 +25845,7 @@
         <v>123</v>
       </c>
       <c r="J509" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K509" t="s">
         <v>116</v>
@@ -25911,16 +25857,16 @@
         <v>114</v>
       </c>
       <c r="N509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O509">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P509">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="510" spans="1:17">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -25934,7 +25880,7 @@
         <v>68</v>
       </c>
       <c r="E510">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F510">
         <v>73</v>
@@ -25961,19 +25907,16 @@
         <v>123</v>
       </c>
       <c r="N510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O510">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P510">
-        <v>-5</v>
-      </c>
-      <c r="Q510" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="511" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -25987,7 +25930,7 @@
         <v>68</v>
       </c>
       <c r="E511">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F511">
         <v>85</v>
@@ -26002,7 +25945,7 @@
         <v>105</v>
       </c>
       <c r="J511" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K511" t="s">
         <v>116</v>
@@ -26014,16 +25957,16 @@
         <v>105</v>
       </c>
       <c r="N511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P511">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="512" spans="1:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -26037,7 +25980,7 @@
         <v>68</v>
       </c>
       <c r="E512">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F512">
         <v>89</v>
@@ -26052,7 +25995,7 @@
         <v>105</v>
       </c>
       <c r="J512" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K512" t="s">
         <v>116</v>
@@ -26067,13 +26010,13 @@
         <v>0</v>
       </c>
       <c r="O512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P512">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="513" spans="1:16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:17">
       <c r="A513">
         <v>2022</v>
       </c>
@@ -26114,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:16">
+    <row r="514" spans="1:17">
       <c r="A514">
         <v>2022</v>
       </c>
@@ -26155,13 +26098,16 @@
         <v>0</v>
       </c>
       <c r="O514">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P514">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:16">
+      <c r="Q514" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17">
       <c r="A515">
         <v>2022</v>
       </c>
@@ -26175,7 +26121,7 @@
         <v>67</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F515">
         <v>5</v>
@@ -26190,7 +26136,7 @@
         <v>89</v>
       </c>
       <c r="J515" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K515" t="s">
         <v>89</v>
@@ -26202,16 +26148,16 @@
         <v>140</v>
       </c>
       <c r="N515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O515">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17">
       <c r="A516">
         <v>2022</v>
       </c>
@@ -26240,7 +26186,7 @@
         <v>140</v>
       </c>
       <c r="J516" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K516" t="s">
         <v>89</v>
@@ -26252,16 +26198,16 @@
         <v>131</v>
       </c>
       <c r="N516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17">
       <c r="A517">
         <v>2022</v>
       </c>
@@ -26290,7 +26236,7 @@
         <v>85</v>
       </c>
       <c r="J517" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K517" t="s">
         <v>89</v>
@@ -26311,7 +26257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:16">
+    <row r="518" spans="1:17">
       <c r="A518">
         <v>2022</v>
       </c>
@@ -26340,7 +26286,7 @@
         <v>140</v>
       </c>
       <c r="J518" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K518" t="s">
         <v>89</v>
@@ -26358,10 +26304,10 @@
         <v>1</v>
       </c>
       <c r="P518">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17">
       <c r="A519">
         <v>2022</v>
       </c>
@@ -26390,7 +26336,7 @@
         <v>85</v>
       </c>
       <c r="J519" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="K519" t="s">
         <v>89</v>
@@ -26405,13 +26351,13 @@
         <v>1</v>
       </c>
       <c r="O519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P519">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="520" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17">
       <c r="A520">
         <v>2022</v>
       </c>
@@ -26431,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K520" t="s">
         <v>100</v>
@@ -26452,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:16">
+    <row r="521" spans="1:17">
       <c r="A521">
         <v>2022</v>
       </c>
@@ -26478,7 +26424,7 @@
         <v>100</v>
       </c>
       <c r="J521" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K521" t="s">
         <v>100</v>
@@ -26493,13 +26439,16 @@
         <v>0</v>
       </c>
       <c r="O521">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:16">
+      <c r="Q521" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17">
       <c r="A522">
         <v>2022</v>
       </c>
@@ -26528,7 +26477,7 @@
         <v>103</v>
       </c>
       <c r="J522" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K522" t="s">
         <v>100</v>
@@ -26543,13 +26492,13 @@
         <v>0</v>
       </c>
       <c r="O522">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P522">
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:16">
+    <row r="523" spans="1:17">
       <c r="A523">
         <v>2022</v>
       </c>
@@ -26578,7 +26527,7 @@
         <v>142</v>
       </c>
       <c r="J523" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K523" t="s">
         <v>100</v>
@@ -26593,13 +26542,16 @@
         <v>0</v>
       </c>
       <c r="O523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P523">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:16">
+      <c r="Q523" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17">
       <c r="A524">
         <v>2022</v>
       </c>
@@ -26628,7 +26580,7 @@
         <v>142</v>
       </c>
       <c r="J524" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K524" t="s">
         <v>100</v>
@@ -26649,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:16">
+    <row r="525" spans="1:17">
       <c r="A525">
         <v>2022</v>
       </c>
@@ -26678,7 +26630,7 @@
         <v>103</v>
       </c>
       <c r="J525" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K525" t="s">
         <v>100</v>
@@ -26693,13 +26645,16 @@
         <v>1</v>
       </c>
       <c r="O525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P525">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:16">
+      <c r="Q525" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17">
       <c r="A526">
         <v>2022</v>
       </c>
@@ -26728,7 +26683,7 @@
         <v>103</v>
       </c>
       <c r="J526" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K526" t="s">
         <v>100</v>
@@ -26743,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="O526">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P526">
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:16">
+    <row r="527" spans="1:17">
       <c r="A527">
         <v>2022</v>
       </c>
@@ -26778,7 +26733,7 @@
         <v>94</v>
       </c>
       <c r="J527" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K527" t="s">
         <v>100</v>
@@ -26793,10 +26748,10 @@
         <v>0</v>
       </c>
       <c r="O527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -550,7 +550,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -617,7 +617,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -688,7 +688,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1173,7 +1173,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1729,7 +1729,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1796,7 +1796,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2210,7 +2210,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2833,7 +2833,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2900,7 +2900,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2967,7 +2967,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3452,7 +3452,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3519,7 +3519,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3586,7 +3586,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3787,7 +3787,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4272,7 +4272,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4649,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
@@ -4686,7 +4686,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5208,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="P69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
@@ -5242,7 +5242,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5656,7 +5656,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5928,7 +5928,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6200,7 +6200,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6267,7 +6267,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6334,7 +6334,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6606,7 +6606,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7304,7 +7304,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7371,7 +7371,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7572,7 +7572,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Cameroon']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8270,7 +8270,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8337,7 +8337,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8680,7 +8680,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8747,7 +8747,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -8956,7 +8956,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10683,7 +10683,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12414,7 +12414,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12481,7 +12481,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13928,7 +13928,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -13995,7 +13995,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14066,7 +14066,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15450,7 +15450,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15517,7 +15517,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16286,7 +16286,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16353,7 +16353,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16495,7 +16495,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16625,7 +16625,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16692,7 +16692,7 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18833,7 +18833,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19870,7 +19870,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21617,7 +21617,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21747,7 +21747,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21814,7 +21814,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21885,7 +21885,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22027,7 +22027,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22713,7 +22713,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -22780,7 +22780,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -22847,7 +22847,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23048,7 +23048,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23115,7 +23115,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23328,7 +23328,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -23939,7 +23939,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24223,7 +24223,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -24901,7 +24901,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -24968,7 +24968,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25039,7 +25039,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25114,7 +25114,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25189,7 +25189,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25252,7 +25252,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25319,7 +25319,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25386,7 +25386,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -25528,7 +25528,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -25800,7 +25800,7 @@
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -25942,7 +25942,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26084,7 +26084,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26226,7 +26226,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -26498,7 +26498,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -26569,7 +26569,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -26640,7 +26640,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -26782,7 +26782,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -26853,7 +26853,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27117,7 +27117,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27259,7 +27259,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27527,7 +27527,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -27602,7 +27602,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -27677,7 +27677,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -27740,7 +27740,7 @@
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -27811,7 +27811,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -27886,7 +27886,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28241,7 +28241,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28312,7 +28312,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -28383,7 +28383,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -28509,7 +28509,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28576,7 +28576,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -28647,7 +28647,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -28718,7 +28718,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -28864,7 +28864,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -28923,7 +28923,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -28990,7 +28990,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -29061,7 +29061,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -29203,7 +29203,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31119,7 +31119,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -31186,7 +31186,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -31253,7 +31253,7 @@
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -31399,7 +31399,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -31549,7 +31549,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -31620,7 +31620,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -31679,7 +31679,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -31746,7 +31746,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -31888,7 +31888,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -32231,7 +32231,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -32298,7 +32298,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -32365,7 +32365,7 @@
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -32436,7 +32436,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -32566,7 +32566,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -32633,7 +32633,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -32704,7 +32704,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -32775,7 +32775,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -32846,7 +32846,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -32917,7 +32917,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -33934,7 +33934,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -34001,7 +34001,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -34072,7 +34072,7 @@
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -34147,7 +34147,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -34218,7 +34218,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -34557,7 +34557,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -34628,7 +34628,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -34699,7 +34699,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -35097,7 +35097,7 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -35168,7 +35168,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -35239,7 +35239,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -35381,7 +35381,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -35452,7 +35452,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -35594,7 +35594,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -35665,7 +35665,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -36280,7 +36280,7 @@
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -36347,7 +36347,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -36422,7 +36422,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -36493,7 +36493,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -36568,7 +36568,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -36639,7 +36639,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -36714,7 +36714,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -36785,7 +36785,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>goal_time</t>
+          <t>goal_minute</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -626,7 +626,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -648,16 +648,12 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -700,7 +696,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -722,16 +718,12 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -778,7 +770,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -800,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R5" t="inlineStr"/>
     </row>
@@ -852,7 +844,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -874,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
@@ -926,7 +918,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -948,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="R7" t="inlineStr"/>
     </row>
@@ -1000,7 +992,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1022,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
@@ -1074,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1096,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
@@ -1134,7 +1126,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1204,7 +1196,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1226,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
@@ -1253,7 +1245,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -1278,7 +1270,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1297,10 +1289,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1327,7 +1319,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
@@ -1352,7 +1344,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1374,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -1401,7 +1393,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>62</v>
@@ -1426,7 +1418,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1448,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1475,7 +1467,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>73</v>
@@ -1500,7 +1492,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1522,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -1549,7 +1541,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>77</v>
@@ -1574,7 +1566,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1596,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="inlineStr"/>
     </row>
@@ -1623,7 +1615,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>82</v>
@@ -1648,7 +1640,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1670,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="inlineStr"/>
     </row>
@@ -1697,7 +1689,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>89</v>
@@ -1722,7 +1714,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1744,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" t="inlineStr"/>
     </row>
@@ -1782,7 +1774,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1852,7 +1844,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1874,12 +1866,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1901,7 +1897,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
@@ -1926,7 +1922,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1945,13 +1941,13 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr"/>
     </row>
@@ -1975,7 +1971,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>50</v>
@@ -2000,7 +1996,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2019,15 +2015,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>54</v>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2096,12 +2096,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2123,7 +2127,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>59</v>
@@ -2148,7 +2152,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2167,13 +2171,13 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr"/>
     </row>
@@ -2197,7 +2201,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>76</v>
@@ -2222,7 +2226,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2241,15 +2245,19 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2282,7 +2290,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2352,7 +2360,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2374,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="inlineStr"/>
     </row>
@@ -2401,7 +2409,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
@@ -2426,7 +2434,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2445,7 +2453,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2475,7 +2483,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>14</v>
@@ -2500,7 +2508,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2525,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr"/>
     </row>
@@ -2549,7 +2557,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
@@ -2574,7 +2582,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2596,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" t="inlineStr"/>
     </row>
@@ -2623,7 +2631,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>27</v>
@@ -2648,7 +2656,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2670,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" t="inlineStr"/>
     </row>
@@ -2697,7 +2705,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>36</v>
@@ -2722,7 +2730,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2744,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" t="inlineStr"/>
     </row>
@@ -2771,7 +2779,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>62</v>
@@ -2796,7 +2804,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2818,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R33" t="inlineStr"/>
     </row>
@@ -2845,7 +2853,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>80</v>
@@ -2870,7 +2878,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2892,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34" t="inlineStr"/>
     </row>
@@ -2930,7 +2938,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3000,7 +3008,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3022,12 +3030,16 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3070,7 +3082,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3092,12 +3104,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3119,7 +3135,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -3144,7 +3160,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3163,7 +3179,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3171,7 +3187,11 @@
       <c r="Q38" t="n">
         <v>1</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3193,7 +3213,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
@@ -3218,7 +3238,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3237,13 +3257,13 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R39" t="inlineStr"/>
     </row>
@@ -3267,7 +3287,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>42</v>
@@ -3292,7 +3312,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Algeria']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3311,13 +3331,13 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="inlineStr"/>
     </row>
@@ -3341,7 +3361,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>68</v>
@@ -3366,7 +3386,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3385,13 +3405,13 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R41" t="inlineStr"/>
     </row>
@@ -3415,7 +3435,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>70</v>
@@ -3440,7 +3460,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3462,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R42" t="inlineStr"/>
     </row>
@@ -3489,7 +3509,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>87</v>
@@ -3514,7 +3534,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3536,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R43" t="inlineStr"/>
     </row>
@@ -3574,7 +3594,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3644,7 +3664,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3666,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="R45" t="inlineStr"/>
     </row>
@@ -3714,7 +3734,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3736,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="R46" t="inlineStr"/>
     </row>
@@ -3788,7 +3808,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3813,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="R47" t="inlineStr"/>
     </row>
@@ -3862,7 +3882,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3887,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="R48" t="inlineStr"/>
     </row>
@@ -3922,7 +3942,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3996,7 +4016,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4018,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R50" t="inlineStr"/>
     </row>
@@ -4070,7 +4090,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4092,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R51" t="inlineStr"/>
     </row>
@@ -4144,7 +4164,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4166,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" t="inlineStr"/>
     </row>
@@ -4193,7 +4213,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>62</v>
@@ -4218,7 +4238,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4237,13 +4257,13 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R53" t="inlineStr"/>
     </row>
@@ -4292,7 +4312,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4311,13 +4331,13 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R54" t="inlineStr"/>
     </row>
@@ -4366,7 +4386,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4388,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr"/>
     </row>
@@ -4426,7 +4446,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4475,7 +4495,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
@@ -4500,7 +4520,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4519,15 +4539,19 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
-      </c>
-      <c r="R57" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4549,7 +4573,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -4574,7 +4598,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4596,12 +4620,16 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>9</v>
-      </c>
-      <c r="R58" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4623,7 +4651,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>22</v>
@@ -4648,7 +4676,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4670,12 +4698,16 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
-      </c>
-      <c r="R59" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4697,7 +4729,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>46</v>
@@ -4722,7 +4754,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4744,12 +4776,16 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>9</v>
-      </c>
-      <c r="R60" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4771,7 +4807,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>93</v>
@@ -4796,7 +4832,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4821,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr"/>
     </row>
@@ -4856,7 +4892,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4930,7 +4966,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4952,10 +4988,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R63" t="inlineStr"/>
     </row>
@@ -5004,7 +5040,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5078,7 +5114,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5103,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R65" t="inlineStr"/>
     </row>
@@ -5152,7 +5188,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5177,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R66" t="inlineStr"/>
     </row>
@@ -5226,7 +5262,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5251,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="Q67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R67" t="inlineStr"/>
     </row>
@@ -5275,7 +5311,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>88</v>
@@ -5300,7 +5336,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5325,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R68" t="inlineStr"/>
     </row>
@@ -5349,7 +5385,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>93</v>
@@ -5374,7 +5410,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5396,12 +5432,16 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>10</v>
-      </c>
-      <c r="R69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5434,7 +5474,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5483,7 +5523,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>32</v>
@@ -5508,7 +5548,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5527,13 +5567,13 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr"/>
     </row>
@@ -5557,7 +5597,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>75</v>
@@ -5582,7 +5622,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5604,10 +5644,10 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R72" t="inlineStr"/>
     </row>
@@ -5631,7 +5671,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>81</v>
@@ -5656,7 +5696,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5705,7 +5745,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>87</v>
@@ -5730,7 +5770,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5804,7 +5844,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5826,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
@@ -5864,7 +5904,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5938,7 +5978,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5960,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R77" t="inlineStr"/>
     </row>
@@ -6012,7 +6052,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6034,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R78" t="inlineStr"/>
     </row>
@@ -6086,7 +6126,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6108,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R79" t="inlineStr"/>
     </row>
@@ -6146,7 +6186,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6195,7 +6235,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>11</v>
@@ -6220,7 +6260,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6239,13 +6279,13 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="inlineStr"/>
     </row>
@@ -6269,7 +6309,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>58</v>
@@ -6294,7 +6334,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6316,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R82" t="inlineStr"/>
     </row>
@@ -6343,7 +6383,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>71</v>
@@ -6368,7 +6408,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6387,13 +6427,13 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" t="inlineStr"/>
     </row>
@@ -6428,7 +6468,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6498,7 +6538,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6520,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q85" t="n">
         <v>2</v>
@@ -6568,7 +6608,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6590,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
         <v>2</v>
@@ -6617,7 +6657,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>18</v>
@@ -6642,7 +6682,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6661,10 +6701,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
         <v>3</v>
@@ -6691,7 +6731,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>44</v>
@@ -6716,7 +6756,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6738,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
         <v>2</v>
@@ -6765,7 +6805,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>90</v>
@@ -6790,7 +6830,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6812,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6850,7 +6890,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6924,7 +6964,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6946,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr"/>
     </row>
@@ -6998,7 +7038,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7020,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R92" t="inlineStr"/>
     </row>
@@ -7072,7 +7112,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7094,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R93" t="inlineStr"/>
     </row>
@@ -7146,7 +7186,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7168,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R94" t="inlineStr"/>
     </row>
@@ -7220,7 +7260,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7242,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R95" t="inlineStr"/>
     </row>
@@ -7294,7 +7334,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7316,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R96" t="inlineStr"/>
     </row>
@@ -7368,7 +7408,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7390,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R97" t="inlineStr"/>
     </row>
@@ -7442,7 +7482,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7464,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R98" t="inlineStr"/>
     </row>
@@ -7516,7 +7556,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7538,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R99" t="inlineStr"/>
     </row>
@@ -7576,7 +7616,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7646,7 +7686,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7720,7 +7760,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
+          <t>['Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7742,10 +7782,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" t="inlineStr"/>
     </row>
@@ -7794,7 +7834,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7854,7 +7894,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Cameroon']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7903,7 +7943,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -7928,7 +7968,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7947,13 +7987,13 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R105" t="inlineStr"/>
     </row>
@@ -7977,7 +8017,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>41</v>
@@ -8002,7 +8042,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8024,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R106" t="inlineStr"/>
     </row>
@@ -8051,7 +8091,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>44</v>
@@ -8076,7 +8116,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8098,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="n">
         <v>5</v>
@@ -8125,7 +8165,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>46</v>
@@ -8150,7 +8190,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8172,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R108" t="inlineStr"/>
     </row>
@@ -8199,7 +8239,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>72</v>
@@ -8224,7 +8264,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8249,7 +8289,7 @@
         <v>2</v>
       </c>
       <c r="Q109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R109" t="inlineStr"/>
     </row>
@@ -8273,7 +8313,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>75</v>
@@ -8298,7 +8338,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8323,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R110" t="inlineStr"/>
     </row>
@@ -8347,7 +8387,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>81</v>
@@ -8372,7 +8412,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8397,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="Q111" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr"/>
     </row>
@@ -8421,7 +8461,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>23</v>
@@ -8446,7 +8486,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8468,10 +8508,10 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R112" t="inlineStr"/>
     </row>
@@ -8495,7 +8535,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>47</v>
@@ -8520,7 +8560,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8545,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="Q113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R113" t="inlineStr"/>
     </row>
@@ -8580,7 +8620,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8650,7 +8690,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8672,10 +8712,10 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R115" t="inlineStr"/>
     </row>
@@ -8724,7 +8764,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8746,12 +8786,16 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q116" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8773,7 +8817,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>43</v>
@@ -8798,7 +8842,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8817,13 +8861,13 @@
         </is>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R117" t="inlineStr"/>
     </row>
@@ -8847,7 +8891,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>47</v>
@@ -8872,7 +8916,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8891,15 +8935,19 @@
         </is>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q118" t="n">
-        <v>2</v>
-      </c>
-      <c r="R118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8921,7 +8969,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>77</v>
@@ -8946,7 +8994,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8965,13 +9013,13 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R119" t="inlineStr"/>
     </row>
@@ -9006,7 +9054,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9076,7 +9124,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9098,10 +9146,10 @@
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R121" t="inlineStr"/>
     </row>
@@ -9150,7 +9198,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -9172,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R122" t="inlineStr"/>
     </row>
@@ -9199,7 +9247,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>93</v>
@@ -9224,7 +9272,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -9243,13 +9291,13 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R123" t="inlineStr"/>
     </row>
@@ -9294,7 +9342,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9316,10 +9364,10 @@
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr"/>
     </row>
@@ -9368,7 +9416,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -9390,10 +9438,10 @@
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q125" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R125" t="inlineStr"/>
     </row>
@@ -9417,7 +9465,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>95</v>
@@ -9442,7 +9490,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9464,10 +9512,10 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R126" t="inlineStr"/>
     </row>
@@ -9502,7 +9550,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9576,7 +9624,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9654,7 +9702,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -9728,7 +9776,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9802,7 +9850,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9876,7 +9924,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9936,7 +9984,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10006,7 +10054,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10450,7 +10498,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11088,7 +11136,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11162,7 +11210,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11236,7 +11284,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11532,7 +11580,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11606,7 +11654,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11680,7 +11728,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11754,7 +11802,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11828,7 +11876,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11902,7 +11950,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -12466,7 +12514,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12536,7 +12584,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12606,7 +12654,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12680,7 +12728,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12754,7 +12802,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12828,7 +12876,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12888,7 +12936,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12958,7 +13006,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -13032,7 +13080,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -13106,7 +13154,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -13180,7 +13228,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -13254,7 +13302,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -13314,7 +13362,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -13384,7 +13432,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13458,7 +13506,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13532,7 +13580,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -13606,7 +13654,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -13680,7 +13728,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -14684,7 +14732,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14758,7 +14806,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14832,7 +14880,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14906,7 +14954,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14980,7 +15028,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15040,7 +15088,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15110,7 +15158,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15184,7 +15232,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15258,7 +15306,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15318,7 +15366,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15392,7 +15440,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15466,7 +15514,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15540,7 +15588,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15614,7 +15662,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15688,7 +15736,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15762,7 +15810,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15836,7 +15884,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15910,7 +15958,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16044,7 +16092,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16114,7 +16162,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16188,7 +16236,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16262,7 +16310,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16336,7 +16384,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16410,7 +16458,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16484,7 +16532,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16558,7 +16606,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16632,7 +16680,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16706,7 +16754,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16780,7 +16828,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16854,7 +16902,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16914,7 +16962,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16984,7 +17032,7 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17058,7 +17106,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17132,7 +17180,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17206,7 +17254,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17410,7 +17458,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17914,7 +17962,7 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -17984,7 +18032,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18058,7 +18106,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18132,7 +18180,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18206,7 +18254,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18280,7 +18328,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18354,7 +18402,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18988,7 +19036,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19058,7 +19106,7 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19132,7 +19180,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -19206,7 +19254,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19280,7 +19328,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -19354,7 +19402,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19428,7 +19476,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -19502,7 +19550,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19562,7 +19610,7 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19636,7 +19684,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19710,7 +19758,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19788,7 +19836,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19862,7 +19910,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19936,7 +19984,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -19996,7 +20044,7 @@
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -20066,7 +20114,7 @@
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -20140,7 +20188,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -20214,7 +20262,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -20288,7 +20336,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -20362,7 +20410,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -20436,7 +20484,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -20640,7 +20688,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20714,7 +20762,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20788,7 +20836,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20862,7 +20910,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20936,7 +20984,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -21070,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21144,7 +21192,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21448,7 +21496,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21522,7 +21570,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23016,7 +23064,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23086,7 +23134,7 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23160,7 +23208,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23234,7 +23282,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23308,7 +23356,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23386,7 +23434,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -23460,7 +23508,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -23534,7 +23582,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -23594,7 +23642,7 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -23664,7 +23712,7 @@
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -23734,7 +23782,7 @@
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -23882,7 +23930,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -23942,7 +23990,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -24012,7 +24060,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -24512,7 +24560,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -24586,7 +24634,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -24660,7 +24708,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -24734,7 +24782,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -24808,7 +24856,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -25446,7 +25494,7 @@
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -25516,7 +25564,7 @@
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -25586,7 +25634,7 @@
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -25660,7 +25708,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -25734,7 +25782,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -25808,7 +25856,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -26802,7 +26850,7 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -26876,7 +26924,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -26950,7 +26998,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -27024,7 +27072,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -27098,7 +27146,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -27172,7 +27220,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -27246,7 +27294,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -27320,7 +27368,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -27394,7 +27442,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -27468,7 +27516,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -27958,7 +28006,7 @@
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -28028,7 +28076,7 @@
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -28098,7 +28146,7 @@
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -28454,7 +28502,7 @@
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -28524,7 +28572,7 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -28598,7 +28646,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -28676,7 +28724,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -28754,7 +28802,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -28818,7 +28866,7 @@
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -28892,7 +28940,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -28970,7 +29018,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -29044,7 +29092,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -29118,7 +29166,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -29192,7 +29240,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -29266,7 +29314,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -29340,7 +29388,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -29414,7 +29462,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -29488,7 +29536,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -29558,7 +29606,7 @@
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -30048,7 +30096,7 @@
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -30118,7 +30166,7 @@
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -30266,7 +30314,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -30340,7 +30388,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -30400,7 +30448,7 @@
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -30470,7 +30518,7 @@
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -30492,10 +30540,10 @@
         <v>0</v>
       </c>
       <c r="P419" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q419" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R419" t="inlineStr"/>
     </row>
@@ -30544,7 +30592,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -30566,10 +30614,10 @@
         <v>0</v>
       </c>
       <c r="P420" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q420" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R420" t="inlineStr"/>
     </row>
@@ -30618,7 +30666,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -30643,7 +30691,7 @@
         <v>3</v>
       </c>
       <c r="Q421" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R421" t="inlineStr"/>
     </row>
@@ -30692,7 +30740,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -30717,7 +30765,7 @@
         <v>3</v>
       </c>
       <c r="Q422" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R422" t="inlineStr"/>
     </row>
@@ -30766,7 +30814,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -30788,10 +30836,10 @@
         <v>0</v>
       </c>
       <c r="P423" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q423" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R423" t="inlineStr"/>
     </row>
@@ -30840,7 +30888,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Egypt', 'Uruguay']</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -30862,10 +30910,10 @@
         <v>0</v>
       </c>
       <c r="P424" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q424" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R424" t="inlineStr"/>
     </row>
@@ -30889,7 +30937,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425" t="n">
         <v>95</v>
@@ -30914,7 +30962,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Russia', 'Saudi Arabia', 'Uruguay']</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -30933,13 +30981,13 @@
         </is>
       </c>
       <c r="O425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P425" t="n">
         <v>3</v>
       </c>
       <c r="Q425" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="R425" t="inlineStr"/>
     </row>
@@ -30974,7 +31022,7 @@
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -31048,7 +31096,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -31070,10 +31118,10 @@
         <v>0</v>
       </c>
       <c r="P427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R427" t="inlineStr"/>
     </row>
@@ -31122,7 +31170,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -31144,10 +31192,10 @@
         <v>0</v>
       </c>
       <c r="P428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R428" t="inlineStr"/>
     </row>
@@ -31196,7 +31244,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -31221,9 +31269,13 @@
         <v>2</v>
       </c>
       <c r="Q429" t="n">
-        <v>2</v>
-      </c>
-      <c r="R429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -31245,7 +31297,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
         <v>81</v>
@@ -31270,7 +31322,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -31289,13 +31341,13 @@
         </is>
       </c>
       <c r="O430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R430" t="inlineStr"/>
     </row>
@@ -31319,7 +31371,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F431" t="n">
         <v>91</v>
@@ -31344,7 +31396,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -31363,15 +31415,19 @@
         </is>
       </c>
       <c r="O431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P431" t="n">
         <v>2</v>
       </c>
       <c r="Q431" t="n">
-        <v>2</v>
-      </c>
-      <c r="R431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -31393,7 +31449,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F432" t="n">
         <v>93</v>
@@ -31418,7 +31474,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Iran', 'Portugal']</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -31440,10 +31496,10 @@
         <v>0</v>
       </c>
       <c r="P432" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R432" t="inlineStr"/>
     </row>
@@ -31478,7 +31534,7 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -31548,7 +31604,7 @@
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -31570,10 +31626,10 @@
         <v>0</v>
       </c>
       <c r="P434" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R434" t="inlineStr"/>
     </row>
@@ -31618,7 +31674,7 @@
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -31640,10 +31696,10 @@
         <v>0</v>
       </c>
       <c r="P435" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R435" t="inlineStr"/>
     </row>
@@ -31667,7 +31723,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F436" t="n">
         <v>18</v>
@@ -31692,7 +31748,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Peru', 'Denmark']</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -31711,13 +31767,13 @@
         </is>
       </c>
       <c r="O436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P436" t="n">
         <v>2</v>
       </c>
       <c r="Q436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R436" t="inlineStr"/>
     </row>
@@ -31741,7 +31797,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F437" t="n">
         <v>50</v>
@@ -31766,7 +31822,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Peru', 'Denmark']</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -31791,7 +31847,7 @@
         <v>2</v>
       </c>
       <c r="Q437" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R437" t="inlineStr"/>
     </row>
@@ -31826,7 +31882,7 @@
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Croatia', 'Iceland', 'Nigeria']</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -31900,7 +31956,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -31925,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="Q439" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R439" t="inlineStr"/>
     </row>
@@ -31974,7 +32030,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Croatia', 'Iceland', 'Nigeria']</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -31996,10 +32052,10 @@
         <v>1</v>
       </c>
       <c r="P440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R440" t="inlineStr"/>
     </row>
@@ -32023,7 +32079,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F441" t="n">
         <v>53</v>
@@ -32048,7 +32104,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Croatia', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -32067,13 +32123,13 @@
         </is>
       </c>
       <c r="O441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R441" t="inlineStr"/>
     </row>
@@ -32097,7 +32153,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F442" t="n">
         <v>76</v>
@@ -32122,7 +32178,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Croatia', 'Iceland', 'Nigeria']</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -32141,13 +32197,13 @@
         </is>
       </c>
       <c r="O442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R442" t="inlineStr"/>
     </row>
@@ -32171,7 +32227,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F443" t="n">
         <v>86</v>
@@ -32196,7 +32252,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -32221,7 +32277,7 @@
         <v>1</v>
       </c>
       <c r="Q443" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R443" t="inlineStr"/>
     </row>
@@ -32245,7 +32301,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F444" t="n">
         <v>90</v>
@@ -32270,7 +32326,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -32292,10 +32348,10 @@
         <v>0</v>
       </c>
       <c r="P444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q444" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R444" t="inlineStr"/>
     </row>
@@ -32330,7 +32386,7 @@
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -32400,7 +32456,7 @@
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -32422,10 +32478,10 @@
         <v>0</v>
       </c>
       <c r="P446" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R446" t="inlineStr"/>
     </row>
@@ -32470,7 +32526,7 @@
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -32492,10 +32548,10 @@
         <v>0</v>
       </c>
       <c r="P447" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R447" t="inlineStr"/>
     </row>
@@ -32519,7 +32575,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448" t="n">
         <v>50</v>
@@ -32544,7 +32600,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -32563,19 +32619,15 @@
         </is>
       </c>
       <c r="O448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P448" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q448" t="n">
-        <v>1</v>
-      </c>
-      <c r="R448" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -32597,7 +32649,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F449" t="n">
         <v>62</v>
@@ -32622,7 +32674,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -32644,16 +32696,12 @@
         <v>0</v>
       </c>
       <c r="P449" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q449" t="n">
-        <v>0</v>
-      </c>
-      <c r="R449" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -32675,7 +32723,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450" t="n">
         <v>74</v>
@@ -32700,7 +32748,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Mexico', 'Germany', 'Sweden']</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -32722,16 +32770,12 @@
         <v>0</v>
       </c>
       <c r="P450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q450" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R450" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -32778,7 +32822,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Mexico', 'South Korea', 'Sweden']</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -32797,10 +32841,10 @@
         </is>
       </c>
       <c r="O451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q451" t="n">
         <v>0</v>
@@ -32852,7 +32896,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Mexico', 'South Korea', 'Sweden']</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -32874,10 +32918,10 @@
         <v>0</v>
       </c>
       <c r="P452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q452" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R452" t="inlineStr"/>
     </row>
@@ -32912,7 +32956,7 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -32982,7 +33026,7 @@
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -33004,10 +33048,10 @@
         <v>0</v>
       </c>
       <c r="P454" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q454" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R454" t="inlineStr"/>
     </row>
@@ -33056,7 +33100,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -33078,10 +33122,10 @@
         <v>0</v>
       </c>
       <c r="P455" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q455" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R455" t="inlineStr"/>
     </row>
@@ -33130,7 +33174,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -33152,7 +33196,7 @@
         <v>0</v>
       </c>
       <c r="P456" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33204,7 +33248,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -33278,7 +33322,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -33303,9 +33347,13 @@
         <v>2</v>
       </c>
       <c r="Q458" t="n">
-        <v>3</v>
-      </c>
-      <c r="R458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -33352,7 +33400,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -33374,10 +33422,10 @@
         <v>0</v>
       </c>
       <c r="P459" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q459" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R459" t="inlineStr"/>
     </row>
@@ -33426,7 +33474,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -33451,9 +33499,13 @@
         <v>2</v>
       </c>
       <c r="Q460" t="n">
-        <v>3</v>
-      </c>
-      <c r="R460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -33486,7 +33538,7 @@
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -33556,7 +33608,7 @@
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -33578,10 +33630,10 @@
         <v>0</v>
       </c>
       <c r="P462" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q462" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R462" t="inlineStr"/>
     </row>
@@ -33626,7 +33678,7 @@
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -33648,10 +33700,10 @@
         <v>0</v>
       </c>
       <c r="P463" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q463" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R463" t="inlineStr"/>
     </row>
@@ -33675,7 +33727,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>59</v>
@@ -33700,7 +33752,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -33719,13 +33771,13 @@
         </is>
       </c>
       <c r="O464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q464" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R464" t="inlineStr"/>
     </row>
@@ -33749,7 +33801,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="n">
         <v>74</v>
@@ -33774,7 +33826,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Senegal', 'Colombia', 'Japan']</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -33796,10 +33848,10 @@
         <v>0</v>
       </c>
       <c r="P465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q465" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R465" t="inlineStr"/>
     </row>
@@ -33834,7 +33886,7 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'Tunisia', 'England']</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -33904,7 +33956,7 @@
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'Tunisia', 'England']</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -33926,10 +33978,10 @@
         <v>0</v>
       </c>
       <c r="P467" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q467" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R467" t="inlineStr"/>
     </row>
@@ -33953,7 +34005,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" t="n">
         <v>33</v>
@@ -33978,7 +34030,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Panama', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -33997,13 +34049,13 @@
         </is>
       </c>
       <c r="O468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P468" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q468" t="n">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="R468" t="inlineStr"/>
     </row>
@@ -34027,7 +34079,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F469" t="n">
         <v>51</v>
@@ -34052,7 +34104,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Panama', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -34077,7 +34129,7 @@
         <v>3</v>
       </c>
       <c r="Q469" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="R469" t="inlineStr"/>
     </row>
@@ -34101,7 +34153,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F470" t="n">
         <v>51</v>
@@ -34126,7 +34178,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'Tunisia', 'England']</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -34145,13 +34197,13 @@
         </is>
       </c>
       <c r="O470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P470" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q470" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R470" t="inlineStr"/>
     </row>
@@ -34175,7 +34227,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F471" t="n">
         <v>66</v>
@@ -34200,7 +34252,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'Tunisia', 'England']</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -34225,7 +34277,7 @@
         <v>3</v>
       </c>
       <c r="Q471" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R471" t="inlineStr"/>
     </row>
@@ -34260,7 +34312,7 @@
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -34330,7 +34382,7 @@
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -34352,10 +34404,10 @@
         <v>0</v>
       </c>
       <c r="P473" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q473" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R473" t="inlineStr"/>
     </row>
@@ -34404,7 +34456,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -34426,10 +34478,10 @@
         <v>0</v>
       </c>
       <c r="P474" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q474" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R474" t="inlineStr"/>
     </row>
@@ -34453,7 +34505,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F475" t="n">
         <v>44</v>
@@ -34478,7 +34530,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -34497,13 +34549,13 @@
         </is>
       </c>
       <c r="O475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P475" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q475" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R475" t="inlineStr"/>
     </row>
@@ -34527,7 +34579,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F476" t="n">
         <v>49</v>
@@ -34552,7 +34604,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -34574,10 +34626,10 @@
         <v>0</v>
       </c>
       <c r="P476" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q476" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R476" t="inlineStr"/>
     </row>
@@ -34601,7 +34653,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F477" t="n">
         <v>67</v>
@@ -34626,7 +34678,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -34645,13 +34697,13 @@
         </is>
       </c>
       <c r="O477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P477" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q477" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R477" t="inlineStr"/>
     </row>
@@ -34675,7 +34727,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F478" t="n">
         <v>70</v>
@@ -34700,7 +34752,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -34719,13 +34771,13 @@
         </is>
       </c>
       <c r="O478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P478" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q478" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R478" t="inlineStr"/>
     </row>
@@ -34760,7 +34812,7 @@
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -34830,7 +34882,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -34855,7 +34907,7 @@
         <v>1</v>
       </c>
       <c r="Q480" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R480" t="inlineStr"/>
     </row>
@@ -34900,7 +34952,7 @@
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -34925,7 +34977,7 @@
         <v>1</v>
       </c>
       <c r="Q481" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R481" t="inlineStr"/>
     </row>
@@ -34949,7 +35001,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
         <v>38</v>
@@ -34974,7 +35026,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -34993,13 +35045,13 @@
         </is>
       </c>
       <c r="O482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q482" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R482" t="inlineStr"/>
     </row>
@@ -35023,7 +35075,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F483" t="n">
         <v>50</v>
@@ -35048,7 +35100,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -35073,7 +35125,7 @@
         <v>2</v>
       </c>
       <c r="Q483" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R483" t="inlineStr"/>
     </row>
@@ -35097,7 +35149,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F484" t="n">
         <v>51</v>
@@ -35122,7 +35174,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -35147,7 +35199,7 @@
         <v>2</v>
       </c>
       <c r="Q484" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R484" t="inlineStr"/>
     </row>
@@ -35171,7 +35223,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F485" t="n">
         <v>68</v>
@@ -35196,7 +35248,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Iran', 'United States', 'England']</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -35221,7 +35273,7 @@
         <v>2</v>
       </c>
       <c r="Q485" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R485" t="inlineStr"/>
     </row>
@@ -35256,7 +35308,7 @@
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -35326,7 +35378,7 @@
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -35348,16 +35400,12 @@
         <v>0</v>
       </c>
       <c r="P487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q487" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R487" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -35400,7 +35448,7 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Australia', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -35422,16 +35470,12 @@
         <v>0</v>
       </c>
       <c r="P488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q488" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R488" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -35478,7 +35522,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Australia', 'France', 'Tunisia']</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -35500,12 +35544,16 @@
         <v>1</v>
       </c>
       <c r="P489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q489" t="n">
-        <v>2</v>
-      </c>
-      <c r="R489" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -35527,7 +35575,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F490" t="n">
         <v>60</v>
@@ -35552,7 +35600,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Australia', 'France', 'Tunisia']</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -35571,13 +35619,13 @@
         </is>
       </c>
       <c r="O490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P490" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q490" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R490" t="inlineStr"/>
     </row>
@@ -35612,7 +35660,7 @@
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Saudi Arabia', 'Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -35682,7 +35730,7 @@
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Saudi Arabia', 'Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -35704,12 +35752,16 @@
         <v>0</v>
       </c>
       <c r="P492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q492" t="n">
-        <v>2</v>
-      </c>
-      <c r="R492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -35756,7 +35808,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia', 'Argentina']</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -35778,12 +35830,16 @@
         <v>0</v>
       </c>
       <c r="P493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q493" t="n">
-        <v>2</v>
-      </c>
-      <c r="R493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -35805,7 +35861,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F494" t="n">
         <v>47</v>
@@ -35830,7 +35886,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Mexico', 'Argentina']</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -35849,13 +35905,13 @@
         </is>
       </c>
       <c r="O494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R494" t="inlineStr"/>
     </row>
@@ -35879,7 +35935,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F495" t="n">
         <v>52</v>
@@ -35904,7 +35960,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Mexico', 'Argentina']</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -35926,10 +35982,10 @@
         <v>0</v>
       </c>
       <c r="P495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q495" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R495" t="inlineStr"/>
     </row>
@@ -35953,7 +36009,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="n">
         <v>67</v>
@@ -35978,7 +36034,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Mexico', 'Argentina']</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -36000,10 +36056,10 @@
         <v>0</v>
       </c>
       <c r="P496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q496" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R496" t="inlineStr"/>
     </row>
@@ -36027,7 +36083,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F497" t="n">
         <v>95</v>
@@ -36052,7 +36108,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Mexico', 'Argentina']</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -36074,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="P497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36112,7 +36168,7 @@
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -36182,7 +36238,7 @@
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -36204,7 +36260,7 @@
         <v>0</v>
       </c>
       <c r="P499" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36256,7 +36312,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Belgium', 'Croatia']</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -36278,7 +36334,7 @@
         <v>0</v>
       </c>
       <c r="P500" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q500" t="n">
         <v>4</v>
@@ -36330,7 +36386,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Belgium', 'Croatia']</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -36352,10 +36408,10 @@
         <v>0</v>
       </c>
       <c r="P501" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q501" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R501" t="inlineStr"/>
     </row>
@@ -36404,7 +36460,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Morocco', 'Belgium', 'Croatia']</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -36426,7 +36482,7 @@
         <v>0</v>
       </c>
       <c r="P502" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q502" t="n">
         <v>4</v>
@@ -36464,7 +36520,7 @@
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -36538,7 +36594,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -36560,10 +36616,10 @@
         <v>1</v>
       </c>
       <c r="P504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q504" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R504" t="inlineStr"/>
     </row>
@@ -36612,7 +36668,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -36634,10 +36690,10 @@
         <v>0</v>
       </c>
       <c r="P505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q505" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R505" t="inlineStr"/>
     </row>
@@ -36661,7 +36717,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F506" t="n">
         <v>48</v>
@@ -36686,7 +36742,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -36705,13 +36761,13 @@
         </is>
       </c>
       <c r="O506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q506" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R506" t="inlineStr"/>
     </row>
@@ -36735,7 +36791,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F507" t="n">
         <v>51</v>
@@ -36760,7 +36816,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -36782,10 +36838,10 @@
         <v>0</v>
       </c>
       <c r="P507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q507" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R507" t="inlineStr"/>
     </row>
@@ -36834,7 +36890,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -36853,15 +36909,19 @@
         </is>
       </c>
       <c r="O508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q508" t="n">
-        <v>12</v>
-      </c>
-      <c r="R508" t="inlineStr"/>
+        <v>-5</v>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -36883,7 +36943,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F509" t="n">
         <v>70</v>
@@ -36908,7 +36968,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Spain', 'Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -36927,13 +36987,13 @@
         </is>
       </c>
       <c r="O509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q509" t="n">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="R509" t="inlineStr"/>
     </row>
@@ -36957,7 +37017,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F510" t="n">
         <v>73</v>
@@ -36982,7 +37042,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -37001,15 +37061,19 @@
         </is>
       </c>
       <c r="O510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q510" t="n">
-        <v>12</v>
-      </c>
-      <c r="R510" t="inlineStr"/>
+        <v>-5</v>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -37031,7 +37095,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F511" t="n">
         <v>85</v>
@@ -37056,7 +37120,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -37075,13 +37139,13 @@
         </is>
       </c>
       <c r="O511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q511" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R511" t="inlineStr"/>
     </row>
@@ -37105,7 +37169,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F512" t="n">
         <v>89</v>
@@ -37130,7 +37194,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Spain', 'Germany', 'Japan']</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -37152,10 +37216,10 @@
         <v>0</v>
       </c>
       <c r="P512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q512" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R512" t="inlineStr"/>
     </row>
@@ -37190,7 +37254,7 @@
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -37260,7 +37324,7 @@
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -37282,16 +37346,12 @@
         <v>0</v>
       </c>
       <c r="P514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
       </c>
-      <c r="R514" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
+      <c r="R514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -37313,7 +37373,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F515" t="n">
         <v>5</v>
@@ -37338,7 +37398,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -37357,13 +37417,13 @@
         </is>
       </c>
       <c r="O515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R515" t="inlineStr"/>
     </row>
@@ -37412,7 +37472,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -37431,13 +37491,13 @@
         </is>
       </c>
       <c r="O516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R516" t="inlineStr"/>
     </row>
@@ -37486,7 +37546,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -37560,7 +37620,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Ghana', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -37585,7 +37645,7 @@
         <v>1</v>
       </c>
       <c r="Q518" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R518" t="inlineStr"/>
     </row>
@@ -37634,7 +37694,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -37656,10 +37716,10 @@
         <v>1</v>
       </c>
       <c r="P519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R519" t="inlineStr"/>
     </row>
@@ -37694,7 +37754,7 @@
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -37764,7 +37824,7 @@
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -37786,16 +37846,12 @@
         <v>0</v>
       </c>
       <c r="P521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
       </c>
-      <c r="R521" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
+      <c r="R521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -37842,7 +37898,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -37864,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="P522" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q522" t="n">
         <v>2</v>
@@ -37916,7 +37972,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -37938,16 +37994,12 @@
         <v>0</v>
       </c>
       <c r="P523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
       </c>
-      <c r="R523" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
+      <c r="R523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -37994,7 +38046,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Switzerland', 'Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -38068,7 +38120,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -38090,16 +38142,12 @@
         <v>1</v>
       </c>
       <c r="P525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
       </c>
-      <c r="R525" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
+      <c r="R525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -38146,7 +38194,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -38168,7 +38216,7 @@
         <v>0</v>
       </c>
       <c r="P526" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q526" t="n">
         <v>2</v>
@@ -38220,7 +38268,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -38242,10 +38290,10 @@
         <v>0</v>
       </c>
       <c r="P527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q527" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R527" t="inlineStr"/>
     </row>

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1774,7 +1774,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1844,7 +1844,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2938,7 +2938,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3008,7 +3008,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3082,7 +3082,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5904,7 +5904,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6186,7 +6186,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7894,7 +7894,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9984,7 +9984,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10054,7 +10054,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10558,7 +10558,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12514,7 +12514,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12584,7 +12584,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12654,7 +12654,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14510,7 +14510,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -14580,7 +14580,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -14654,7 +14654,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14880,7 +14880,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15366,7 +15366,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15884,7 +15884,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17314,7 +17314,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17384,7 +17384,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17532,7 +17532,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17902,7 +17902,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17962,7 +17962,7 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18032,7 +18032,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18180,7 +18180,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -19610,7 +19610,7 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19758,7 +19758,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19984,7 +19984,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -20544,7 +20544,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20614,7 +20614,7 @@
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -21044,7 +21044,7 @@
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21722,7 +21722,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21786,7 +21786,7 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21856,7 +21856,7 @@
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21926,7 +21926,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -22000,7 +22000,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22638,7 +22638,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22708,7 +22708,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -22782,7 +22782,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -23004,7 +23004,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -23642,7 +23642,7 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -23712,7 +23712,7 @@
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -23782,7 +23782,7 @@
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -24416,7 +24416,7 @@
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -24486,7 +24486,7 @@
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -24560,7 +24560,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -24634,7 +24634,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -24708,7 +24708,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -24916,7 +24916,7 @@
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -25138,7 +25138,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -25212,7 +25212,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -25286,7 +25286,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -25494,7 +25494,7 @@
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -25564,7 +25564,7 @@
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -25634,7 +25634,7 @@
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -25708,7 +25708,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -25782,7 +25782,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -26060,7 +26060,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -26216,7 +26216,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -26850,7 +26850,7 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -27220,7 +27220,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -27576,7 +27576,7 @@
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -27872,7 +27872,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -28368,7 +28368,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -30240,7 +30240,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -30448,7 +30448,7 @@
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -30518,7 +30518,7 @@
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -30666,7 +30666,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -30740,7 +30740,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -30814,7 +30814,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -30888,7 +30888,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>['Russia', 'Egypt', 'Uruguay']</t>
+          <t>['Uruguay', 'Egypt', 'Russia']</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -30962,7 +30962,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>['Russia', 'Saudi Arabia', 'Uruguay']</t>
+          <t>['Uruguay', 'Saudi Arabia', 'Russia']</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -31022,7 +31022,7 @@
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -31096,7 +31096,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -31170,7 +31170,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -31244,7 +31244,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>['Spain', 'Morocco', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Morocco']</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>['Spain', 'Iran', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'Iran']</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -31534,7 +31534,7 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -31604,7 +31604,7 @@
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -31674,7 +31674,7 @@
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -31748,7 +31748,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>['France', 'Peru', 'Denmark']</t>
+          <t>['Peru', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -31822,7 +31822,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>['France', 'Peru', 'Denmark']</t>
+          <t>['Peru', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -32386,7 +32386,7 @@
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -32456,7 +32456,7 @@
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -32526,7 +32526,7 @@
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -32600,7 +32600,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Sweden', 'Germany']</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -32674,7 +32674,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Sweden', 'Germany']</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -32748,7 +32748,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Sweden', 'Germany']</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -32822,7 +32822,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Mexico', 'Sweden', 'South Korea']</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -32896,7 +32896,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Mexico', 'Sweden', 'South Korea']</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -32956,7 +32956,7 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -33026,7 +33026,7 @@
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -33100,7 +33100,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland', 'Serbia']</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -33174,7 +33174,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -33248,7 +33248,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -33322,7 +33322,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia', 'Switzerland']</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -33538,7 +33538,7 @@
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia', 'Japan']</t>
+          <t>['Senegal', 'Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -33608,7 +33608,7 @@
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia', 'Japan']</t>
+          <t>['Senegal', 'Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -33678,7 +33678,7 @@
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia', 'Japan']</t>
+          <t>['Senegal', 'Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -33752,7 +33752,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia', 'Japan']</t>
+          <t>['Senegal', 'Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia', 'Japan']</t>
+          <t>['Senegal', 'Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -33886,7 +33886,7 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Tunisia', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -33956,7 +33956,7 @@
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Tunisia', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -34030,7 +34030,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>['Panama', 'Belgium', 'England']</t>
+          <t>['Belgium', 'England', 'Panama']</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -34104,7 +34104,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>['Panama', 'Belgium', 'England']</t>
+          <t>['Belgium', 'England', 'Panama']</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Tunisia', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -34252,7 +34252,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>['Belgium', 'Tunisia', 'England']</t>
+          <t>['Tunisia', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -34312,7 +34312,7 @@
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -34382,7 +34382,7 @@
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -34456,7 +34456,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -34530,7 +34530,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -34604,7 +34604,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -34678,7 +34678,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -34752,7 +34752,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -34812,7 +34812,7 @@
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['United States', 'Iran', 'England']</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -34882,7 +34882,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['United States', 'Iran', 'England']</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -34952,7 +34952,7 @@
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['United States', 'Iran', 'England']</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -35308,7 +35308,7 @@
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -35378,7 +35378,7 @@
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -35448,7 +35448,7 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['Denmark', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -35522,7 +35522,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['Tunisia', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -35600,7 +35600,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['Tunisia', 'France', 'Australia']</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -35660,7 +35660,7 @@
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Argentina', 'Poland']</t>
+          <t>['Argentina', 'Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -35730,7 +35730,7 @@
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Argentina', 'Poland']</t>
+          <t>['Argentina', 'Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -36312,7 +36312,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>['Morocco', 'Belgium', 'Croatia']</t>
+          <t>['Croatia', 'Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -36386,7 +36386,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>['Morocco', 'Belgium', 'Croatia']</t>
+          <t>['Croatia', 'Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>['Morocco', 'Belgium', 'Croatia']</t>
+          <t>['Croatia', 'Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -36520,7 +36520,7 @@
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -36594,7 +36594,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -36668,7 +36668,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -36742,7 +36742,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -36816,7 +36816,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -36890,7 +36890,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -36968,7 +36968,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -37042,7 +37042,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -37120,7 +37120,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -37194,7 +37194,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'Japan']</t>
+          <t>['Japan', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -37254,7 +37254,7 @@
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Portugal', 'Ghana', 'South Korea']</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -37324,7 +37324,7 @@
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Portugal', 'Ghana', 'South Korea']</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -37398,7 +37398,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay', 'Ghana']</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -37472,7 +37472,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay', 'Ghana']</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -37546,7 +37546,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay', 'Ghana']</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -37620,7 +37620,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay', 'Ghana']</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -37694,7 +37694,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay', 'South Korea']</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -37754,7 +37754,7 @@
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -37824,7 +37824,7 @@
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -37898,7 +37898,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -37972,7 +37972,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -38120,7 +38120,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -38194,7 +38194,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Switzerland', 'Cameroon']</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1442,16 +1442,12 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
@@ -1515,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1534,10 +1530,10 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
@@ -1603,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1622,16 +1618,12 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
@@ -1695,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1714,16 +1706,12 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
@@ -1787,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1806,10 +1794,10 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
@@ -1875,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1894,16 +1882,12 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
@@ -1953,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2033,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2052,12 +2036,16 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
@@ -2117,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2136,12 +2124,16 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
@@ -2205,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2224,10 +2216,10 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
@@ -2293,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2312,10 +2304,10 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
@@ -2381,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2400,10 +2392,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
@@ -2469,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2488,10 +2480,10 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
@@ -2557,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2576,10 +2568,10 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
@@ -2631,7 +2623,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2703,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2730,16 +2722,12 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
@@ -2799,7 +2787,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2818,16 +2806,12 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
@@ -2891,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2915,11 +2899,7 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
@@ -2983,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3002,10 +2982,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
@@ -3071,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3090,10 +3070,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
@@ -3159,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3178,10 +3158,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
@@ -3247,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3266,10 +3246,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
@@ -3335,7 +3315,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3354,10 +3334,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
@@ -3409,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3489,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3508,10 +3488,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
@@ -3573,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3592,10 +3572,10 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
@@ -3661,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3683,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
@@ -3749,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3771,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
@@ -3823,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3903,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3922,10 +3902,10 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
@@ -3991,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4079,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4101,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
@@ -4167,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4186,10 +4166,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
@@ -4255,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4274,10 +4254,10 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
@@ -4343,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4362,10 +4342,10 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
@@ -4431,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4450,10 +4430,10 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
@@ -4519,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4538,10 +4518,10 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
@@ -4593,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4677,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4696,10 +4676,10 @@
         </is>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>3</v>
-      </c>
-      <c r="O50" t="n">
-        <v>6</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
@@ -4765,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4853,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4875,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
@@ -4941,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4963,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
@@ -5029,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5051,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
@@ -5103,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5187,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5206,10 +5186,10 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
@@ -5275,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5294,10 +5274,10 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
@@ -5363,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5382,10 +5362,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
@@ -5451,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5470,10 +5450,10 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
@@ -5539,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5558,10 +5538,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
@@ -5627,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5646,10 +5626,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="n">
@@ -5701,7 +5681,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5785,7 +5765,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5804,10 +5784,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
@@ -5873,7 +5853,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5892,10 +5872,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
@@ -5961,7 +5941,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6049,7 +6029,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6123,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6207,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6226,16 +6206,12 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
         <v>1</v>
       </c>
@@ -6299,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6318,16 +6294,12 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
         <v>1</v>
       </c>
@@ -6391,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6410,16 +6382,12 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
         <v>1</v>
       </c>
@@ -6483,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6502,16 +6470,12 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
         <v>1</v>
       </c>
@@ -6575,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6597,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
@@ -6663,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6685,7 +6649,7 @@
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
@@ -6751,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6770,16 +6734,12 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +6789,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6913,7 +6873,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6932,10 +6892,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
@@ -7001,7 +6961,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7020,10 +6980,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
@@ -7089,7 +7049,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7108,10 +7068,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="n">
@@ -7177,7 +7137,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7196,7 +7156,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" t="n">
         <v>4</v>
@@ -7251,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7266,7 +7226,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -7281,7 +7241,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -7320,7 +7280,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -7335,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7354,10 +7314,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
@@ -7374,7 +7334,9 @@
       <c r="T81" t="n">
         <v>1</v>
       </c>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>1892</v>
+      </c>
       <c r="V81" t="n">
         <v>2033</v>
       </c>
@@ -7421,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7440,10 +7402,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
@@ -7494,7 +7456,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -7504,12 +7466,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7519,7 +7481,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7528,10 +7490,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
@@ -7539,7 +7501,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland']</t>
+          <t>['England', 'Ireland']</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7548,7 +7510,9 @@
       <c r="T83" t="n">
         <v>3</v>
       </c>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="n">
+        <v>1892</v>
+      </c>
       <c r="V83" t="n">
         <v>2033</v>
       </c>
@@ -7581,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7661,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7680,7 +7644,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85" t="n">
         <v>2</v>
@@ -7745,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7764,7 +7728,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
@@ -7833,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7852,7 +7816,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87" t="n">
         <v>3</v>
@@ -7921,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7940,7 +7904,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
@@ -8009,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8028,7 +7992,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
@@ -8083,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8167,7 +8131,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8189,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
@@ -8255,7 +8219,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8274,10 +8238,10 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="n">
@@ -8343,7 +8307,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8362,10 +8326,10 @@
         </is>
       </c>
       <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="n">
         <v>3</v>
-      </c>
-      <c r="O93" t="n">
-        <v>6</v>
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
@@ -8431,7 +8395,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8450,7 +8414,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O94" t="n">
         <v>5</v>
@@ -8519,7 +8483,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8538,10 +8502,10 @@
         </is>
       </c>
       <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
         <v>3</v>
-      </c>
-      <c r="O95" t="n">
-        <v>6</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
@@ -8607,7 +8571,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8629,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="n">
@@ -8695,7 +8659,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8717,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="n">
@@ -8783,7 +8747,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8805,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
@@ -8871,7 +8835,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8893,7 +8857,7 @@
         <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
@@ -8945,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9029,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9048,10 +9012,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="n">
@@ -9117,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9136,10 +9100,10 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="n">
@@ -9205,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9224,10 +9188,10 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
@@ -9293,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9312,10 +9276,10 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
@@ -9381,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9400,10 +9364,10 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
@@ -9469,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9488,10 +9452,10 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="n">
@@ -9557,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9576,10 +9540,10 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
@@ -9645,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9664,10 +9628,10 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="n">
@@ -9733,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9752,10 +9716,10 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="n">
@@ -9807,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9887,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9906,10 +9870,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
@@ -9971,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -9990,10 +9954,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
@@ -10059,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10078,10 +10042,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
@@ -10147,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10166,10 +10130,10 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
@@ -10235,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10254,10 +10218,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
@@ -10323,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10342,10 +10306,10 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
@@ -10397,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10407,7 +10371,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -10427,7 +10391,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -10466,7 +10430,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -10477,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10487,7 +10451,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -10507,7 +10471,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S118" t="n">
@@ -10516,7 +10480,9 @@
       <c r="T118" t="n">
         <v>0</v>
       </c>
-      <c r="U118" t="inlineStr"/>
+      <c r="U118" t="n">
+        <v>1863</v>
+      </c>
       <c r="V118" t="n">
         <v>1852</v>
       </c>
@@ -10563,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10573,7 +10539,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -10582,10 +10548,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
@@ -10593,7 +10559,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Norway']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -10651,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10661,7 +10627,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -10681,7 +10647,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S120" t="n">
@@ -10725,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10805,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10824,10 +10790,10 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
@@ -10893,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10912,16 +10878,12 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
         <v>1</v>
       </c>
@@ -10985,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11004,10 +10966,10 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
@@ -11073,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11092,16 +11054,12 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
         <v>1</v>
       </c>
@@ -11165,7 +11123,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11184,10 +11142,10 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
@@ -11239,7 +11197,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11319,7 +11277,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11847,7 +11805,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11921,7 +11879,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12005,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12097,7 +12055,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12185,7 +12143,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12273,7 +12231,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12361,7 +12319,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -14159,7 +14117,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14243,7 +14201,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14331,7 +14289,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14419,7 +14377,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14507,7 +14465,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14595,7 +14553,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14683,7 +14641,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14757,7 +14715,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14767,7 +14725,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -14787,7 +14745,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S168" t="n">
@@ -14837,7 +14795,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14847,7 +14805,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -14867,7 +14825,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S169" t="n">
@@ -14915,13 +14873,13 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14931,7 +14889,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -14951,7 +14909,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S170" t="n">
@@ -14963,7 +14921,9 @@
       <c r="U170" t="n">
         <v>1760</v>
       </c>
-      <c r="V170" t="inlineStr"/>
+      <c r="V170" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14997,22 +14957,22 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -15037,7 +14997,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="S171" t="n">
@@ -15049,7 +15009,9 @@
       <c r="U171" t="n">
         <v>1760</v>
       </c>
-      <c r="V171" t="inlineStr"/>
+      <c r="V171" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15093,7 +15055,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15103,7 +15065,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -15123,7 +15085,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S172" t="n">
@@ -15181,7 +15143,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15191,7 +15153,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -15211,7 +15173,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S173" t="n">
@@ -15255,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15335,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15423,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15511,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15599,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15687,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15761,7 +15723,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15841,7 +15803,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15929,7 +15891,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16017,7 +15979,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16105,7 +16067,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16193,7 +16155,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16435,7 +16397,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16611,7 +16573,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16699,7 +16661,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16787,7 +16749,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16875,7 +16837,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17987,7 +17949,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18067,7 +18029,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18155,7 +18117,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18243,7 +18205,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18683,7 +18645,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -19021,7 +18983,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19101,7 +19063,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19453,7 +19415,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19541,7 +19503,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19615,7 +19577,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19630,7 +19592,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N225" t="n">
@@ -19695,7 +19657,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19710,7 +19672,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N226" t="n">
@@ -19721,7 +19683,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="Q226" t="n">
@@ -19777,13 +19739,13 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19798,7 +19760,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N227" t="n">
@@ -19809,7 +19771,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="Q227" t="n">
@@ -19829,7 +19791,9 @@
       <c r="U227" t="n">
         <v>1703</v>
       </c>
-      <c r="V227" t="inlineStr"/>
+      <c r="V227" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19863,22 +19827,22 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -19903,7 +19867,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -19915,7 +19879,9 @@
       <c r="U228" t="n">
         <v>1703</v>
       </c>
-      <c r="V228" t="inlineStr"/>
+      <c r="V228" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -19959,7 +19925,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19969,7 +19935,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -19989,7 +19955,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S229" t="n">
@@ -20037,17 +20003,17 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20057,7 +20023,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -20077,7 +20043,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S230" t="n">
@@ -20089,7 +20055,9 @@
       <c r="U230" t="n">
         <v>1703</v>
       </c>
-      <c r="V230" t="inlineStr"/>
+      <c r="V230" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -20133,7 +20101,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20143,7 +20111,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -20163,7 +20131,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S231" t="n">
@@ -20211,17 +20179,17 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20231,7 +20199,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -20251,7 +20219,7 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="S232" t="n">
@@ -20263,7 +20231,9 @@
       <c r="U232" t="n">
         <v>1703</v>
       </c>
-      <c r="V232" t="inlineStr"/>
+      <c r="V232" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -20293,7 +20263,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20373,7 +20343,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20461,7 +20431,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20549,7 +20519,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20623,7 +20593,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20703,7 +20673,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20791,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20879,7 +20849,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20967,7 +20937,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21041,7 +21011,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21121,7 +21091,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21209,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21385,7 +21355,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21473,7 +21443,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21811,7 +21781,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21891,7 +21861,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21979,7 +21949,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22067,7 +22037,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22155,7 +22125,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22243,7 +22213,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22331,7 +22301,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22419,7 +22389,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22493,7 +22463,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22573,7 +22543,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22661,7 +22631,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22749,7 +22719,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22837,7 +22807,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22925,7 +22895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23013,7 +22983,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23101,7 +23071,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23175,7 +23145,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23255,7 +23225,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23343,7 +23313,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23431,7 +23401,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23519,7 +23489,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23607,7 +23577,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23695,7 +23665,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23769,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23853,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23941,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24033,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24121,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24209,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24283,7 +24253,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24363,7 +24333,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -25755,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25835,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25923,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26015,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26353,7 +26323,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26433,7 +26403,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26517,7 +26487,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26605,7 +26575,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26693,7 +26663,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -28211,7 +28181,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28541,7 +28511,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28629,7 +28599,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28717,7 +28687,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28805,7 +28775,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28879,7 +28849,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28963,7 +28933,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29051,7 +29021,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29109,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29227,7 +29197,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29315,7 +29285,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29403,7 +29373,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29491,7 +29461,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29565,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29645,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29733,7 +29703,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29821,7 +29791,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29909,7 +29879,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29997,7 +29967,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30085,7 +30055,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -31953,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32033,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32117,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32205,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32293,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32381,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32469,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32557,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -35111,7 +35081,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35191,7 +35161,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35279,7 +35249,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35367,7 +35337,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35455,7 +35425,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35547,7 +35517,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35621,7 +35591,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35701,7 +35671,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35789,7 +35759,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35877,7 +35847,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35965,7 +35935,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36039,7 +36009,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36119,7 +36089,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36138,10 +36108,10 @@
         </is>
       </c>
       <c r="N419" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O419" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P419" t="inlineStr"/>
       <c r="Q419" t="n">
@@ -36207,7 +36177,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36226,10 +36196,10 @@
         </is>
       </c>
       <c r="N420" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O420" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P420" t="inlineStr"/>
       <c r="Q420" t="n">
@@ -36295,7 +36265,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36317,7 +36287,7 @@
         <v>3</v>
       </c>
       <c r="O421" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P421" t="inlineStr"/>
       <c r="Q421" t="n">
@@ -36383,7 +36353,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36405,7 +36375,7 @@
         <v>3</v>
       </c>
       <c r="O422" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="n">
@@ -36471,7 +36441,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36490,10 +36460,10 @@
         </is>
       </c>
       <c r="N423" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O423" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="n">
@@ -36559,7 +36529,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36578,10 +36548,10 @@
         </is>
       </c>
       <c r="N424" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O424" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="n">
@@ -36647,7 +36617,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Russia', 'Uruguay']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36669,7 +36639,7 @@
         <v>3</v>
       </c>
       <c r="O425" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="n">
@@ -36721,7 +36691,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36805,7 +36775,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36824,10 +36794,10 @@
         </is>
       </c>
       <c r="N427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P427" t="inlineStr"/>
       <c r="Q427" t="n">
@@ -36893,7 +36863,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36912,10 +36882,10 @@
         </is>
       </c>
       <c r="N428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P428" t="inlineStr"/>
       <c r="Q428" t="n">
@@ -36981,7 +36951,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37003,13 +36973,9 @@
         <v>2</v>
       </c>
       <c r="O429" t="n">
-        <v>1</v>
-      </c>
-      <c r="P429" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P429" t="inlineStr"/>
       <c r="Q429" t="n">
         <v>0</v>
       </c>
@@ -37073,7 +37039,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37092,10 +37058,10 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P430" t="inlineStr"/>
       <c r="Q430" t="n">
@@ -37161,7 +37127,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37183,13 +37149,9 @@
         <v>2</v>
       </c>
       <c r="O431" t="n">
-        <v>1</v>
-      </c>
-      <c r="P431" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P431" t="inlineStr"/>
       <c r="Q431" t="n">
         <v>0</v>
       </c>
@@ -37253,7 +37215,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Iran', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37272,10 +37234,10 @@
         </is>
       </c>
       <c r="N432" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="n">
@@ -37327,7 +37289,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Australia']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37407,7 +37369,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Australia']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37426,10 +37388,10 @@
         </is>
       </c>
       <c r="N434" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="n">
@@ -37491,7 +37453,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Australia']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37510,10 +37472,10 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="n">
@@ -37579,7 +37541,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Peru']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37601,7 +37563,7 @@
         <v>2</v>
       </c>
       <c r="O436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="n">
@@ -37667,7 +37629,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Peru']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37689,7 +37651,7 @@
         <v>2</v>
       </c>
       <c r="O437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="n">
@@ -37741,7 +37703,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Iceland', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37825,7 +37787,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37847,7 +37809,7 @@
         <v>1</v>
       </c>
       <c r="O439" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="n">
@@ -37913,7 +37875,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Iceland', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37932,10 +37894,10 @@
         </is>
       </c>
       <c r="N440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P440" t="inlineStr"/>
       <c r="Q440" t="n">
@@ -38001,7 +37963,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38020,10 +37982,10 @@
         </is>
       </c>
       <c r="N441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O441" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P441" t="inlineStr"/>
       <c r="Q441" t="n">
@@ -38089,7 +38051,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Iceland', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38108,10 +38070,10 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="n">
@@ -38177,7 +38139,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38199,7 +38161,7 @@
         <v>1</v>
       </c>
       <c r="O443" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P443" t="inlineStr"/>
       <c r="Q443" t="n">
@@ -38265,7 +38227,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38284,10 +38246,10 @@
         </is>
       </c>
       <c r="N444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O444" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P444" t="inlineStr"/>
       <c r="Q444" t="n">
@@ -38339,7 +38301,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38381,7 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38438,10 +38400,10 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P446" t="inlineStr"/>
       <c r="Q446" t="n">
@@ -38507,7 +38469,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38526,10 +38488,10 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O447" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="n">
@@ -38595,7 +38557,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38614,7 +38576,7 @@
         </is>
       </c>
       <c r="N448" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O448" t="n">
         <v>3</v>
@@ -38683,7 +38645,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38771,7 +38733,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38793,13 +38755,9 @@
         <v>2</v>
       </c>
       <c r="O450" t="n">
-        <v>1</v>
-      </c>
-      <c r="P450" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P450" t="inlineStr"/>
       <c r="Q450" t="n">
         <v>0</v>
       </c>
@@ -38863,7 +38821,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38882,10 +38840,10 @@
         </is>
       </c>
       <c r="N451" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O451" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="n">
@@ -38951,7 +38909,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38973,13 +38931,9 @@
         <v>2</v>
       </c>
       <c r="O452" t="n">
-        <v>1</v>
-      </c>
-      <c r="P452" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P452" t="inlineStr"/>
       <c r="Q452" t="n">
         <v>0</v>
       </c>
@@ -39029,7 +38983,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39109,7 +39063,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39128,10 +39082,10 @@
         </is>
       </c>
       <c r="N454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P454" t="inlineStr"/>
       <c r="Q454" t="n">
@@ -39193,7 +39147,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39212,10 +39166,10 @@
         </is>
       </c>
       <c r="N455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P455" t="inlineStr"/>
       <c r="Q455" t="n">
@@ -39281,7 +39235,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39300,12 +39254,16 @@
         </is>
       </c>
       <c r="N456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O456" t="n">
-        <v>2</v>
-      </c>
-      <c r="P456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="Q456" t="n">
         <v>0</v>
       </c>
@@ -39369,7 +39327,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39388,12 +39346,16 @@
         </is>
       </c>
       <c r="N457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O457" t="n">
-        <v>2</v>
-      </c>
-      <c r="P457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="Q457" t="n">
         <v>0</v>
       </c>
@@ -39457,7 +39419,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39476,12 +39438,16 @@
         </is>
       </c>
       <c r="N458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O458" t="n">
-        <v>2</v>
-      </c>
-      <c r="P458" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="Q458" t="n">
         <v>0</v>
       </c>
@@ -39545,7 +39511,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39564,7 +39530,7 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O459" t="n">
         <v>0</v>
@@ -39633,7 +39599,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Mexico', 'South Korea', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39652,10 +39618,10 @@
         </is>
       </c>
       <c r="N460" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O460" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="n">
@@ -39707,7 +39673,7 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39787,7 +39753,7 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39806,10 +39772,10 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O462" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P462" t="inlineStr"/>
       <c r="Q462" t="n">
@@ -39875,7 +39841,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['England', 'Panama', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39894,10 +39860,10 @@
         </is>
       </c>
       <c r="N463" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O463" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="P463" t="inlineStr"/>
       <c r="Q463" t="n">
@@ -39963,7 +39929,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['England', 'Panama', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -39985,7 +39951,7 @@
         <v>3</v>
       </c>
       <c r="O464" t="n">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="n">
@@ -40051,7 +40017,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40070,10 +40036,10 @@
         </is>
       </c>
       <c r="N465" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O465" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P465" t="inlineStr"/>
       <c r="Q465" t="n">
@@ -40139,7 +40105,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40161,7 +40127,7 @@
         <v>3</v>
       </c>
       <c r="O466" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="n">
@@ -40213,7 +40179,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40293,7 +40259,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40312,10 +40278,10 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O468" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="n">
@@ -40377,7 +40343,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40396,10 +40362,10 @@
         </is>
       </c>
       <c r="N469" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O469" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="n">
@@ -40465,7 +40431,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40484,10 +40450,10 @@
         </is>
       </c>
       <c r="N470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P470" t="inlineStr"/>
       <c r="Q470" t="n">
@@ -40553,7 +40519,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal', 'Japan']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40572,10 +40538,10 @@
         </is>
       </c>
       <c r="N471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P471" t="inlineStr"/>
       <c r="Q471" t="n">
@@ -40627,7 +40593,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40707,7 +40673,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40726,10 +40692,10 @@
         </is>
       </c>
       <c r="N473" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O473" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P473" t="inlineStr"/>
       <c r="Q473" t="n">
@@ -40795,7 +40761,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40814,10 +40780,10 @@
         </is>
       </c>
       <c r="N474" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P474" t="inlineStr"/>
       <c r="Q474" t="n">
@@ -40883,7 +40849,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40902,10 +40868,10 @@
         </is>
       </c>
       <c r="N475" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O475" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P475" t="inlineStr"/>
       <c r="Q475" t="n">
@@ -40971,7 +40937,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -40990,10 +40956,10 @@
         </is>
       </c>
       <c r="N476" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O476" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="n">
@@ -41059,7 +41025,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41078,10 +41044,10 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O477" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="n">
@@ -41147,7 +41113,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41166,10 +41132,10 @@
         </is>
       </c>
       <c r="N478" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O478" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="n">
@@ -41221,7 +41187,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41301,7 +41267,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41323,7 +41289,7 @@
         <v>1</v>
       </c>
       <c r="O480" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="n">
@@ -41385,7 +41351,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41407,7 +41373,7 @@
         <v>1</v>
       </c>
       <c r="O481" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="n">
@@ -41473,7 +41439,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41492,10 +41458,10 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O482" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="n">
@@ -41561,7 +41527,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41583,7 +41549,7 @@
         <v>2</v>
       </c>
       <c r="O483" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="n">
@@ -41649,7 +41615,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41671,7 +41637,7 @@
         <v>2</v>
       </c>
       <c r="O484" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="n">
@@ -41737,7 +41703,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['England', 'Iran', 'United States']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41759,7 +41725,7 @@
         <v>2</v>
       </c>
       <c r="O485" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="n">
@@ -41811,7 +41777,7 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41891,7 +41857,7 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41910,16 +41876,12 @@
         </is>
       </c>
       <c r="N487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O487" t="n">
-        <v>1</v>
-      </c>
-      <c r="P487" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P487" t="inlineStr"/>
       <c r="Q487" t="n">
         <v>0</v>
       </c>
@@ -41983,7 +41945,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42002,16 +41964,12 @@
         </is>
       </c>
       <c r="N488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O488" t="n">
-        <v>1</v>
-      </c>
-      <c r="P488" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P488" t="inlineStr"/>
       <c r="Q488" t="n">
         <v>0</v>
       </c>
@@ -42075,7 +42033,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42094,10 +42052,10 @@
         </is>
       </c>
       <c r="N489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="n">
@@ -42163,7 +42121,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42182,10 +42140,10 @@
         </is>
       </c>
       <c r="N490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O490" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="n">
@@ -42251,7 +42209,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42270,10 +42228,10 @@
         </is>
       </c>
       <c r="N491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="n">
@@ -42339,7 +42297,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42358,7 +42316,7 @@
         </is>
       </c>
       <c r="N492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O492" t="n">
         <v>1</v>
@@ -42413,7 +42371,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42493,7 +42451,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42512,12 +42470,16 @@
         </is>
       </c>
       <c r="N494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O494" t="n">
-        <v>0</v>
-      </c>
-      <c r="P494" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="Q494" t="n">
         <v>0</v>
       </c>
@@ -42577,7 +42539,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Denmark']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42596,12 +42558,16 @@
         </is>
       </c>
       <c r="N495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O495" t="n">
-        <v>0</v>
-      </c>
-      <c r="P495" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="Q495" t="n">
         <v>0</v>
       </c>
@@ -42665,7 +42631,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42684,16 +42650,12 @@
         </is>
       </c>
       <c r="N496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O496" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P496" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P496" t="inlineStr"/>
       <c r="Q496" t="n">
         <v>0</v>
       </c>
@@ -42757,7 +42719,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Australia', 'France', 'Tunisia']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42776,10 +42738,10 @@
         </is>
       </c>
       <c r="N497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O497" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="n">
@@ -42831,7 +42793,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42915,7 +42877,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42934,10 +42896,10 @@
         </is>
       </c>
       <c r="N499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O499" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="n">
@@ -43003,7 +42965,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43022,10 +42984,10 @@
         </is>
       </c>
       <c r="N500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O500" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P500" t="inlineStr"/>
       <c r="Q500" t="n">
@@ -43091,7 +43053,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43110,10 +43072,10 @@
         </is>
       </c>
       <c r="N501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O501" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P501" t="inlineStr"/>
       <c r="Q501" t="n">
@@ -43179,7 +43141,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43198,10 +43160,10 @@
         </is>
       </c>
       <c r="N502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O502" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P502" t="inlineStr"/>
       <c r="Q502" t="n">
@@ -43267,7 +43229,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43286,16 +43248,12 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O503" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P503" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P503" t="inlineStr"/>
       <c r="Q503" t="n">
         <v>0</v>
       </c>
@@ -43359,7 +43317,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43378,10 +43336,10 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O504" t="n">
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="n">
@@ -43447,7 +43405,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43466,16 +43424,12 @@
         </is>
       </c>
       <c r="N505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O505" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P505" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P505" t="inlineStr"/>
       <c r="Q505" t="n">
         <v>0</v>
       </c>
@@ -43539,7 +43493,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43558,10 +43512,10 @@
         </is>
       </c>
       <c r="N506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O506" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="n">
@@ -43627,7 +43581,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43646,10 +43600,10 @@
         </is>
       </c>
       <c r="N507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O507" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P507" t="inlineStr"/>
       <c r="Q507" t="n">
@@ -43701,7 +43655,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia', 'Belgium']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43781,7 +43735,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia', 'Belgium']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43800,7 +43754,7 @@
         </is>
       </c>
       <c r="N509" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O509" t="n">
         <v>3</v>
@@ -43869,7 +43823,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43888,7 +43842,7 @@
         </is>
       </c>
       <c r="N510" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O510" t="n">
         <v>4</v>
@@ -43957,7 +43911,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -43976,10 +43930,10 @@
         </is>
       </c>
       <c r="N511" t="n">
+        <v>1</v>
+      </c>
+      <c r="O511" t="n">
         <v>4</v>
-      </c>
-      <c r="O511" t="n">
-        <v>5</v>
       </c>
       <c r="P511" t="inlineStr"/>
       <c r="Q511" t="n">
@@ -44045,7 +43999,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44064,7 +44018,7 @@
         </is>
       </c>
       <c r="N512" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O512" t="n">
         <v>4</v>
@@ -44119,7 +44073,7 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44199,7 +44153,7 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44218,12 +44172,16 @@
         </is>
       </c>
       <c r="N514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O514" t="n">
         <v>1</v>
       </c>
-      <c r="P514" t="inlineStr"/>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
       <c r="Q514" t="n">
         <v>0</v>
       </c>
@@ -44287,7 +44245,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44306,7 +44264,7 @@
         </is>
       </c>
       <c r="N515" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O515" t="n">
         <v>2</v>
@@ -44375,7 +44333,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44394,12 +44352,16 @@
         </is>
       </c>
       <c r="N516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O516" t="n">
         <v>1</v>
       </c>
-      <c r="P516" t="inlineStr"/>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
       <c r="Q516" t="n">
         <v>0</v>
       </c>
@@ -44463,7 +44425,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Serbia', 'Switzerland', 'Brazil']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44551,7 +44513,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44570,12 +44532,16 @@
         </is>
       </c>
       <c r="N518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O518" t="n">
         <v>1</v>
       </c>
-      <c r="P518" t="inlineStr"/>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
       <c r="Q518" t="n">
         <v>0</v>
       </c>
@@ -44639,7 +44605,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44658,7 +44624,7 @@
         </is>
       </c>
       <c r="N519" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O519" t="n">
         <v>2</v>
@@ -44727,7 +44693,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Cameroon', 'Brazil']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44746,10 +44712,10 @@
         </is>
       </c>
       <c r="N520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O520" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="n">
@@ -44801,7 +44767,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44881,7 +44847,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'South Korea']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44900,12 +44866,16 @@
         </is>
       </c>
       <c r="N522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O522" t="n">
         <v>1</v>
       </c>
-      <c r="P522" t="inlineStr"/>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="Q522" t="n">
         <v>0</v>
       </c>
@@ -44969,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -44988,10 +44958,10 @@
         </is>
       </c>
       <c r="N523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="n">
@@ -45057,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45076,10 +45046,10 @@
         </is>
       </c>
       <c r="N524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="n">
@@ -45145,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45233,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal', 'Uruguay']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45255,7 +45225,7 @@
         <v>1</v>
       </c>
       <c r="O526" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P526" t="inlineStr"/>
       <c r="Q526" t="n">
@@ -45321,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea', 'Uruguay']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45340,10 +45310,10 @@
         </is>
       </c>
       <c r="N527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="n">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3553,7 +3553,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3803,7 +3803,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4573,7 +4573,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5083,7 +5083,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6103,7 +6103,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -7545,7 +7545,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -7625,7 +7625,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -7709,7 +7709,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -8047,7 +8047,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -8909,7 +8909,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -9771,7 +9771,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -9851,7 +9851,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -9935,7 +9935,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -10361,7 +10361,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -10441,7 +10441,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -10691,7 +10691,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -10771,7 +10771,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -12393,7 +12393,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13079,7 +13079,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15297,7 +15297,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19577,7 +19577,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19657,7 +19657,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19745,7 +19745,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21267,7 +21267,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -23739,7 +23739,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -25725,7 +25725,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25805,7 +25805,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26737,7 +26737,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26817,7 +26817,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,7 +27243,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27855,7 +27855,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27929,7 +27929,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28009,7 +28009,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28093,7 +28093,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -29535,7 +29535,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29615,7 +29615,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -31923,7 +31923,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32003,7 +32003,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32087,7 +32087,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32175,7 +32175,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32527,7 +32527,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -33701,7 +33701,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33781,7 +33781,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33865,7 +33865,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33953,7 +33953,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34137,7 +34137,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -36009,7 +36009,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36089,7 +36089,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36177,7 +36177,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36265,7 +36265,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36353,7 +36353,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36441,7 +36441,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36617,7 +36617,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36691,7 +36691,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36775,7 +36775,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36863,7 +36863,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36951,7 +36951,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37039,7 +37039,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37127,7 +37127,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37215,7 +37215,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37289,7 +37289,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37369,7 +37369,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37453,7 +37453,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37541,7 +37541,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37629,7 +37629,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37703,7 +37703,7 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37787,7 +37787,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37875,7 +37875,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37963,7 +37963,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38139,7 +38139,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38227,7 +38227,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38983,7 +38983,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39063,7 +39063,7 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39147,7 +39147,7 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -40179,7 +40179,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40259,7 +40259,7 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40343,7 +40343,7 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40431,7 +40431,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40849,7 +40849,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40937,7 +40937,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41113,7 +41113,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41187,7 +41187,7 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41267,7 +41267,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41351,7 +41351,7 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42877,7 +42877,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42965,7 +42965,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43655,7 +43655,7 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43735,7 +43735,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -44767,7 +44767,7 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44847,7 +44847,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11633,7 +11633,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11703,7 +11703,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18969,7 +18969,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19049,7 +19049,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19133,7 +19133,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19207,7 +19207,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19287,7 +19287,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19371,7 +19371,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Ireland', 'Norway', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20889,7 +20889,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20963,7 +20963,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21043,7 +21043,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22407,7 +22407,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22495,7 +22495,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22671,7 +22671,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -24213,7 +24213,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24283,7 +24283,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24367,7 +24367,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25247,7 +25247,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25423,7 +25423,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25585,7 +25585,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25655,7 +25655,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27147,7 +27147,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35325,7 +35325,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35405,7 +35405,7 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35479,7 +35479,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35559,7 +35559,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35647,7 +35647,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35823,7 +35823,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -35999,7 +35999,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36527,7 +36527,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37393,7 +37393,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37627,7 +37627,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37803,7 +37803,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37979,7 +37979,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38067,7 +38067,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38419,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -39953,7 +39953,7 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40033,7 +40033,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40107,7 +40107,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40539,7 +40539,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -41771,7 +41771,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41859,7 +41859,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42475,7 +42475,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42563,7 +42563,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42651,7 +42651,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42827,7 +42827,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -46905,7 +46905,7 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -46975,7 +46975,7 @@
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47059,7 +47059,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47147,7 +47147,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47327,7 +47327,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47419,7 +47419,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47507,7 +47507,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47595,7 +47595,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47771,7 +47771,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47859,7 +47859,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -48255,7 +48255,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48431,7 +48431,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48607,7 +48607,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48783,7 +48783,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48959,7 +48959,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49047,7 +49047,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -50877,7 +50877,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50957,7 +50957,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51045,7 +51045,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51123,7 +51123,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51203,7 +51203,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51291,7 +51291,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -52073,7 +52073,7 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52153,7 +52153,7 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52237,7 +52237,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52311,7 +52311,7 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52391,7 +52391,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52475,7 +52475,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52651,7 +52651,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52739,7 +52739,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52827,7 +52827,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -54235,7 +54235,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54323,7 +54323,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -55775,7 +55775,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55863,7 +55863,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -65275,7 +65275,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -65363,7 +65363,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -65451,7 +65451,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -65539,7 +65539,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -65627,7 +65627,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -65891,7 +65891,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -65979,7 +65979,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -66067,7 +66067,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -66155,7 +66155,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -66243,7 +66243,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -67387,7 +67387,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -67475,7 +67475,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -67563,7 +67563,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -67651,7 +67651,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -67725,7 +67725,7 @@
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -67805,7 +67805,7 @@
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -67889,7 +67889,7 @@
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -67963,7 +67963,7 @@
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -68127,7 +68127,7 @@
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -69919,7 +69919,7 @@
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -69989,7 +69989,7 @@
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -70073,7 +70073,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -70165,7 +70165,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -70345,7 +70345,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -70433,7 +70433,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -70521,7 +70521,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -70609,7 +70609,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -70697,7 +70697,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -70785,7 +70785,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -70873,7 +70873,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -70961,7 +70961,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -71049,7 +71049,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -71137,7 +71137,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -71225,7 +71225,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -71313,7 +71313,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -71401,7 +71401,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -71489,7 +71489,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -71577,7 +71577,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -72671,7 +72671,7 @@
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -72751,7 +72751,7 @@
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -72825,7 +72825,7 @@
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -72905,7 +72905,7 @@
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
@@ -72993,7 +72993,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -73081,7 +73081,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -73169,7 +73169,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -73257,7 +73257,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -73345,7 +73345,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -73433,7 +73433,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -76067,7 +76067,7 @@
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -76147,7 +76147,7 @@
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -76231,7 +76231,7 @@
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -76305,7 +76305,7 @@
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -76385,7 +76385,7 @@
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -76469,7 +76469,7 @@
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -76557,7 +76557,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -76645,7 +76645,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -76733,7 +76733,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -76821,7 +76821,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -80835,7 +80835,7 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -80915,7 +80915,7 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -80989,7 +80989,7 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -81069,7 +81069,7 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -81245,7 +81245,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -81333,7 +81333,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -81421,7 +81421,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -81509,7 +81509,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -81685,7 +81685,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -81773,7 +81773,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -82675,7 +82675,7 @@
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -82755,7 +82755,7 @@
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K967" t="inlineStr">
@@ -82829,7 +82829,7 @@
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -82909,7 +82909,7 @@
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -82997,7 +82997,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
@@ -83085,7 +83085,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -83525,7 +83525,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -83613,7 +83613,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -85043,7 +85043,7 @@
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -85123,7 +85123,7 @@
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -85197,7 +85197,7 @@
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -85277,7 +85277,7 @@
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -85365,7 +85365,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
@@ -85453,7 +85453,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -85541,7 +85541,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -85629,7 +85629,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -85717,7 +85717,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -85805,7 +85805,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -85893,7 +85893,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -85981,7 +85981,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -86069,7 +86069,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -86157,7 +86157,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -86231,7 +86231,7 @@
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -86311,7 +86311,7 @@
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -86399,7 +86399,7 @@
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -86477,7 +86477,7 @@
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -86557,7 +86557,7 @@
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -86645,7 +86645,7 @@
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -86913,7 +86913,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -87001,7 +87001,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -88109,7 +88109,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -88197,7 +88197,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -90605,7 +90605,7 @@
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -90685,7 +90685,7 @@
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -90763,7 +90763,7 @@
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -90843,7 +90843,7 @@
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -90935,7 +90935,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -91023,7 +91023,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -91111,7 +91111,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -91199,7 +91199,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -91287,7 +91287,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -91375,7 +91375,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -91463,7 +91463,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -91551,7 +91551,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">
@@ -91639,7 +91639,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -91727,7 +91727,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>1873</v>
@@ -1009,18 +1009,18 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>1873</v>
@@ -1097,18 +1097,18 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>1623</v>
@@ -1185,18 +1185,18 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>1623</v>
@@ -1273,18 +1273,18 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>1623</v>
@@ -1361,18 +1361,18 @@
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>1623</v>
@@ -1449,18 +1449,18 @@
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>1623</v>
@@ -1537,18 +1537,18 @@
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1623</v>
@@ -1625,18 +1625,18 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>1873</v>
@@ -1713,18 +1713,18 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>1873</v>
@@ -1801,18 +1801,18 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>1623</v>
@@ -1889,18 +1889,18 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>1623</v>
@@ -1977,18 +1977,18 @@
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>1623</v>
@@ -2065,18 +2065,18 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>1623</v>
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2461,18 +2461,18 @@
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>1811</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2549,18 +2549,18 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>1811</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2637,18 +2637,18 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
         <v>1811</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2725,18 +2725,18 @@
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1811</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2813,18 +2813,18 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>1616</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2901,18 +2901,18 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
         <v>1616</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2989,18 +2989,18 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>1811</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3077,18 +3077,18 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>1811</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3165,18 +3165,18 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U32" t="n">
         <v>1811</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3253,18 +3253,18 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
         <v>1811</v>
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6721,18 +6721,18 @@
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>1892</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6809,18 +6809,18 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>1892</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6905,10 +6905,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>1892</v>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>1892</v>
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7381,11 +7381,11 @@
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="S82" t="n">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7557,11 +7557,11 @@
       </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7733,11 +7733,11 @@
       </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7821,11 +7821,11 @@
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7909,11 +7909,11 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8173,11 +8173,11 @@
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8261,11 +8261,11 @@
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S92" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8349,11 +8349,11 @@
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S93" t="n">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8437,11 +8437,11 @@
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S94" t="n">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Poland']</t>
+          <t>['Morocco', 'England']</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -8573,7 +8573,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8643,7 +8643,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9105,18 +9105,18 @@
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>1766</v>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9193,18 +9193,18 @@
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>1766</v>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9281,18 +9281,18 @@
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
         <v>1966</v>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9369,18 +9369,18 @@
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>1966</v>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9465,10 +9465,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>1766</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>1766</v>
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9773,18 +9773,18 @@
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
         <v>1634</v>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9861,18 +9861,18 @@
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111" t="n">
         <v>1634</v>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -9949,18 +9949,18 @@
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
         <v>1634</v>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10037,18 +10037,18 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113" t="n">
         <v>1634</v>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10125,18 +10125,18 @@
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
         <v>1634</v>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10213,18 +10213,18 @@
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115" t="n">
         <v>1634</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10301,18 +10301,18 @@
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U116" t="n">
         <v>1795</v>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10389,18 +10389,18 @@
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U117" t="n">
         <v>1795</v>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10477,18 +10477,18 @@
       </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U118" t="n">
         <v>1634</v>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10565,18 +10565,18 @@
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U119" t="n">
         <v>1634</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10653,18 +10653,18 @@
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S120" t="n">
         <v>1</v>
       </c>
       <c r="T120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U120" t="n">
         <v>1795</v>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10741,18 +10741,18 @@
       </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U121" t="n">
         <v>1795</v>
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10969,11 +10969,11 @@
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="S124" t="n">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11057,11 +11057,11 @@
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="S125" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11145,11 +11145,11 @@
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S126" t="n">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11233,11 +11233,11 @@
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11329,10 +11329,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U128" t="n">
         <v>1993</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U129" t="n">
         <v>1993</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U130" t="n">
         <v>1953</v>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U131" t="n">
         <v>1953</v>
@@ -11633,7 +11633,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11703,7 +11703,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11813,18 +11813,18 @@
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134" t="n">
         <v>1894</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11901,18 +11901,18 @@
       </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
         <v>1894</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -11989,18 +11989,18 @@
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
         <v>1894</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12077,18 +12077,18 @@
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
         <v>1894</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12165,18 +12165,18 @@
       </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138" t="n">
         <v>1894</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12253,18 +12253,18 @@
       </c>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139" t="n">
         <v>1894</v>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12341,18 +12341,18 @@
       </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>1894</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12429,18 +12429,18 @@
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" t="n">
         <v>1894</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12517,18 +12517,18 @@
       </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>1995</v>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12605,18 +12605,18 @@
       </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U143" t="n">
         <v>1995</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12693,18 +12693,18 @@
       </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144" t="n">
         <v>1995</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12781,18 +12781,18 @@
       </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145" t="n">
         <v>1894</v>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12869,18 +12869,18 @@
       </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U146" t="n">
         <v>1995</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12957,18 +12957,18 @@
       </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U147" t="n">
         <v>1894</v>
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13713,18 +13713,18 @@
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U156" t="n">
         <v>1750</v>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13801,18 +13801,18 @@
       </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="S157" t="n">
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U157" t="n">
         <v>1750</v>
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14029,11 +14029,11 @@
       </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="S160" t="n">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14117,11 +14117,11 @@
       </c>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="S161" t="n">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14213,10 +14213,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U162" t="n">
         <v>1945</v>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U163" t="n">
         <v>1945</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="T164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U164" t="n">
         <v>1892</v>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Ireland', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="T165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U165" t="n">
         <v>1892</v>
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Russia', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -23185,7 +23185,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23255,7 +23255,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -27661,7 +27661,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27731,7 +27731,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28695,7 +28695,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28857,7 +28857,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28937,7 +28937,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29095,7 +29095,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29175,7 +29175,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29259,7 +29259,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -31885,7 +31885,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -31965,7 +31965,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32039,7 +32039,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32119,7 +32119,7 @@
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32207,7 +32207,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32383,7 +32383,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32471,7 +32471,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32559,7 +32559,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32647,7 +32647,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32735,7 +32735,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32823,7 +32823,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -32999,7 +32999,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33087,7 +33087,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33351,7 +33351,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33527,7 +33527,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -38581,7 +38581,7 @@
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38661,7 +38661,7 @@
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38749,7 +38749,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38827,7 +38827,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38907,7 +38907,7 @@
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38995,7 +38995,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39263,7 +39263,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39527,7 +39527,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39703,7 +39703,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39791,7 +39791,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39879,7 +39879,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -40613,7 +40613,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40693,7 +40693,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40767,7 +40767,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40847,7 +40847,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41023,7 +41023,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41199,7 +41199,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41287,7 +41287,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41375,7 +41375,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42989,7 +42989,7 @@
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43069,7 +43069,7 @@
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43143,7 +43143,7 @@
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43223,7 +43223,7 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43311,7 +43311,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43399,7 +43399,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43487,7 +43487,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43575,7 +43575,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43663,7 +43663,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43839,7 +43839,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43927,7 +43927,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44103,7 +44103,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44191,7 +44191,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44279,7 +44279,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -46905,7 +46905,7 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -46975,7 +46975,7 @@
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47059,7 +47059,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47147,7 +47147,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47327,7 +47327,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47419,7 +47419,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47507,7 +47507,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47595,7 +47595,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47771,7 +47771,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47859,7 +47859,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -50877,7 +50877,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50957,7 +50957,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51045,7 +51045,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51123,7 +51123,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51203,7 +51203,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51291,7 +51291,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51559,7 +51559,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51647,7 +51647,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52073,7 +52073,7 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52153,7 +52153,7 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52237,7 +52237,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52311,7 +52311,7 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52391,7 +52391,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52475,7 +52475,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52651,7 +52651,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52739,7 +52739,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52827,7 +52827,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -55285,7 +55285,7 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55365,7 +55365,7 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55449,7 +55449,7 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55523,7 +55523,7 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55603,7 +55603,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55775,7 +55775,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55863,7 +55863,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -56113,7 +56113,7 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56193,7 +56193,7 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56267,7 +56267,7 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56347,7 +56347,7 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56523,7 +56523,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56611,7 +56611,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56699,7 +56699,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56787,7 +56787,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56963,7 +56963,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57051,7 +57051,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57125,7 +57125,7 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57195,7 +57195,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57279,7 +57279,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57367,7 +57367,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57631,7 +57631,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57719,7 +57719,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57807,7 +57807,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -57983,7 +57983,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58071,7 +58071,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58159,7 +58159,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58247,7 +58247,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58335,7 +58335,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58423,7 +58423,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -58907,7 +58907,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -58995,7 +58995,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -59171,7 +59171,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -59259,7 +59259,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -59435,7 +59435,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -59523,7 +59523,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -59611,7 +59611,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -60689,7 +60689,7 @@
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -60769,7 +60769,7 @@
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -60843,7 +60843,7 @@
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -60923,7 +60923,7 @@
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -61011,7 +61011,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -61103,7 +61103,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -61195,7 +61195,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -61287,7 +61287,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -61379,7 +61379,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -61471,7 +61471,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -61549,7 +61549,7 @@
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -61619,7 +61619,7 @@
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -61703,7 +61703,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -61791,7 +61791,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -61879,7 +61879,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -61967,7 +61967,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -62055,7 +62055,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -62143,7 +62143,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -62231,7 +62231,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -62319,7 +62319,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -62407,7 +62407,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -62495,7 +62495,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -62583,7 +62583,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -62671,7 +62671,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -62847,7 +62847,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -63023,7 +63023,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -63111,7 +63111,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -63199,7 +63199,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -63273,7 +63273,7 @@
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -63353,7 +63353,7 @@
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -63437,7 +63437,7 @@
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -63511,7 +63511,7 @@
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -63591,7 +63591,7 @@
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -63675,7 +63675,7 @@
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -63763,7 +63763,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -63851,7 +63851,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -63939,7 +63939,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -64027,7 +64027,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -64115,7 +64115,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -64203,7 +64203,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -64291,7 +64291,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -64467,7 +64467,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -64555,7 +64555,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -64629,7 +64629,7 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -64699,7 +64699,7 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -64769,7 +64769,7 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -64839,7 +64839,7 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -65187,7 +65187,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -66419,7 +66419,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -66507,7 +66507,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -66683,7 +66683,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -66771,7 +66771,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -66859,7 +66859,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -67035,7 +67035,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -67123,7 +67123,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -67211,7 +67211,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K784" t="inlineStr">
@@ -67299,7 +67299,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -68377,7 +68377,7 @@
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -68457,7 +68457,7 @@
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -68531,7 +68531,7 @@
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -68611,7 +68611,7 @@
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -68685,7 +68685,7 @@
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -68765,7 +68765,7 @@
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -68849,7 +68849,7 @@
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -68933,7 +68933,7 @@
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -69017,7 +69017,7 @@
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -69197,7 +69197,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -69289,7 +69289,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -69565,7 +69565,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -69657,7 +69657,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -69749,7 +69749,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -69841,7 +69841,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -71651,7 +71651,7 @@
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -71731,7 +71731,7 @@
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -71805,7 +71805,7 @@
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -71885,7 +71885,7 @@
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -71973,7 +71973,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -72061,7 +72061,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -72149,7 +72149,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -72237,7 +72237,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -72325,7 +72325,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -72417,7 +72417,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -72509,7 +72509,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K846" t="inlineStr">
@@ -72597,7 +72597,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -73507,7 +73507,7 @@
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -73587,7 +73587,7 @@
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -73661,7 +73661,7 @@
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -73741,7 +73741,7 @@
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -73829,7 +73829,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
@@ -73917,7 +73917,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -74005,7 +74005,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -74093,7 +74093,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -74181,7 +74181,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -74269,7 +74269,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
@@ -74357,7 +74357,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -74445,7 +74445,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -74533,7 +74533,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -74621,7 +74621,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -74797,7 +74797,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
@@ -74871,7 +74871,7 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -74941,7 +74941,7 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -75113,7 +75113,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -75201,7 +75201,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -75289,7 +75289,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -75377,7 +75377,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -75465,7 +75465,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -75641,7 +75641,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -75729,7 +75729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -75817,7 +75817,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -75905,7 +75905,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -75993,7 +75993,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -76895,7 +76895,7 @@
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -76965,7 +76965,7 @@
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -77225,7 +77225,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -77313,7 +77313,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -77401,7 +77401,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -77489,7 +77489,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -77577,7 +77577,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -77665,7 +77665,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -79945,7 +79945,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -80037,7 +80037,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -80129,7 +80129,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -80221,7 +80221,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -80313,7 +80313,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -80405,7 +80405,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -80497,7 +80497,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -80585,7 +80585,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -80673,7 +80673,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -80761,7 +80761,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -81847,7 +81847,7 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -81927,7 +81927,7 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -82011,7 +82011,7 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -82085,7 +82085,7 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -82165,7 +82165,7 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -82249,7 +82249,7 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -82337,7 +82337,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -82425,7 +82425,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -82513,7 +82513,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -82601,7 +82601,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -82675,7 +82675,7 @@
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -82755,7 +82755,7 @@
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K967" t="inlineStr">
@@ -82829,7 +82829,7 @@
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -82909,7 +82909,7 @@
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -82997,7 +82997,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
@@ -83085,7 +83085,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -83525,7 +83525,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -83613,7 +83613,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -86231,7 +86231,7 @@
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -86311,7 +86311,7 @@
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -86399,7 +86399,7 @@
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -86477,7 +86477,7 @@
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -86557,7 +86557,7 @@
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -86645,7 +86645,7 @@
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -86913,7 +86913,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -87001,7 +87001,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -87075,7 +87075,7 @@
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -87145,7 +87145,7 @@
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -87317,7 +87317,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -87405,7 +87405,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -87493,7 +87493,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -87581,7 +87581,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -87669,7 +87669,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -87757,7 +87757,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -87845,7 +87845,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -87933,7 +87933,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -88021,7 +88021,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -88109,7 +88109,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -88197,7 +88197,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -88285,7 +88285,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -88373,7 +88373,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -88461,7 +88461,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -88549,7 +88549,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -88637,7 +88637,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -88725,7 +88725,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -88799,7 +88799,7 @@
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -88879,7 +88879,7 @@
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1039" t="inlineStr">
@@ -88967,7 +88967,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -89055,7 +89055,7 @@
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1041" t="inlineStr">
@@ -89143,7 +89143,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -91111,7 +91111,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -91199,7 +91199,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -91287,7 +91287,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -91375,7 +91375,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -91463,7 +91463,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -91551,7 +91551,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>1873</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1009,18 +1009,18 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>1873</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1097,18 +1097,18 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>1623</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1185,18 +1185,18 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>1623</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1449,18 +1449,18 @@
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>1623</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1537,18 +1537,18 @@
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1623</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1625,18 +1625,18 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1873</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1713,18 +1713,18 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1873</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1801,18 +1801,18 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>1623</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1889,18 +1889,18 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1623</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1977,18 +1977,18 @@
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>1623</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2065,18 +2065,18 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>1623</v>
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2461,18 +2461,18 @@
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>1811</v>
@@ -2549,18 +2549,18 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>1811</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2637,18 +2637,18 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>1811</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2725,18 +2725,18 @@
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>1811</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2813,18 +2813,18 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>1616</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2901,18 +2901,18 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>1616</v>
@@ -2989,18 +2989,18 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>1811</v>
@@ -3077,18 +3077,18 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>1811</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3165,18 +3165,18 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>1811</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3253,18 +3253,18 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>1811</v>
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6721,18 +6721,18 @@
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>1892</v>
@@ -6809,18 +6809,18 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
         <v>1892</v>
@@ -6905,10 +6905,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
         <v>1892</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
         <v>1892</v>
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7381,11 +7381,11 @@
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="S82" t="n">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7557,11 +7557,11 @@
       </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'England']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7733,11 +7733,11 @@
       </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7821,11 +7821,11 @@
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7909,11 +7909,11 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8173,11 +8173,11 @@
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U92" t="n">
         <v>1807</v>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U93" t="n">
         <v>1807</v>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8437,18 +8437,18 @@
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U94" t="n">
         <v>1807</v>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8525,18 +8525,18 @@
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U95" t="n">
         <v>1807</v>
@@ -8573,7 +8573,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8643,7 +8643,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9773,18 +9773,18 @@
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>1634</v>
@@ -9861,18 +9861,18 @@
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>1634</v>
@@ -9949,18 +9949,18 @@
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U112" t="n">
         <v>1634</v>
@@ -10037,18 +10037,18 @@
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
         <v>1634</v>
@@ -10125,18 +10125,18 @@
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>1634</v>
@@ -10213,18 +10213,18 @@
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>1634</v>
@@ -10301,18 +10301,18 @@
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>1795</v>
@@ -10389,18 +10389,18 @@
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U117" t="n">
         <v>1795</v>
@@ -10477,18 +10477,18 @@
       </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
         <v>1634</v>
@@ -10565,18 +10565,18 @@
       </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U119" t="n">
         <v>1634</v>
@@ -10653,18 +10653,18 @@
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S120" t="n">
         <v>1</v>
       </c>
       <c r="T120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U120" t="n">
         <v>1795</v>
@@ -10741,18 +10741,18 @@
       </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U121" t="n">
         <v>1795</v>
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10969,11 +10969,11 @@
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="S124" t="n">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11057,11 +11057,11 @@
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="S125" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11145,11 +11145,11 @@
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="S126" t="n">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11233,11 +11233,11 @@
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11329,10 +11329,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U128" t="n">
         <v>1993</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U129" t="n">
         <v>1993</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U130" t="n">
         <v>1953</v>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U131" t="n">
         <v>1953</v>
@@ -11633,7 +11633,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11703,7 +11703,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11813,18 +11813,18 @@
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
         <v>1894</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11901,18 +11901,18 @@
       </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>1894</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -11989,18 +11989,18 @@
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>1894</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12077,18 +12077,18 @@
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>1894</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12165,18 +12165,18 @@
       </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>1894</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12253,18 +12253,18 @@
       </c>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
         <v>1894</v>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12341,18 +12341,18 @@
       </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>1894</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12429,18 +12429,18 @@
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141" t="n">
         <v>1894</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12517,18 +12517,18 @@
       </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>1995</v>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12605,18 +12605,18 @@
       </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>1995</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12693,18 +12693,18 @@
       </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>1995</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12781,18 +12781,18 @@
       </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>1894</v>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12869,18 +12869,18 @@
       </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
         <v>1995</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12957,18 +12957,18 @@
       </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147" t="n">
         <v>1894</v>
@@ -13713,18 +13713,18 @@
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U156" t="n">
         <v>1750</v>
@@ -13801,18 +13801,18 @@
       </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="S157" t="n">
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U157" t="n">
         <v>1750</v>
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14029,11 +14029,11 @@
       </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="S160" t="n">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14117,11 +14117,11 @@
       </c>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="S161" t="n">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14213,10 +14213,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U162" t="n">
         <v>1945</v>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U163" t="n">
         <v>1945</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="T164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U164" t="n">
         <v>1892</v>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ireland', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="T165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U165" t="n">
         <v>1892</v>
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18969,7 +18969,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19049,7 +19049,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19133,7 +19133,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19207,7 +19207,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19287,7 +19287,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19371,7 +19371,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -28857,7 +28857,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28937,7 +28937,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29095,7 +29095,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29175,7 +29175,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29259,7 +29259,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29861,7 +29861,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29941,7 +29941,7 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30015,7 +30015,7 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30095,7 +30095,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30183,7 +30183,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30359,7 +30359,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30623,7 +30623,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30711,7 +30711,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31885,7 +31885,7 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -31965,7 +31965,7 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32039,7 +32039,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32119,7 +32119,7 @@
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32207,7 +32207,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32383,7 +32383,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32471,7 +32471,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32559,7 +32559,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32647,7 +32647,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32735,7 +32735,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32823,7 +32823,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -32999,7 +32999,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33087,7 +33087,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33351,7 +33351,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33527,7 +33527,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -37393,7 +37393,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37627,7 +37627,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37803,7 +37803,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37979,7 +37979,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38067,7 +38067,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38419,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39263,7 +39263,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39527,7 +39527,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39703,7 +39703,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39791,7 +39791,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39879,7 +39879,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -40613,7 +40613,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40693,7 +40693,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40767,7 +40767,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40847,7 +40847,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41199,7 +41199,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41287,7 +41287,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41375,7 +41375,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -48255,7 +48255,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48431,7 +48431,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48607,7 +48607,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48783,7 +48783,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48959,7 +48959,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49047,7 +49047,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -52073,7 +52073,7 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52153,7 +52153,7 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52237,7 +52237,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52311,7 +52311,7 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52391,7 +52391,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52475,7 +52475,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52651,7 +52651,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52739,7 +52739,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52827,7 +52827,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -54235,7 +54235,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54323,7 +54323,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -55775,7 +55775,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55863,7 +55863,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55951,7 +55951,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56039,7 +56039,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56113,7 +56113,7 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56193,7 +56193,7 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56267,7 +56267,7 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56347,7 +56347,7 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56523,7 +56523,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56611,7 +56611,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56699,7 +56699,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56787,7 +56787,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56963,7 +56963,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57051,7 +57051,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57125,7 +57125,7 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57195,7 +57195,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57279,7 +57279,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57367,7 +57367,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57631,7 +57631,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57719,7 +57719,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57807,7 +57807,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -57983,7 +57983,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58071,7 +58071,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58159,7 +58159,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58247,7 +58247,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58335,7 +58335,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58423,7 +58423,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58497,7 +58497,7 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58577,7 +58577,7 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58651,7 +58651,7 @@
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -58731,7 +58731,7 @@
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -58907,7 +58907,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -58995,7 +58995,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -59171,7 +59171,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -59259,7 +59259,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -59435,7 +59435,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -59523,7 +59523,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -59611,7 +59611,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -64629,7 +64629,7 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -64699,7 +64699,7 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -64769,7 +64769,7 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -64839,7 +64839,7 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -65187,7 +65187,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -65275,7 +65275,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -65363,7 +65363,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -65451,7 +65451,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -65539,7 +65539,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -65627,7 +65627,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -65891,7 +65891,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -65979,7 +65979,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -66067,7 +66067,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -66155,7 +66155,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -66243,7 +66243,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -66419,7 +66419,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -66507,7 +66507,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -66683,7 +66683,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -66771,7 +66771,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -66859,7 +66859,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -67035,7 +67035,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -67123,7 +67123,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -67211,7 +67211,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K784" t="inlineStr">
@@ -67299,7 +67299,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -67387,7 +67387,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -67475,7 +67475,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -67563,7 +67563,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -67651,7 +67651,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -74871,7 +74871,7 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -74941,7 +74941,7 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -75113,7 +75113,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -75201,7 +75201,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -75289,7 +75289,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -75377,7 +75377,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -75465,7 +75465,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -75641,7 +75641,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -75729,7 +75729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -75817,7 +75817,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -75905,7 +75905,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -75993,7 +75993,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -77049,7 +77049,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -77137,7 +77137,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -77753,7 +77753,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -77841,7 +77841,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -77929,7 +77929,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -78017,7 +78017,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -79455,7 +79455,7 @@
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -79535,7 +79535,7 @@
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -79619,7 +79619,7 @@
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -79693,7 +79693,7 @@
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -79773,7 +79773,7 @@
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -79857,7 +79857,7 @@
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -79945,7 +79945,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -80037,7 +80037,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -80129,7 +80129,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -80221,7 +80221,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -80313,7 +80313,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -80405,7 +80405,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -80497,7 +80497,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -80585,7 +80585,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -80673,7 +80673,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -80761,7 +80761,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -80835,7 +80835,7 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -80915,7 +80915,7 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -80989,7 +80989,7 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -81069,7 +81069,7 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -81245,7 +81245,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -81333,7 +81333,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -81421,7 +81421,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -81509,7 +81509,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -81685,7 +81685,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -81773,7 +81773,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -81847,7 +81847,7 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -81927,7 +81927,7 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -82011,7 +82011,7 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -82085,7 +82085,7 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -82165,7 +82165,7 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -82249,7 +82249,7 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -82337,7 +82337,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -82425,7 +82425,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -82513,7 +82513,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -82601,7 +82601,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -83863,7 +83863,7 @@
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -83943,7 +83943,7 @@
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -84027,7 +84027,7 @@
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
@@ -84101,7 +84101,7 @@
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -84181,7 +84181,7 @@
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K984" t="inlineStr">
@@ -84265,7 +84265,7 @@
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K985" t="inlineStr">
@@ -84353,7 +84353,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -84441,7 +84441,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
@@ -84617,7 +84617,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -84705,7 +84705,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -84793,7 +84793,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -84881,7 +84881,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -84969,7 +84969,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -86231,7 +86231,7 @@
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -86311,7 +86311,7 @@
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -86399,7 +86399,7 @@
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -86477,7 +86477,7 @@
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -86557,7 +86557,7 @@
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -86645,7 +86645,7 @@
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -86737,7 +86737,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -86825,7 +86825,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="K1015" t="inlineStr">
@@ -86913,7 +86913,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -87001,7 +87001,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -87075,7 +87075,7 @@
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -87145,7 +87145,7 @@
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -87317,7 +87317,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -87405,7 +87405,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -87493,7 +87493,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -87581,7 +87581,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -87669,7 +87669,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -87757,7 +87757,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -87845,7 +87845,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -87933,7 +87933,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -88021,7 +88021,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -88109,7 +88109,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -88197,7 +88197,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -88285,7 +88285,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -88373,7 +88373,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -88461,7 +88461,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -88549,7 +88549,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -88637,7 +88637,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -88725,7 +88725,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -88799,7 +88799,7 @@
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -88879,7 +88879,7 @@
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K1039" t="inlineStr">
@@ -88967,7 +88967,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -89055,7 +89055,7 @@
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K1041" t="inlineStr">
@@ -89143,7 +89143,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -90605,7 +90605,7 @@
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -90685,7 +90685,7 @@
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -90763,7 +90763,7 @@
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -90843,7 +90843,7 @@
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -90935,7 +90935,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -91023,7 +91023,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -91639,7 +91639,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -91727,7 +91727,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5189,18 +5189,18 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1852</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5285,10 +5285,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>1618</v>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5365,18 +5365,18 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>1852</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
         <v>1618</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U60" t="n">
         <v>1852</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
         <v>1852</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U62" t="n">
         <v>1618</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U63" t="n">
         <v>1618</v>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U64" t="n">
         <v>1618</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U65" t="n">
         <v>1618</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U66" t="n">
         <v>1852</v>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U67" t="n">
         <v>1852</v>
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8573,7 +8573,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8643,7 +8643,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8929,18 +8929,18 @@
       </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
         <v>1766</v>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9017,18 +9017,18 @@
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>1766</v>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
         <v>1766</v>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
         <v>1766</v>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9281,18 +9281,18 @@
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U104" t="n">
         <v>1966</v>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9369,18 +9369,18 @@
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U105" t="n">
         <v>1966</v>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9457,18 +9457,18 @@
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U106" t="n">
         <v>1766</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9545,18 +9545,18 @@
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U107" t="n">
         <v>1766</v>
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10815,11 +10815,11 @@
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10885,11 +10885,11 @@
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11659,11 +11659,11 @@
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="S132" t="n">
@@ -11729,11 +11729,11 @@
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11821,10 +11821,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134" t="n">
         <v>1894</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
         <v>1894</v>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
         <v>1894</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
         <v>1894</v>
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138" t="n">
         <v>1894</v>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139" t="n">
         <v>1894</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>1894</v>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" t="n">
         <v>1894</v>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>1995</v>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U143" t="n">
         <v>1995</v>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144" t="n">
         <v>1995</v>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145" t="n">
         <v>1894</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U146" t="n">
         <v>1995</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U147" t="n">
         <v>1894</v>
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13031,11 +13031,11 @@
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13101,11 +13101,11 @@
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S149" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U150" t="n">
         <v>1845</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U151" t="n">
         <v>1845</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13361,18 +13361,18 @@
       </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U152" t="n">
         <v>1845</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13449,18 +13449,18 @@
       </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U153" t="n">
         <v>1845</v>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13545,10 +13545,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U154" t="n">
         <v>1845</v>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U155" t="n">
         <v>1845</v>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="T156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U156" t="n">
         <v>1750</v>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U157" t="n">
         <v>1750</v>
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13875,11 +13875,11 @@
       </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="S158" t="n">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -13945,11 +13945,11 @@
       </c>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Ireland']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="S159" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16933,18 +16933,18 @@
       </c>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U194" t="n">
         <v>1868</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17021,18 +17021,18 @@
       </c>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S195" t="n">
         <v>0</v>
       </c>
       <c r="T195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195" t="n">
         <v>1868</v>
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17109,18 +17109,18 @@
       </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S196" t="n">
         <v>0</v>
       </c>
       <c r="T196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U196" t="n">
         <v>1868</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17197,18 +17197,18 @@
       </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="S197" t="n">
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U197" t="n">
         <v>1868</v>
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18995,11 +18995,11 @@
       </c>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -19075,11 +19075,11 @@
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S219" t="n">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S220" t="n">
@@ -19233,11 +19233,11 @@
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S221" t="n">
@@ -19313,11 +19313,11 @@
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S222" t="n">
@@ -19397,11 +19397,11 @@
       </c>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S223" t="n">
@@ -19485,11 +19485,11 @@
       </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S224" t="n">
@@ -19573,11 +19573,11 @@
       </c>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="S225" t="n">
@@ -19669,10 +19669,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U226" t="n">
         <v>1914</v>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="T227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U227" t="n">
         <v>1914</v>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="T228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U228" t="n">
         <v>1914</v>
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U229" t="n">
         <v>1914</v>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="T230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U230" t="n">
         <v>1689</v>
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U231" t="n">
         <v>1689</v>
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20175,11 +20175,11 @@
       </c>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S232" t="n">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S233" t="n">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20329,11 +20329,11 @@
       </c>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S234" t="n">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20409,11 +20409,11 @@
       </c>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20835,11 +20835,11 @@
       </c>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S240" t="n">
@@ -20889,7 +20889,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20915,11 +20915,11 @@
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S241" t="n">
@@ -20963,7 +20963,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -20989,11 +20989,11 @@
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S242" t="n">
@@ -21043,7 +21043,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21069,11 +21069,11 @@
       </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21165,10 +21165,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U244" t="n">
         <v>1825</v>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U245" t="n">
         <v>1825</v>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U246" t="n">
         <v>1675</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U247" t="n">
         <v>1675</v>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21509,18 +21509,18 @@
       </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U248" t="n">
         <v>1675</v>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21597,18 +21597,18 @@
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="S249" t="n">
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U249" t="n">
         <v>1675</v>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21693,10 +21693,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U250" t="n">
         <v>1675</v>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U251" t="n">
         <v>1675</v>
@@ -21821,7 +21821,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21901,7 +21901,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21975,7 +21975,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22055,7 +22055,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22407,7 +22407,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22495,7 +22495,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22671,7 +22671,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23185,7 +23185,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23255,7 +23255,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24213,7 +24213,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24283,7 +24283,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24367,7 +24367,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25247,7 +25247,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25423,7 +25423,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -27661,7 +27661,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27731,7 +27731,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28695,7 +28695,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28857,7 +28857,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28937,7 +28937,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29095,7 +29095,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29175,7 +29175,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29259,7 +29259,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30873,7 +30873,7 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30953,7 +30953,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31027,7 +31027,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31107,7 +31107,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31547,7 +31547,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35325,7 +35325,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35405,7 +35405,7 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35479,7 +35479,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35559,7 +35559,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35647,7 +35647,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35823,7 +35823,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -35999,7 +35999,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36527,7 +36527,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39263,7 +39263,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39527,7 +39527,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39703,7 +39703,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39791,7 +39791,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39879,7 +39879,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39953,7 +39953,7 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40033,7 +40033,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40107,7 +40107,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40539,7 +40539,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41023,7 +41023,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42475,7 +42475,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42563,7 +42563,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42651,7 +42651,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42827,7 +42827,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -46905,7 +46905,7 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -46975,7 +46975,7 @@
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47059,7 +47059,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47147,7 +47147,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47327,7 +47327,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47419,7 +47419,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47507,7 +47507,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47595,7 +47595,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47771,7 +47771,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47859,7 +47859,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47933,7 +47933,7 @@
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48013,7 +48013,7 @@
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48087,7 +48087,7 @@
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48167,7 +48167,7 @@
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48255,7 +48255,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48431,7 +48431,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48607,7 +48607,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48783,7 +48783,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48959,7 +48959,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49047,7 +49047,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49275,7 +49275,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49363,7 +49363,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49539,7 +49539,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -50171,7 +50171,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50259,7 +50259,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50347,7 +50347,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50435,7 +50435,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50877,7 +50877,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50957,7 +50957,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51045,7 +51045,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51123,7 +51123,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51203,7 +51203,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51291,7 +51291,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51559,7 +51559,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51647,7 +51647,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52901,7 +52901,7 @@
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -52981,7 +52981,7 @@
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53055,7 +53055,7 @@
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53135,7 +53135,7 @@
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53223,7 +53223,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53311,7 +53311,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53487,7 +53487,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53575,7 +53575,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53663,7 +53663,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53751,7 +53751,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -55285,7 +55285,7 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55365,7 +55365,7 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55449,7 +55449,7 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55523,7 +55523,7 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55603,7 +55603,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55951,7 +55951,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56039,7 +56039,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56113,7 +56113,7 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56193,7 +56193,7 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56267,7 +56267,7 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56347,7 +56347,7 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56523,7 +56523,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56611,7 +56611,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56699,7 +56699,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56787,7 +56787,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56963,7 +56963,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57051,7 +57051,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -58497,7 +58497,7 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58577,7 +58577,7 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58651,7 +58651,7 @@
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -58731,7 +58731,7 @@
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -58907,7 +58907,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -58995,7 +58995,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -59171,7 +59171,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -59259,7 +59259,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -59435,7 +59435,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -59523,7 +59523,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -59611,7 +59611,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -61549,7 +61549,7 @@
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -61619,7 +61619,7 @@
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -61703,7 +61703,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -61791,7 +61791,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -61879,7 +61879,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -61967,7 +61967,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -62055,7 +62055,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -62143,7 +62143,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -62231,7 +62231,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -62319,7 +62319,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -62407,7 +62407,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -62495,7 +62495,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -62583,7 +62583,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -62671,7 +62671,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -62847,7 +62847,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -63023,7 +63023,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -63111,7 +63111,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -63199,7 +63199,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -63273,7 +63273,7 @@
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -63353,7 +63353,7 @@
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -63437,7 +63437,7 @@
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -63511,7 +63511,7 @@
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -63591,7 +63591,7 @@
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -63675,7 +63675,7 @@
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -63763,7 +63763,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -63851,7 +63851,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -63939,7 +63939,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -64027,7 +64027,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -64115,7 +64115,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -64203,7 +64203,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -64291,7 +64291,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -64467,7 +64467,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -64555,7 +64555,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -64629,7 +64629,7 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -64699,7 +64699,7 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -64769,7 +64769,7 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -64839,7 +64839,7 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -65187,7 +65187,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -66419,7 +66419,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -66507,7 +66507,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -66683,7 +66683,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -66771,7 +66771,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -66859,7 +66859,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -67035,7 +67035,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -67123,7 +67123,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -67211,7 +67211,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K784" t="inlineStr">
@@ -67299,7 +67299,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -67725,7 +67725,7 @@
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -67805,7 +67805,7 @@
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -67889,7 +67889,7 @@
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -67963,7 +67963,7 @@
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -68127,7 +68127,7 @@
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -68377,7 +68377,7 @@
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -68457,7 +68457,7 @@
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -68531,7 +68531,7 @@
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -68611,7 +68611,7 @@
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -68685,7 +68685,7 @@
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -68765,7 +68765,7 @@
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -68849,7 +68849,7 @@
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -68933,7 +68933,7 @@
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -69017,7 +69017,7 @@
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -69197,7 +69197,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -69289,7 +69289,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -69565,7 +69565,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -69657,7 +69657,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -69749,7 +69749,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -69841,7 +69841,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -72671,7 +72671,7 @@
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -72751,7 +72751,7 @@
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -72825,7 +72825,7 @@
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -72905,7 +72905,7 @@
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
@@ -73169,7 +73169,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -73257,7 +73257,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -73345,7 +73345,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -73433,7 +73433,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -73507,7 +73507,7 @@
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -73587,7 +73587,7 @@
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -73661,7 +73661,7 @@
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -73741,7 +73741,7 @@
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -73829,7 +73829,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
@@ -73917,7 +73917,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -74005,7 +74005,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -74093,7 +74093,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -74181,7 +74181,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -74269,7 +74269,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
@@ -74357,7 +74357,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -74445,7 +74445,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -74533,7 +74533,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -74621,7 +74621,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -74797,7 +74797,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
@@ -74871,7 +74871,7 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -74941,7 +74941,7 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -75113,7 +75113,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -75201,7 +75201,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -75289,7 +75289,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -75377,7 +75377,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -75465,7 +75465,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -75641,7 +75641,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -75729,7 +75729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -75817,7 +75817,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -75905,7 +75905,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -75993,7 +75993,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -76067,7 +76067,7 @@
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -76147,7 +76147,7 @@
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -76231,7 +76231,7 @@
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -76305,7 +76305,7 @@
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -76385,7 +76385,7 @@
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -76469,7 +76469,7 @@
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -76557,7 +76557,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -76645,7 +76645,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -76733,7 +76733,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -76821,7 +76821,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -79455,7 +79455,7 @@
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -79535,7 +79535,7 @@
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -79619,7 +79619,7 @@
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -79693,7 +79693,7 @@
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -79773,7 +79773,7 @@
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -79857,7 +79857,7 @@
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -80835,7 +80835,7 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -80915,7 +80915,7 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -80989,7 +80989,7 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -81069,7 +81069,7 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -81245,7 +81245,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -81333,7 +81333,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -81421,7 +81421,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -81509,7 +81509,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -81685,7 +81685,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -81773,7 +81773,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -81847,7 +81847,7 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -81927,7 +81927,7 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -82011,7 +82011,7 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -82085,7 +82085,7 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -82165,7 +82165,7 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -82249,7 +82249,7 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -84353,7 +84353,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -84441,7 +84441,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
@@ -84617,7 +84617,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -84705,7 +84705,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -84793,7 +84793,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -84881,7 +84881,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -84969,7 +84969,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -86231,7 +86231,7 @@
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -86311,7 +86311,7 @@
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -86399,7 +86399,7 @@
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -86477,7 +86477,7 @@
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -86557,7 +86557,7 @@
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -86645,7 +86645,7 @@
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -86913,7 +86913,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -87001,7 +87001,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -87075,7 +87075,7 @@
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -87145,7 +87145,7 @@
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -87317,7 +87317,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -87405,7 +87405,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -87493,7 +87493,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -87581,7 +87581,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -87669,7 +87669,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -87757,7 +87757,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -87845,7 +87845,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -87933,7 +87933,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -88021,7 +88021,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -88109,7 +88109,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -88197,7 +88197,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -88285,7 +88285,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -88373,7 +88373,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -88461,7 +88461,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -88549,7 +88549,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -88637,7 +88637,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -88725,7 +88725,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -89907,7 +89907,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K1051" t="inlineStr">
@@ -89995,7 +89995,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -90605,7 +90605,7 @@
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -90685,7 +90685,7 @@
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -90763,7 +90763,7 @@
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -90843,7 +90843,7 @@
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -90935,7 +90935,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -91023,7 +91023,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -91111,7 +91111,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -91199,7 +91199,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -91287,7 +91287,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -91375,7 +91375,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -91463,7 +91463,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -91551,7 +91551,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">
@@ -91639,7 +91639,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -91727,7 +91727,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8573,7 +8573,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8643,7 +8643,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Ireland']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -18969,7 +18969,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19049,7 +19049,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19133,7 +19133,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19207,7 +19207,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19287,7 +19287,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19371,7 +19371,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Mexico']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20889,7 +20889,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20963,7 +20963,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21043,7 +21043,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -25585,7 +25585,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25655,7 +25655,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27147,7 +27147,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27661,7 +27661,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27731,7 +27731,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28695,7 +28695,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29861,7 +29861,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29941,7 +29941,7 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30015,7 +30015,7 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30095,7 +30095,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30183,7 +30183,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30711,7 +30711,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35999,7 +35999,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36527,7 +36527,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37393,7 +37393,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37627,7 +37627,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37803,7 +37803,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -37979,7 +37979,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38067,7 +38067,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38419,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -39953,7 +39953,7 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40033,7 +40033,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40107,7 +40107,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40539,7 +40539,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42475,7 +42475,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42563,7 +42563,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42651,7 +42651,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42827,7 +42827,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45717,7 +45717,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45797,7 +45797,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,7 +45871,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45951,7 +45951,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,7 +46039,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46215,7 +46215,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46303,7 +46303,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46391,7 +46391,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46479,7 +46479,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46567,7 +46567,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46655,7 +46655,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46743,7 +46743,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -49121,7 +49121,7 @@
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49191,7 +49191,7 @@
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49627,7 +49627,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49803,7 +49803,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49895,7 +49895,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -49987,7 +49987,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50079,7 +50079,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50523,7 +50523,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50615,7 +50615,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50707,7 +50707,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50799,7 +50799,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50877,7 +50877,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50957,7 +50957,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51045,7 +51045,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51123,7 +51123,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51203,7 +51203,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51291,7 +51291,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51559,7 +51559,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51647,7 +51647,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52901,7 +52901,7 @@
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -52981,7 +52981,7 @@
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53055,7 +53055,7 @@
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53135,7 +53135,7 @@
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53223,7 +53223,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53311,7 +53311,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53487,7 +53487,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53575,7 +53575,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53663,7 +53663,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53751,7 +53751,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53913,7 +53913,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -53993,7 +53993,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54067,7 +54067,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54147,7 +54147,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54411,7 +54411,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54499,7 +54499,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54587,7 +54587,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54679,7 +54679,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54771,7 +54771,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54859,7 +54859,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -54947,7 +54947,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55035,7 +55035,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55123,7 +55123,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55211,7 +55211,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55285,7 +55285,7 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55365,7 +55365,7 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55449,7 +55449,7 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55523,7 +55523,7 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55603,7 +55603,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55951,7 +55951,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56039,7 +56039,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -57125,7 +57125,7 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57195,7 +57195,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57279,7 +57279,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57367,7 +57367,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57631,7 +57631,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57719,7 +57719,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57807,7 +57807,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -57983,7 +57983,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58071,7 +58071,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58159,7 +58159,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58247,7 +58247,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58335,7 +58335,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58423,7 +58423,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -58907,7 +58907,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -58995,7 +58995,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -59171,7 +59171,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -59259,7 +59259,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -59435,7 +59435,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -59523,7 +59523,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -59611,7 +59611,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -63273,7 +63273,7 @@
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -63353,7 +63353,7 @@
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -63437,7 +63437,7 @@
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -63511,7 +63511,7 @@
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -63591,7 +63591,7 @@
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -63675,7 +63675,7 @@
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -63763,7 +63763,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -63851,7 +63851,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -63939,7 +63939,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -64027,7 +64027,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -64115,7 +64115,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -64203,7 +64203,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -64291,7 +64291,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -64467,7 +64467,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -64555,7 +64555,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -64629,7 +64629,7 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -64699,7 +64699,7 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -64769,7 +64769,7 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -64839,7 +64839,7 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -65187,7 +65187,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -66419,7 +66419,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -66507,7 +66507,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -66683,7 +66683,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -66771,7 +66771,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -66859,7 +66859,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -67035,7 +67035,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -67123,7 +67123,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -67211,7 +67211,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K784" t="inlineStr">
@@ -67299,7 +67299,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -68377,7 +68377,7 @@
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -68457,7 +68457,7 @@
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -68531,7 +68531,7 @@
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -68611,7 +68611,7 @@
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -68685,7 +68685,7 @@
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -68765,7 +68765,7 @@
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -68849,7 +68849,7 @@
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -68933,7 +68933,7 @@
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -69017,7 +69017,7 @@
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -69197,7 +69197,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -69289,7 +69289,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -69565,7 +69565,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -69657,7 +69657,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -69749,7 +69749,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -69841,7 +69841,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -69919,7 +69919,7 @@
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -69989,7 +69989,7 @@
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -70073,7 +70073,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -70165,7 +70165,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -70345,7 +70345,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -70433,7 +70433,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -70521,7 +70521,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -70609,7 +70609,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -70697,7 +70697,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -70785,7 +70785,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -70873,7 +70873,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -70961,7 +70961,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -71049,7 +71049,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -71137,7 +71137,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -71225,7 +71225,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -71313,7 +71313,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -71401,7 +71401,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -71489,7 +71489,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -71577,7 +71577,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -72993,7 +72993,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -73081,7 +73081,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -76895,7 +76895,7 @@
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -76965,7 +76965,7 @@
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -77225,7 +77225,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -77313,7 +77313,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -77401,7 +77401,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -77489,7 +77489,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -77577,7 +77577,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -77665,7 +77665,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -79945,7 +79945,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -80037,7 +80037,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -80129,7 +80129,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -80221,7 +80221,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -80313,7 +80313,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -80405,7 +80405,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -80497,7 +80497,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -80585,7 +80585,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -80673,7 +80673,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -80761,7 +80761,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -81847,7 +81847,7 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -81927,7 +81927,7 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -82011,7 +82011,7 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -82085,7 +82085,7 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -82165,7 +82165,7 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -82249,7 +82249,7 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -82337,7 +82337,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -82425,7 +82425,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -82513,7 +82513,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -82601,7 +82601,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -82675,7 +82675,7 @@
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -82755,7 +82755,7 @@
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K967" t="inlineStr">
@@ -82829,7 +82829,7 @@
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -82909,7 +82909,7 @@
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -82997,7 +82997,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
@@ -83085,7 +83085,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -83173,7 +83173,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -83261,7 +83261,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
@@ -83349,7 +83349,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -83437,7 +83437,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
@@ -83525,7 +83525,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -83613,7 +83613,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -83701,7 +83701,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -83789,7 +83789,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -84353,7 +84353,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -84441,7 +84441,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
@@ -84617,7 +84617,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -84705,7 +84705,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -84793,7 +84793,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -84881,7 +84881,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -84969,7 +84969,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -85043,7 +85043,7 @@
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -85123,7 +85123,7 @@
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -85197,7 +85197,7 @@
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -85277,7 +85277,7 @@
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -85365,7 +85365,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
@@ -85453,7 +85453,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -85541,7 +85541,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -85629,7 +85629,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -85717,7 +85717,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -85805,7 +85805,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -85893,7 +85893,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -85981,7 +85981,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -86069,7 +86069,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -86157,7 +86157,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -86231,7 +86231,7 @@
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -86311,7 +86311,7 @@
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -86399,7 +86399,7 @@
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -86477,7 +86477,7 @@
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -86557,7 +86557,7 @@
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -86645,7 +86645,7 @@
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -86913,7 +86913,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -87001,7 +87001,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2113,7 +2113,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2193,7 +2193,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2347,7 +2347,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8929,18 +8929,18 @@
       </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>1766</v>
@@ -9017,18 +9017,18 @@
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>1766</v>
@@ -9113,10 +9113,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>1766</v>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>1766</v>
@@ -9281,18 +9281,18 @@
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
         <v>1966</v>
@@ -9369,18 +9369,18 @@
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>1966</v>
@@ -9457,18 +9457,18 @@
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>1766</v>
@@ -9545,18 +9545,18 @@
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>1766</v>
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10815,11 +10815,11 @@
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10885,11 +10885,11 @@
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11633,7 +11633,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11659,11 +11659,11 @@
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S132" t="n">
@@ -11703,7 +11703,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11729,11 +11729,11 @@
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11821,10 +11821,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
         <v>1894</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>1894</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>1894</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>1894</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>1894</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
         <v>1894</v>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>1894</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141" t="n">
         <v>1894</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>1995</v>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>1995</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>1995</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>1894</v>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
         <v>1995</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147" t="n">
         <v>1894</v>
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13031,11 +13031,11 @@
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13101,11 +13101,11 @@
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S149" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U150" t="n">
         <v>1845</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U151" t="n">
         <v>1845</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13361,18 +13361,18 @@
       </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U152" t="n">
         <v>1845</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13449,18 +13449,18 @@
       </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U153" t="n">
         <v>1845</v>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13545,10 +13545,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U154" t="n">
         <v>1845</v>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U155" t="n">
         <v>1845</v>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="T156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U156" t="n">
         <v>1750</v>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U157" t="n">
         <v>1750</v>
@@ -13875,11 +13875,11 @@
       </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="S158" t="n">
@@ -13945,11 +13945,11 @@
       </c>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="S159" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16933,18 +16933,18 @@
       </c>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U194" t="n">
         <v>1868</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17021,18 +17021,18 @@
       </c>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S195" t="n">
         <v>0</v>
       </c>
       <c r="T195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U195" t="n">
         <v>1868</v>
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17109,18 +17109,18 @@
       </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S196" t="n">
         <v>0</v>
       </c>
       <c r="T196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U196" t="n">
         <v>1868</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17197,18 +17197,18 @@
       </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="S197" t="n">
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>1868</v>
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18969,7 +18969,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -18995,11 +18995,11 @@
       </c>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -19049,7 +19049,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19075,11 +19075,11 @@
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S219" t="n">
@@ -19133,7 +19133,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S220" t="n">
@@ -19207,7 +19207,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19233,11 +19233,11 @@
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S221" t="n">
@@ -19287,7 +19287,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19313,11 +19313,11 @@
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S222" t="n">
@@ -19371,7 +19371,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19397,11 +19397,11 @@
       </c>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S223" t="n">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19485,11 +19485,11 @@
       </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S224" t="n">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19573,11 +19573,11 @@
       </c>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="S225" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19669,10 +19669,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U226" t="n">
         <v>1914</v>
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="T227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U227" t="n">
         <v>1914</v>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="T228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U228" t="n">
         <v>1914</v>
@@ -19899,7 +19899,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U229" t="n">
         <v>1914</v>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="T230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>1689</v>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U231" t="n">
         <v>1689</v>
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20175,11 +20175,11 @@
       </c>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S232" t="n">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S233" t="n">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20329,11 +20329,11 @@
       </c>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S234" t="n">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20409,11 +20409,11 @@
       </c>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Ireland']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Ireland']</t>
+          <t>['Ireland', 'Norway', 'Italy']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Ireland']</t>
+          <t>['Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20835,11 +20835,11 @@
       </c>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="S240" t="n">
@@ -20889,7 +20889,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20915,11 +20915,11 @@
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="S241" t="n">
@@ -20963,7 +20963,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -20989,11 +20989,11 @@
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="S242" t="n">
@@ -21043,7 +21043,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21069,11 +21069,11 @@
       </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21165,10 +21165,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U244" t="n">
         <v>1825</v>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U245" t="n">
         <v>1825</v>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U246" t="n">
         <v>1675</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U247" t="n">
         <v>1675</v>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21509,18 +21509,18 @@
       </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U248" t="n">
         <v>1675</v>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21597,18 +21597,18 @@
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="S249" t="n">
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U249" t="n">
         <v>1675</v>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21693,10 +21693,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U250" t="n">
         <v>1675</v>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U251" t="n">
         <v>1675</v>
@@ -21821,7 +21821,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21901,7 +21901,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21975,7 +21975,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22055,7 +22055,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22407,7 +22407,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22495,7 +22495,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22671,7 +22671,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -25585,7 +25585,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25655,7 +25655,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27147,7 +27147,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27661,7 +27661,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27731,7 +27731,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28695,7 +28695,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29861,7 +29861,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29941,7 +29941,7 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30015,7 +30015,7 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30095,7 +30095,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30183,7 +30183,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30711,7 +30711,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -30873,7 +30873,7 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30953,7 +30953,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31027,7 +31027,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31107,7 +31107,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31547,7 +31547,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35325,7 +35325,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35405,7 +35405,7 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35479,7 +35479,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35559,7 +35559,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35647,7 +35647,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35823,7 +35823,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -35999,7 +35999,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36527,7 +36527,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37393,7 +37393,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37627,7 +37627,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38419,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39263,7 +39263,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39527,7 +39527,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39703,7 +39703,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39791,7 +39791,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39879,7 +39879,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Germany', 'Ireland']</t>
+          <t>['Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -40613,7 +40613,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40693,7 +40693,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40767,7 +40767,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40847,7 +40847,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41023,7 +41023,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41199,7 +41199,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41287,7 +41287,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41375,7 +41375,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41771,7 +41771,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41859,7 +41859,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42475,7 +42475,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42563,7 +42563,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42651,7 +42651,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42827,7 +42827,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42989,7 +42989,7 @@
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43069,7 +43069,7 @@
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43143,7 +43143,7 @@
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43223,7 +43223,7 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43311,7 +43311,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43399,7 +43399,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43487,7 +43487,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43575,7 +43575,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43663,7 +43663,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43839,7 +43839,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43927,7 +43927,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44103,7 +44103,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44191,7 +44191,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44279,7 +44279,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -45717,7 +45717,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45797,7 +45797,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,7 +45871,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45951,7 +45951,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,7 +46039,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46215,7 +46215,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46303,7 +46303,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46391,7 +46391,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46479,7 +46479,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46567,7 +46567,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46655,7 +46655,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46743,7 +46743,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -48255,7 +48255,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48431,7 +48431,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48607,7 +48607,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48783,7 +48783,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48959,7 +48959,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49047,7 +49047,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49275,7 +49275,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49363,7 +49363,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49539,7 +49539,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -50171,7 +50171,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50259,7 +50259,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50347,7 +50347,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50435,7 +50435,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50877,7 +50877,7 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50957,7 +50957,7 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51045,7 +51045,7 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51123,7 +51123,7 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51203,7 +51203,7 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51291,7 +51291,7 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51559,7 +51559,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51647,7 +51647,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -53913,7 +53913,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -53993,7 +53993,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54067,7 +54067,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54147,7 +54147,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54235,7 +54235,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54323,7 +54323,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54411,7 +54411,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54499,7 +54499,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54587,7 +54587,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54679,7 +54679,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54771,7 +54771,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54859,7 +54859,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -54947,7 +54947,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55035,7 +55035,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55123,7 +55123,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55211,7 +55211,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55285,7 +55285,7 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55365,7 +55365,7 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55449,7 +55449,7 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55523,7 +55523,7 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55603,7 +55603,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -58497,7 +58497,7 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58577,7 +58577,7 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58651,7 +58651,7 @@
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -58731,7 +58731,7 @@
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -58907,7 +58907,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -58995,7 +58995,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -59171,7 +59171,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -59259,7 +59259,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -59347,7 +59347,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -59435,7 +59435,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -59523,7 +59523,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -59611,7 +59611,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -60689,7 +60689,7 @@
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -60769,7 +60769,7 @@
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -60843,7 +60843,7 @@
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -60923,7 +60923,7 @@
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -61011,7 +61011,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -61103,7 +61103,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -61195,7 +61195,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -61287,7 +61287,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -61379,7 +61379,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -61471,7 +61471,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -61549,7 +61549,7 @@
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -61619,7 +61619,7 @@
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -61703,7 +61703,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -61791,7 +61791,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -61879,7 +61879,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -61967,7 +61967,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -62055,7 +62055,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -62143,7 +62143,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -62231,7 +62231,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -62319,7 +62319,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -62407,7 +62407,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -62495,7 +62495,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -62583,7 +62583,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -62671,7 +62671,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -62847,7 +62847,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -63023,7 +63023,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -63111,7 +63111,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -63199,7 +63199,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -63273,7 +63273,7 @@
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -63353,7 +63353,7 @@
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -63437,7 +63437,7 @@
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -63511,7 +63511,7 @@
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -63591,7 +63591,7 @@
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -63675,7 +63675,7 @@
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -63763,7 +63763,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -63851,7 +63851,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -63939,7 +63939,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -64027,7 +64027,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -64115,7 +64115,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -64203,7 +64203,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -64291,7 +64291,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -64467,7 +64467,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -64555,7 +64555,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -64629,7 +64629,7 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -64699,7 +64699,7 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -64769,7 +64769,7 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -64839,7 +64839,7 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -64923,7 +64923,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -65187,7 +65187,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -65275,7 +65275,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -65363,7 +65363,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -65451,7 +65451,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -65539,7 +65539,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -65627,7 +65627,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -65891,7 +65891,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -65979,7 +65979,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -66067,7 +66067,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -66155,7 +66155,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -66243,7 +66243,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -66419,7 +66419,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -66507,7 +66507,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -66683,7 +66683,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -66771,7 +66771,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -66859,7 +66859,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -66947,7 +66947,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -67035,7 +67035,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -67123,7 +67123,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -67211,7 +67211,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K784" t="inlineStr">
@@ -67299,7 +67299,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -67387,7 +67387,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -67475,7 +67475,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -67563,7 +67563,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -67651,7 +67651,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -67725,7 +67725,7 @@
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -67805,7 +67805,7 @@
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -67889,7 +67889,7 @@
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -67963,7 +67963,7 @@
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -68043,7 +68043,7 @@
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -68127,7 +68127,7 @@
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -68377,7 +68377,7 @@
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -68457,7 +68457,7 @@
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -68531,7 +68531,7 @@
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -68611,7 +68611,7 @@
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -68685,7 +68685,7 @@
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -68765,7 +68765,7 @@
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -68849,7 +68849,7 @@
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -68933,7 +68933,7 @@
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -69017,7 +69017,7 @@
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -69197,7 +69197,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -69289,7 +69289,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -69565,7 +69565,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -69657,7 +69657,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -69749,7 +69749,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -69841,7 +69841,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -69919,7 +69919,7 @@
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -69989,7 +69989,7 @@
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -70073,7 +70073,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -70165,7 +70165,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -70345,7 +70345,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -70433,7 +70433,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -70521,7 +70521,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -70609,7 +70609,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -70697,7 +70697,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -70785,7 +70785,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -70873,7 +70873,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -70961,7 +70961,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -71049,7 +71049,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -71137,7 +71137,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -71225,7 +71225,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -71313,7 +71313,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -71401,7 +71401,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -71489,7 +71489,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -71577,7 +71577,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -73507,7 +73507,7 @@
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -73587,7 +73587,7 @@
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -73661,7 +73661,7 @@
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -73741,7 +73741,7 @@
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -73829,7 +73829,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
@@ -73917,7 +73917,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -74005,7 +74005,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -74093,7 +74093,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -74181,7 +74181,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -74269,7 +74269,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
@@ -74357,7 +74357,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -74445,7 +74445,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -74533,7 +74533,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -74621,7 +74621,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -74797,7 +74797,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
@@ -74871,7 +74871,7 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -74941,7 +74941,7 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -75113,7 +75113,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -75201,7 +75201,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -75289,7 +75289,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -75377,7 +75377,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -75465,7 +75465,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -75641,7 +75641,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -75729,7 +75729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -75817,7 +75817,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -75905,7 +75905,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -75993,7 +75993,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -76895,7 +76895,7 @@
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -76965,7 +76965,7 @@
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -77049,7 +77049,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -77137,7 +77137,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -77225,7 +77225,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -77313,7 +77313,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -77401,7 +77401,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -77489,7 +77489,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -77577,7 +77577,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -77665,7 +77665,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -77753,7 +77753,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -77841,7 +77841,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -77929,7 +77929,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -78017,7 +78017,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -79945,7 +79945,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -80037,7 +80037,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -80129,7 +80129,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -80221,7 +80221,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -80313,7 +80313,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -80405,7 +80405,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -80497,7 +80497,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -80585,7 +80585,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -80673,7 +80673,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -80761,7 +80761,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -80835,7 +80835,7 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -80915,7 +80915,7 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -80989,7 +80989,7 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -81069,7 +81069,7 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -81245,7 +81245,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -81333,7 +81333,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -81421,7 +81421,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -81509,7 +81509,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -81685,7 +81685,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -81773,7 +81773,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -81847,7 +81847,7 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -81927,7 +81927,7 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K957" t="inlineStr">
@@ -82011,7 +82011,7 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -82085,7 +82085,7 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -82165,7 +82165,7 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -82249,7 +82249,7 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -83173,7 +83173,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -83261,7 +83261,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
@@ -83349,7 +83349,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -83437,7 +83437,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
@@ -83701,7 +83701,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -83789,7 +83789,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -85043,7 +85043,7 @@
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -85123,7 +85123,7 @@
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -85197,7 +85197,7 @@
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -85277,7 +85277,7 @@
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -85365,7 +85365,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
@@ -85453,7 +85453,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -85541,7 +85541,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -85629,7 +85629,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -85717,7 +85717,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -85805,7 +85805,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -85893,7 +85893,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -85981,7 +85981,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -86069,7 +86069,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -86157,7 +86157,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -86737,7 +86737,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -86825,7 +86825,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="K1015" t="inlineStr">
@@ -87075,7 +87075,7 @@
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -87145,7 +87145,7 @@
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -87317,7 +87317,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -87405,7 +87405,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -87493,7 +87493,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -87581,7 +87581,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -87669,7 +87669,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -87757,7 +87757,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -87845,7 +87845,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -87933,7 +87933,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -88021,7 +88021,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -88109,7 +88109,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -88197,7 +88197,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -88285,7 +88285,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -88373,7 +88373,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -88461,7 +88461,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -88549,7 +88549,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -88637,7 +88637,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -88725,7 +88725,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -88799,7 +88799,7 @@
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -88879,7 +88879,7 @@
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1039" t="inlineStr">
@@ -88967,7 +88967,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -89055,7 +89055,7 @@
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1041" t="inlineStr">
@@ -89143,7 +89143,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3301,7 +3301,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3381,7 +3381,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3469,7 +3469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3715,7 +3715,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4753,7 +4753,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4911,7 +4911,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4991,7 +4991,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5075,7 +5075,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6205,7 +6205,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6285,7 +6285,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6369,7 +6369,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6443,7 +6443,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6523,7 +6523,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7033,7 +7033,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7187,7 +7187,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Morocco', 'Portugal', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Portugal']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8573,7 +8573,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8643,7 +8643,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9593,7 +9593,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9663,7 +9663,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10789,7 +10789,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10859,7 +10859,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11633,7 +11633,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11703,7 +11703,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13005,7 +13005,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13075,7 +13075,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13849,7 +13849,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13919,7 +13919,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14517,7 +14517,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14597,7 +14597,7 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14681,7 +14681,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14755,7 +14755,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14835,7 +14835,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14919,7 +14919,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15521,7 +15521,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15591,7 +15591,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17245,7 +17245,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17315,7 +17315,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18015,7 +18015,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18969,7 +18969,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19049,7 +19049,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19133,7 +19133,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19207,7 +19207,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19287,7 +19287,7 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19371,7 +19371,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20149,7 +20149,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20229,7 +20229,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20303,7 +20303,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20383,7 +20383,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20809,7 +20809,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20889,7 +20889,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20963,7 +20963,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21043,7 +21043,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21821,7 +21821,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21901,7 +21901,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21975,7 +21975,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22055,7 +22055,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -24213,7 +24213,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24283,7 +24283,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24367,7 +24367,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25247,7 +25247,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25423,7 +25423,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25585,7 +25585,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25655,7 +25655,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27147,7 +27147,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -28857,7 +28857,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28937,7 +28937,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29021,7 +29021,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29095,7 +29095,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29175,7 +29175,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29259,7 +29259,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29347,7 +29347,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30359,7 +30359,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30623,7 +30623,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30873,7 +30873,7 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -30953,7 +30953,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31027,7 +31027,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31107,7 +31107,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31547,7 +31547,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -33601,7 +33601,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33671,7 +33671,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33755,7 +33755,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33843,7 +33843,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -33931,7 +33931,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34107,7 +34107,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34283,7 +34283,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34811,7 +34811,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34899,7 +34899,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35325,7 +35325,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35405,7 +35405,7 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35479,7 +35479,7 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35559,7 +35559,7 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35647,7 +35647,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35735,7 +35735,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35823,7 +35823,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -35999,7 +35999,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36527,7 +36527,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36879,7 +36879,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37319,7 +37319,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37393,7 +37393,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37547,7 +37547,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37627,7 +37627,7 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -38243,7 +38243,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38419,7 +38419,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38581,7 +38581,7 @@
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38661,7 +38661,7 @@
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38749,7 +38749,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38827,7 +38827,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38907,7 +38907,7 @@
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38995,7 +38995,7 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39953,7 +39953,7 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40033,7 +40033,7 @@
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40107,7 +40107,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40187,7 +40187,7 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40539,7 +40539,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40613,7 +40613,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40693,7 +40693,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40767,7 +40767,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40847,7 +40847,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41199,7 +41199,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41287,7 +41287,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41375,7 +41375,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41449,7 +41449,7 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41529,7 +41529,7 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41603,7 +41603,7 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41683,7 +41683,7 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -44353,7 +44353,7 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44433,7 +44433,7 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44507,7 +44507,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44587,7 +44587,7 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45027,7 +45027,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45115,7 +45115,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45291,7 +45291,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45555,7 +45555,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45643,7 +45643,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45717,7 +45717,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45797,7 +45797,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,7 +45871,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45951,7 +45951,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,7 +46039,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46215,7 +46215,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46303,7 +46303,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46391,7 +46391,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46479,7 +46479,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46567,7 +46567,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46655,7 +46655,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46743,7 +46743,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -49275,7 +49275,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49363,7 +49363,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49539,7 +49539,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -50171,7 +50171,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50259,7 +50259,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50347,7 +50347,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50435,7 +50435,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -51559,7 +51559,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51647,7 +51647,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51735,7 +51735,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51999,7 +51999,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52073,7 +52073,7 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52153,7 +52153,7 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52237,7 +52237,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52311,7 +52311,7 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52391,7 +52391,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52475,7 +52475,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52651,7 +52651,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52739,7 +52739,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52827,7 +52827,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -53913,7 +53913,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -53993,7 +53993,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54067,7 +54067,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54147,7 +54147,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54235,7 +54235,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54323,7 +54323,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54411,7 +54411,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54499,7 +54499,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54587,7 +54587,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54679,7 +54679,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54771,7 +54771,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54859,7 +54859,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -54947,7 +54947,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55035,7 +55035,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55123,7 +55123,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55211,7 +55211,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55775,7 +55775,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55863,7 +55863,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55951,7 +55951,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56039,7 +56039,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56113,7 +56113,7 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56193,7 +56193,7 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56267,7 +56267,7 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56347,7 +56347,7 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56523,7 +56523,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56611,7 +56611,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56699,7 +56699,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56787,7 +56787,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56963,7 +56963,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57051,7 +57051,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57125,7 +57125,7 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57195,7 +57195,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57279,7 +57279,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57367,7 +57367,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57631,7 +57631,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57719,7 +57719,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57807,7 +57807,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -57983,7 +57983,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58071,7 +58071,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58159,7 +58159,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58247,7 +58247,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58335,7 +58335,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58423,7 +58423,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -59685,7 +59685,7 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -59765,7 +59765,7 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -59849,7 +59849,7 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -59923,7 +59923,7 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -60003,7 +60003,7 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -60087,7 +60087,7 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -60175,7 +60175,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -60263,7 +60263,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -60351,7 +60351,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -60439,7 +60439,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -60527,7 +60527,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -60615,7 +60615,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -60689,7 +60689,7 @@
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -60769,7 +60769,7 @@
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -60843,7 +60843,7 @@
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -60923,7 +60923,7 @@
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -61011,7 +61011,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -61103,7 +61103,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -61195,7 +61195,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -61287,7 +61287,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -61379,7 +61379,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -61471,7 +61471,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -61549,7 +61549,7 @@
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -61619,7 +61619,7 @@
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -61703,7 +61703,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -61791,7 +61791,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -61879,7 +61879,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -61967,7 +61967,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -62055,7 +62055,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -62143,7 +62143,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -62231,7 +62231,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -62319,7 +62319,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -62407,7 +62407,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -62495,7 +62495,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -62583,7 +62583,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -62671,7 +62671,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -62847,7 +62847,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K734" t="inlineStr">
@@ -63023,7 +63023,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -63111,7 +63111,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -63199,7 +63199,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -65275,7 +65275,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -65363,7 +65363,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -65451,7 +65451,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -65539,7 +65539,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -65627,7 +65627,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -65891,7 +65891,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -65979,7 +65979,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -66067,7 +66067,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -66155,7 +66155,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -66243,7 +66243,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -67387,7 +67387,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -67475,7 +67475,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -67563,7 +67563,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -67651,7 +67651,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -69197,7 +69197,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -69289,7 +69289,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -69473,7 +69473,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -69565,7 +69565,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -69657,7 +69657,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -69749,7 +69749,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -69841,7 +69841,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -69919,7 +69919,7 @@
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -69989,7 +69989,7 @@
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -70073,7 +70073,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -70165,7 +70165,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -70345,7 +70345,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -70433,7 +70433,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -70521,7 +70521,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K823" t="inlineStr">
@@ -70609,7 +70609,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -70697,7 +70697,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -70785,7 +70785,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -70873,7 +70873,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
@@ -70961,7 +70961,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -71049,7 +71049,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -71137,7 +71137,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -71225,7 +71225,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -71313,7 +71313,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -71401,7 +71401,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -71489,7 +71489,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -71577,7 +71577,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -71651,7 +71651,7 @@
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -71731,7 +71731,7 @@
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -71805,7 +71805,7 @@
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -71885,7 +71885,7 @@
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -71973,7 +71973,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -72061,7 +72061,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -72149,7 +72149,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -72237,7 +72237,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -72325,7 +72325,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -72417,7 +72417,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -72509,7 +72509,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K846" t="inlineStr">
@@ -72597,7 +72597,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -74871,7 +74871,7 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -74941,7 +74941,7 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
@@ -75113,7 +75113,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -75201,7 +75201,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -75289,7 +75289,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -75377,7 +75377,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -75465,7 +75465,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -75641,7 +75641,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -75729,7 +75729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -75817,7 +75817,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -75905,7 +75905,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -75993,7 +75993,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -76067,7 +76067,7 @@
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -76147,7 +76147,7 @@
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -76231,7 +76231,7 @@
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
@@ -76305,7 +76305,7 @@
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -76385,7 +76385,7 @@
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -76469,7 +76469,7 @@
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -76557,7 +76557,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -76645,7 +76645,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -76733,7 +76733,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -76821,7 +76821,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -77049,7 +77049,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -77137,7 +77137,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -77753,7 +77753,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -77841,7 +77841,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -77929,7 +77929,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -78017,7 +78017,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -78091,7 +78091,7 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -78171,7 +78171,7 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -78245,7 +78245,7 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -78325,7 +78325,7 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -78413,7 +78413,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -78501,7 +78501,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -78677,7 +78677,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -78765,7 +78765,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -78853,7 +78853,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -78941,7 +78941,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -79029,7 +79029,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -79117,7 +79117,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -79205,7 +79205,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -79381,7 +79381,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -79455,7 +79455,7 @@
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -79535,7 +79535,7 @@
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -79619,7 +79619,7 @@
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -79693,7 +79693,7 @@
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -79773,7 +79773,7 @@
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -79857,7 +79857,7 @@
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -80835,7 +80835,7 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -80915,7 +80915,7 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -80989,7 +80989,7 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -81069,7 +81069,7 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -81245,7 +81245,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -81333,7 +81333,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -81421,7 +81421,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -81509,7 +81509,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -81685,7 +81685,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -81773,7 +81773,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -82337,7 +82337,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -82425,7 +82425,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -82513,7 +82513,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -82601,7 +82601,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -83863,7 +83863,7 @@
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -83943,7 +83943,7 @@
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -84027,7 +84027,7 @@
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
@@ -84101,7 +84101,7 @@
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -84181,7 +84181,7 @@
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K984" t="inlineStr">
@@ -84265,7 +84265,7 @@
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K985" t="inlineStr">
@@ -84353,7 +84353,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -84441,7 +84441,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K988" t="inlineStr">
@@ -84617,7 +84617,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -84705,7 +84705,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -84793,7 +84793,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -84881,7 +84881,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -84969,7 +84969,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -85043,7 +85043,7 @@
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -85123,7 +85123,7 @@
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -85197,7 +85197,7 @@
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -85277,7 +85277,7 @@
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -87075,7 +87075,7 @@
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -87145,7 +87145,7 @@
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -87317,7 +87317,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -87405,7 +87405,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -87493,7 +87493,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -87581,7 +87581,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -87669,7 +87669,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -87757,7 +87757,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -87845,7 +87845,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -87933,7 +87933,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -88021,7 +88021,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -88285,7 +88285,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1032" t="inlineStr">
@@ -88373,7 +88373,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -88461,7 +88461,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -88549,7 +88549,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -88637,7 +88637,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -88725,7 +88725,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -89217,7 +89217,7 @@
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -89297,7 +89297,7 @@
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1044" t="inlineStr">
@@ -89375,7 +89375,7 @@
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -89455,7 +89455,7 @@
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -89547,7 +89547,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -89723,7 +89723,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -89815,7 +89815,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -90083,7 +90083,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -90175,7 +90175,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -90267,7 +90267,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -90355,7 +90355,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -90443,7 +90443,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -90531,7 +90531,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -91111,7 +91111,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -91199,7 +91199,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -91287,7 +91287,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -91375,7 +91375,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -91463,7 +91463,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -91551,7 +91551,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">

--- a/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/goals_wc_fifa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2673,7 +2673,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2797,7 +2797,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3551,7 +3551,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3643,7 +3643,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3767,7 +3767,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4649,7 +4649,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4741,7 +4741,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4865,7 +4865,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5327,7 +5327,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -6337,7 +6337,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7059,7 +7059,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7909,7 +7909,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8503,7 +8503,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9481,7 +9481,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10075,7 +10075,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Ireland', 'England', 'Netherlands']</t>
+          <t>['Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10541,7 +10541,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10633,7 +10633,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10757,7 +10757,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12489,7 +12489,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13723,7 +13723,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13815,7 +13815,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13939,7 +13939,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14565,7 +14565,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14657,7 +14657,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Norway']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Ireland', 'Mexico', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15027,7 +15027,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15119,7 +15119,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15745,7 +15745,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15837,7 +15837,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16719,7 +16719,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17327,7 +17327,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19909,7 +19909,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20005,7 +20005,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20133,7 +20133,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20759,7 +20759,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20851,7 +20851,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20975,7 +20975,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21473,7 +21473,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21565,7 +21565,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22191,7 +22191,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22283,7 +22283,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -24139,7 +24139,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24235,7 +24235,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25259,7 +25259,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -26859,7 +26859,7 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26951,7 +26951,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27591,7 +27591,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -28675,7 +28675,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28767,7 +28767,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -29023,7 +29023,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -30829,7 +30829,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30921,7 +30921,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -31049,7 +31049,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31305,7 +31305,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31561,7 +31561,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31803,7 +31803,7 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31895,7 +31895,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32023,7 +32023,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32151,7 +32151,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32279,7 +32279,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32535,7 +32535,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32663,7 +32663,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -33623,7 +33623,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33719,7 +33719,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33975,7 +33975,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Por